--- a/etf_dfs/EWL.xlsx
+++ b/etf_dfs/EWL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Open</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Return</t>
   </si>
   <si>
-    <t>Return_12</t>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
   </si>
   <si>
     <t>EWL</t>
@@ -404,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J311"/>
+  <dimension ref="A1:K312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>35125</v>
       </c>
@@ -456,13 +462,13 @@
         <v>12.4375</v>
       </c>
       <c r="F2">
-        <v>7.230309963226318</v>
+        <v>7.230309009552002</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>35156</v>
       </c>
@@ -479,7 +485,7 @@
         <v>12.1875</v>
       </c>
       <c r="F3">
-        <v>7.084976673126221</v>
+        <v>7.084975242614746</v>
       </c>
       <c r="G3">
         <v>1100</v>
@@ -488,7 +494,7 @@
         <v>-0.02010050251256279</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>35186</v>
       </c>
@@ -505,7 +511,7 @@
         <v>11.8125</v>
       </c>
       <c r="F4">
-        <v>6.866977214813232</v>
+        <v>6.866976737976074</v>
       </c>
       <c r="G4">
         <v>21100</v>
@@ -513,8 +519,11 @@
       <c r="H4">
         <v>-0.03076923076923077</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4">
+        <v>0.007543930096926462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>35217</v>
       </c>
@@ -531,7 +540,7 @@
         <v>12.375</v>
       </c>
       <c r="F5">
-        <v>7.193976402282715</v>
+        <v>7.193974494934082</v>
       </c>
       <c r="G5">
         <v>500</v>
@@ -539,8 +548,11 @@
       <c r="H5">
         <v>0.04761904761904767</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5">
+        <v>0.04251368685752972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>35247</v>
       </c>
@@ -557,7 +569,7 @@
         <v>12.0625</v>
       </c>
       <c r="F6">
-        <v>7.012310028076172</v>
+        <v>7.012309551239014</v>
       </c>
       <c r="G6">
         <v>13200</v>
@@ -565,8 +577,11 @@
       <c r="H6">
         <v>-0.0252525252525253</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6">
+        <v>0.03675564007986697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>35278</v>
       </c>
@@ -583,7 +598,7 @@
         <v>12.1875</v>
       </c>
       <c r="F7">
-        <v>7.138961791992188</v>
+        <v>7.138961315155029</v>
       </c>
       <c r="G7">
         <v>20000</v>
@@ -591,8 +606,11 @@
       <c r="H7">
         <v>0.01036269430051817</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7">
+        <v>0.03277807672712908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>35309</v>
       </c>
@@ -609,7 +627,7 @@
         <v>11.9375</v>
       </c>
       <c r="F8">
-        <v>6.992522716522217</v>
+        <v>6.992523193359375</v>
       </c>
       <c r="G8">
         <v>6700</v>
@@ -617,8 +635,11 @@
       <c r="H8">
         <v>-0.02051282051282055</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8">
+        <v>0.0301170626651067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>35339</v>
       </c>
@@ -635,7 +656,7 @@
         <v>11.8125</v>
       </c>
       <c r="F9">
-        <v>6.919301986694336</v>
+        <v>6.919301509857178</v>
       </c>
       <c r="G9">
         <v>500</v>
@@ -643,8 +664,11 @@
       <c r="H9">
         <v>-0.01047120418848169</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9">
+        <v>0.02753513226365008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>35370</v>
       </c>
@@ -661,7 +685,7 @@
         <v>12.1875</v>
       </c>
       <c r="F10">
-        <v>7.138961791992188</v>
+        <v>7.138961315155029</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -669,8 +693,11 @@
       <c r="H10">
         <v>0.03174603174603186</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10">
+        <v>0.02894306184843658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>35400</v>
       </c>
@@ -687,7 +714,7 @@
         <v>12</v>
       </c>
       <c r="F11">
-        <v>7.029132843017578</v>
+        <v>7.029131412506104</v>
       </c>
       <c r="G11">
         <v>6600</v>
@@ -695,8 +722,11 @@
       <c r="H11">
         <v>-0.01538461538461533</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11">
+        <v>0.02742962499350414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>35431</v>
       </c>
@@ -713,7 +743,7 @@
         <v>12.375</v>
       </c>
       <c r="F12">
-        <v>7.248793125152588</v>
+        <v>7.248791217803955</v>
       </c>
       <c r="G12">
         <v>20200</v>
@@ -721,8 +751,11 @@
       <c r="H12">
         <v>0.03125</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12">
+        <v>0.02811618220154861</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>35462</v>
       </c>
@@ -739,7 +772,7 @@
         <v>12.3125</v>
       </c>
       <c r="F13">
-        <v>7.212182998657227</v>
+        <v>7.212180137634277</v>
       </c>
       <c r="G13">
         <v>8300</v>
@@ -747,8 +780,11 @@
       <c r="H13">
         <v>-0.005050505050505083</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13">
+        <v>0.02671422354109424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>35490</v>
       </c>
@@ -765,7 +801,7 @@
         <v>12.5</v>
       </c>
       <c r="F14">
-        <v>7.322012901306152</v>
+        <v>7.322011947631836</v>
       </c>
       <c r="G14">
         <v>9700</v>
@@ -774,13 +810,16 @@
         <v>0.01522842639593902</v>
       </c>
       <c r="I14">
-        <v>0.005025125628140614</v>
+        <v>0.02587744241041798</v>
       </c>
       <c r="J14">
         <v>0.005025125628140614</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0.005025125628140614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>35521</v>
       </c>
@@ -797,7 +836,7 @@
         <v>13.3125</v>
       </c>
       <c r="F15">
-        <v>7.797944068908691</v>
+        <v>7.79794454574585</v>
       </c>
       <c r="G15">
         <v>94600</v>
@@ -806,13 +845,16 @@
         <v>0.06499999999999995</v>
       </c>
       <c r="I15">
-        <v>0.0923076923076922</v>
+        <v>0.03052307268354139</v>
       </c>
       <c r="J15">
         <v>0.0923076923076922</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>0.0923076923076922</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>35551</v>
       </c>
@@ -829,7 +871,7 @@
         <v>14.4375</v>
       </c>
       <c r="F16">
-        <v>8.456924438476562</v>
+        <v>8.456926345825195</v>
       </c>
       <c r="G16">
         <v>3800</v>
@@ -838,13 +880,16 @@
         <v>0.08450704225352124</v>
       </c>
       <c r="I16">
-        <v>0.2222222222222223</v>
+        <v>0.03611065836821827</v>
       </c>
       <c r="J16">
         <v>0.2222222222222223</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>0.2222222222222223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>35582</v>
       </c>
@@ -870,13 +915,16 @@
         <v>0.07359307359307365</v>
       </c>
       <c r="I17">
-        <v>0.2525252525252526</v>
+        <v>0.03833471124669454</v>
       </c>
       <c r="J17">
         <v>0.2525252525252526</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>0.2525252525252526</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>35612</v>
       </c>
@@ -893,7 +941,7 @@
         <v>15.875</v>
       </c>
       <c r="F18">
-        <v>9.298957824707031</v>
+        <v>9.298955917358398</v>
       </c>
       <c r="G18">
         <v>2500</v>
@@ -902,13 +950,16 @@
         <v>0.02419354838709675</v>
       </c>
       <c r="I18">
-        <v>0.3160621761658031</v>
+        <v>0.03709928700827448</v>
       </c>
       <c r="J18">
         <v>0.3160621761658031</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0.3160621761658031</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>35643</v>
       </c>
@@ -934,13 +985,16 @@
         <v>-0.1220472440944882</v>
       </c>
       <c r="I19">
-        <v>0.1435897435897435</v>
+        <v>0.04910493927181638</v>
       </c>
       <c r="J19">
         <v>0.1435897435897435</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>0.1435897435897435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>35674</v>
       </c>
@@ -957,7 +1011,7 @@
         <v>15</v>
       </c>
       <c r="F20">
-        <v>9.136518478393555</v>
+        <v>9.136523246765137</v>
       </c>
       <c r="G20">
         <v>1800</v>
@@ -966,13 +1020,16 @@
         <v>0.07623318385650224</v>
       </c>
       <c r="I20">
-        <v>0.256544502617801</v>
+        <v>0.05028956441090495</v>
       </c>
       <c r="J20">
         <v>0.256544502617801</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0.256544502617801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>35704</v>
       </c>
@@ -989,7 +1046,7 @@
         <v>14.625</v>
       </c>
       <c r="F21">
-        <v>8.908108711242676</v>
+        <v>8.908107757568359</v>
       </c>
       <c r="G21">
         <v>38400</v>
@@ -998,13 +1055,16 @@
         <v>-0.02500000000000002</v>
       </c>
       <c r="I21">
-        <v>0.2380952380952381</v>
+        <v>0.04959162480431556</v>
       </c>
       <c r="J21">
         <v>0.2380952380952381</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>0.2380952380952381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>35735</v>
       </c>
@@ -1030,13 +1090,16 @@
         <v>0.01709401709401703</v>
       </c>
       <c r="I22">
-        <v>0.2205128205128206</v>
+        <v>0.04829691172037139</v>
       </c>
       <c r="J22">
         <v>0.2205128205128206</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>0.2205128205128206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>35765</v>
       </c>
@@ -1053,7 +1116,7 @@
         <v>15.4375</v>
       </c>
       <c r="F23">
-        <v>9.418699264526367</v>
+        <v>9.418700218200684</v>
       </c>
       <c r="G23">
         <v>500</v>
@@ -1062,13 +1125,16 @@
         <v>0.03781512605042026</v>
       </c>
       <c r="I23">
-        <v>0.2864583333333333</v>
+        <v>0.04746059600064542</v>
       </c>
       <c r="J23">
         <v>0.2864583333333333</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>0.2864583333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>35796</v>
       </c>
@@ -1085,7 +1151,7 @@
         <v>16</v>
       </c>
       <c r="F24">
-        <v>9.761892318725586</v>
+        <v>9.76189136505127</v>
       </c>
       <c r="G24">
         <v>6500</v>
@@ -1094,13 +1160,16 @@
         <v>0.03643724696356276</v>
       </c>
       <c r="I24">
-        <v>0.292929292929293</v>
+        <v>0.04662262212469408</v>
       </c>
       <c r="J24">
         <v>0.292929292929293</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>0.292929292929293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>35827</v>
       </c>
@@ -1117,7 +1186,7 @@
         <v>17.4375</v>
       </c>
       <c r="F25">
-        <v>10.63893699645996</v>
+        <v>10.63893890380859</v>
       </c>
       <c r="G25">
         <v>4700</v>
@@ -1126,13 +1195,16 @@
         <v>0.08984375</v>
       </c>
       <c r="I25">
-        <v>0.4162436548223349</v>
+        <v>0.04831665959287598</v>
       </c>
       <c r="J25">
         <v>0.4162436548223349</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>0.4162436548223349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>35855</v>
       </c>
@@ -1149,7 +1221,7 @@
         <v>18.3125</v>
       </c>
       <c r="F26">
-        <v>11.17278861999512</v>
+        <v>11.17278957366943</v>
       </c>
       <c r="G26">
         <v>3400</v>
@@ -1158,13 +1230,16 @@
         <v>0.05017921146953408</v>
       </c>
       <c r="I26">
-        <v>0.4650000000000001</v>
+        <v>0.04776904696284902</v>
       </c>
       <c r="J26">
         <v>0.4650000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>0.4650000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>35886</v>
       </c>
@@ -1181,7 +1256,7 @@
         <v>18.25</v>
       </c>
       <c r="F27">
-        <v>11.13465595245361</v>
+        <v>11.13465690612793</v>
       </c>
       <c r="G27">
         <v>31500</v>
@@ -1190,13 +1265,16 @@
         <v>-0.003412969283276501</v>
       </c>
       <c r="I27">
-        <v>0.3708920187793427</v>
+        <v>0.04694736783692047</v>
       </c>
       <c r="J27">
         <v>0.3708920187793427</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>0.3708920187793427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>35916</v>
       </c>
@@ -1213,7 +1291,7 @@
         <v>19.375</v>
       </c>
       <c r="F28">
-        <v>11.82104396820068</v>
+        <v>11.82104015350342</v>
       </c>
       <c r="G28">
         <v>1300</v>
@@ -1222,13 +1300,16 @@
         <v>0.06164383561643838</v>
       </c>
       <c r="I28">
-        <v>0.3419913419913421</v>
+        <v>0.04684221394845206</v>
       </c>
       <c r="J28">
         <v>0.3419913419913421</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0.3419913419913421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>35947</v>
       </c>
@@ -1245,7 +1326,7 @@
         <v>18.875</v>
       </c>
       <c r="F29">
-        <v>11.51598072052002</v>
+        <v>11.51598453521729</v>
       </c>
       <c r="G29">
         <v>14000</v>
@@ -1254,13 +1335,16 @@
         <v>-0.02580645161290318</v>
       </c>
       <c r="I29">
-        <v>0.217741935483871</v>
+        <v>0.04670888018392586</v>
       </c>
       <c r="J29">
         <v>0.217741935483871</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0.217741935483871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>35977</v>
       </c>
@@ -1277,7 +1361,7 @@
         <v>19.8125</v>
       </c>
       <c r="F30">
-        <v>12.08796691894531</v>
+        <v>12.08796977996826</v>
       </c>
       <c r="G30">
         <v>3300</v>
@@ -1286,13 +1370,16 @@
         <v>0.04966887417218535</v>
       </c>
       <c r="I30">
-        <v>0.2480314960629921</v>
+        <v>0.04625911677116066</v>
       </c>
       <c r="J30">
         <v>0.2480314960629921</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>0.2480314960629921</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>36008</v>
       </c>
@@ -1309,7 +1396,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>9.853937149047852</v>
+        <v>9.853939056396484</v>
       </c>
       <c r="G31">
         <v>31700</v>
@@ -1318,13 +1405,16 @@
         <v>-0.2429022082018928</v>
       </c>
       <c r="I31">
-        <v>0.07623318385650224</v>
+        <v>0.06638717065496638</v>
       </c>
       <c r="J31">
         <v>0.07623318385650224</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>0.07623318385650224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>36039</v>
       </c>
@@ -1341,7 +1431,7 @@
         <v>13.75</v>
       </c>
       <c r="F32">
-        <v>9.032773971557617</v>
+        <v>9.03277587890625</v>
       </c>
       <c r="G32">
         <v>6300</v>
@@ -1350,13 +1440,16 @@
         <v>-0.08333333333333337</v>
       </c>
       <c r="I32">
-        <v>-0.08333333333333337</v>
+        <v>0.06736720794086908</v>
       </c>
       <c r="J32">
         <v>-0.08333333333333337</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>-0.08333333333333337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>36069</v>
       </c>
@@ -1382,13 +1475,16 @@
         <v>0.1772727272727272</v>
       </c>
       <c r="I33">
-        <v>0.1068376068376069</v>
+        <v>0.07304891390951175</v>
       </c>
       <c r="J33">
         <v>0.1068376068376069</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>0.1068376068376069</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>36100</v>
       </c>
@@ -1414,13 +1510,16 @@
         <v>0.04633204633204624</v>
       </c>
       <c r="I34">
-        <v>0.1386554621848739</v>
+        <v>0.07212771912218263</v>
       </c>
       <c r="J34">
         <v>0.1386554621848739</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>0.1386554621848739</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>36130</v>
       </c>
@@ -1437,7 +1536,7 @@
         <v>17</v>
       </c>
       <c r="F35">
-        <v>11.5451831817627</v>
+        <v>11.54518413543701</v>
       </c>
       <c r="G35">
         <v>13300</v>
@@ -1446,13 +1545,16 @@
         <v>0.003690036900368954</v>
       </c>
       <c r="I35">
-        <v>0.1012145748987854</v>
+        <v>0.07100787241120564</v>
       </c>
       <c r="J35">
         <v>0.1012145748987854</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>0.1012145748987854</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>36161</v>
       </c>
@@ -1469,7 +1571,7 @@
         <v>16.8125</v>
       </c>
       <c r="F36">
-        <v>11.41784858703613</v>
+        <v>11.41784954071045</v>
       </c>
       <c r="G36">
         <v>4100</v>
@@ -1478,13 +1580,16 @@
         <v>-0.01102941176470584</v>
       </c>
       <c r="I36">
-        <v>0.05078125</v>
+        <v>0.07003624775990139</v>
       </c>
       <c r="J36">
         <v>0.05078125</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>0.05078125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>36192</v>
       </c>
@@ -1510,13 +1615,16 @@
         <v>-0.03345724907063197</v>
       </c>
       <c r="I37">
-        <v>-0.06810035842293904</v>
+        <v>0.06941453672703546</v>
       </c>
       <c r="J37">
         <v>-0.06810035842293904</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>-0.06810035842293904</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>36220</v>
       </c>
@@ -1533,7 +1641,7 @@
         <v>15.8125</v>
       </c>
       <c r="F38">
-        <v>10.73871898651123</v>
+        <v>10.73871994018555</v>
       </c>
       <c r="G38">
         <v>31500</v>
@@ -1542,13 +1650,16 @@
         <v>-0.02692307692307694</v>
       </c>
       <c r="I38">
-        <v>-0.1365187713310581</v>
+        <v>0.06869413343794227</v>
       </c>
       <c r="J38">
         <v>-0.1365187713310581</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>-0.1365187713310581</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>36251</v>
       </c>
@@ -1574,13 +1685,16 @@
         <v>0.02766798418972338</v>
       </c>
       <c r="I39">
-        <v>-0.1095890410958904</v>
+        <v>0.06780194445224569</v>
       </c>
       <c r="J39">
         <v>-0.1095890410958904</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>-0.1095890410958904</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>36281</v>
       </c>
@@ -1597,7 +1711,7 @@
         <v>15.4375</v>
       </c>
       <c r="F40">
-        <v>10.48404598236084</v>
+        <v>10.48404502868652</v>
       </c>
       <c r="G40">
         <v>3300</v>
@@ -1606,13 +1720,16 @@
         <v>-0.05000000000000004</v>
       </c>
       <c r="I40">
-        <v>-0.2032258064516129</v>
+        <v>0.06757512085588206</v>
       </c>
       <c r="J40">
         <v>-0.2032258064516129</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>-0.2032258064516129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>36312</v>
       </c>
@@ -1629,7 +1746,7 @@
         <v>15.8125</v>
       </c>
       <c r="F41">
-        <v>10.73871898651123</v>
+        <v>10.73871994018555</v>
       </c>
       <c r="G41">
         <v>81100</v>
@@ -1638,13 +1755,16 @@
         <v>0.02429149797570851</v>
       </c>
       <c r="I41">
-        <v>-0.1622516556291391</v>
+        <v>0.06673074126378006</v>
       </c>
       <c r="J41">
         <v>-0.1622516556291391</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>-0.1622516556291391</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>36342</v>
       </c>
@@ -1661,7 +1781,7 @@
         <v>15.75</v>
       </c>
       <c r="F42">
-        <v>10.69627380371094</v>
+        <v>10.69627571105957</v>
       </c>
       <c r="G42">
         <v>3800</v>
@@ -1670,13 +1790,16 @@
         <v>-0.003952569169960451</v>
       </c>
       <c r="I42">
-        <v>-0.2050473186119873</v>
+        <v>0.06589892823879312</v>
       </c>
       <c r="J42">
         <v>-0.2050473186119873</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>-0.2050473186119873</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>36373</v>
       </c>
@@ -1693,7 +1816,7 @@
         <v>15.3125</v>
       </c>
       <c r="F43">
-        <v>10.65964984893799</v>
+        <v>10.65965175628662</v>
       </c>
       <c r="G43">
         <v>14900</v>
@@ -1702,13 +1825,16 @@
         <v>-0.02777777777777779</v>
       </c>
       <c r="I43">
-        <v>0.02083333333333326</v>
+        <v>0.06531153515256399</v>
       </c>
       <c r="J43">
         <v>0.02083333333333326</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>0.02083333333333326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>36404</v>
       </c>
@@ -1734,13 +1860,16 @@
         <v>0.02448979591836742</v>
       </c>
       <c r="I44">
-        <v>0.1409090909090909</v>
+        <v>0.06456476905395675</v>
       </c>
       <c r="J44">
         <v>0.1409090909090909</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>0.1409090909090909</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>36434</v>
       </c>
@@ -1757,7 +1886,7 @@
         <v>15.8125</v>
       </c>
       <c r="F45">
-        <v>11.00771999359131</v>
+        <v>11.00772094726562</v>
       </c>
       <c r="G45">
         <v>74400</v>
@@ -1766,13 +1895,16 @@
         <v>0.007968127490039834</v>
       </c>
       <c r="I45">
-        <v>-0.02316602316602312</v>
+        <v>0.06379152450360576</v>
       </c>
       <c r="J45">
         <v>-0.02316602316602312</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>-0.02316602316602312</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>36465</v>
       </c>
@@ -1789,7 +1921,7 @@
         <v>15.75</v>
       </c>
       <c r="F46">
-        <v>10.96421146392822</v>
+        <v>10.96421337127686</v>
       </c>
       <c r="G46">
         <v>3000</v>
@@ -1798,13 +1930,16 @@
         <v>-0.003952569169960451</v>
       </c>
       <c r="I46">
-        <v>-0.07011070110701112</v>
+        <v>0.06306985325112753</v>
       </c>
       <c r="J46">
         <v>-0.07011070110701112</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>-0.07011070110701112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>36495</v>
       </c>
@@ -1821,7 +1956,7 @@
         <v>16</v>
       </c>
       <c r="F47">
-        <v>11.1382474899292</v>
+        <v>11.13824939727783</v>
       </c>
       <c r="G47">
         <v>1400</v>
@@ -1830,13 +1965,16 @@
         <v>0.01587301587301582</v>
       </c>
       <c r="I47">
-        <v>-0.05882352941176472</v>
+        <v>0.06236172859101573</v>
       </c>
       <c r="J47">
         <v>-0.05882352941176472</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>-0.05882352941176472</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>36526</v>
       </c>
@@ -1862,13 +2000,16 @@
         <v>-0.109375</v>
       </c>
       <c r="I48">
-        <v>-0.1524163568773235</v>
+        <v>0.06403218535501408</v>
       </c>
       <c r="J48">
         <v>-0.1524163568773235</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>-0.1524163568773235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>36557</v>
       </c>
@@ -1894,13 +2035,16 @@
         <v>0.01315789473684204</v>
       </c>
       <c r="I49">
-        <v>-0.1115384615384616</v>
+        <v>0.06334333016939966</v>
       </c>
       <c r="J49">
         <v>-0.1115384615384616</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>-0.1115384615384616</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>36586</v>
       </c>
@@ -1917,7 +2061,7 @@
         <v>15.5</v>
       </c>
       <c r="F50">
-        <v>10.79017543792725</v>
+        <v>10.79017734527588</v>
       </c>
       <c r="G50">
         <v>18200</v>
@@ -1926,13 +2070,16 @@
         <v>0.07359307359307365</v>
       </c>
       <c r="I50">
-        <v>-0.01976284584980237</v>
+        <v>0.06343754261465061</v>
       </c>
       <c r="J50">
         <v>-0.01976284584980237</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>-0.01976284584980237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>36617</v>
       </c>
@@ -1949,7 +2096,7 @@
         <v>14.875</v>
       </c>
       <c r="F51">
-        <v>10.35508918762207</v>
+        <v>10.35508728027344</v>
       </c>
       <c r="G51">
         <v>3900</v>
@@ -1958,13 +2105,16 @@
         <v>-0.04032258064516125</v>
       </c>
       <c r="I51">
-        <v>-0.08461538461538465</v>
+        <v>0.06313123137244886</v>
       </c>
       <c r="J51">
         <v>-0.08461538461538465</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>-0.08461538461538465</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>36647</v>
       </c>
@@ -1981,7 +2131,7 @@
         <v>15.75</v>
       </c>
       <c r="F52">
-        <v>10.96421146392822</v>
+        <v>10.96421337127686</v>
       </c>
       <c r="G52">
         <v>22500</v>
@@ -1990,13 +2140,16 @@
         <v>0.05882352941176472</v>
       </c>
       <c r="I52">
-        <v>0.02024291497975717</v>
+        <v>0.06293353624798403</v>
       </c>
       <c r="J52">
         <v>0.02024291497975717</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>0.02024291497975717</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>36678</v>
       </c>
@@ -2022,13 +2175,16 @@
         <v>0.01190476190476186</v>
       </c>
       <c r="I53">
-        <v>0.007905138339920903</v>
+        <v>0.06230516343742851</v>
       </c>
       <c r="J53">
         <v>0.007905138339920903</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>0.007905138339920903</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>36708</v>
       </c>
@@ -2045,7 +2201,7 @@
         <v>16</v>
       </c>
       <c r="F54">
-        <v>11.1382474899292</v>
+        <v>11.13824939727783</v>
       </c>
       <c r="G54">
         <v>700</v>
@@ -2054,13 +2210,16 @@
         <v>0.003921568627450966</v>
       </c>
       <c r="I54">
-        <v>0.01587301587301582</v>
+        <v>0.0616926644061046</v>
       </c>
       <c r="J54">
         <v>0.01587301587301582</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>0.01587301587301582</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>36739</v>
       </c>
@@ -2077,7 +2236,7 @@
         <v>15.8125</v>
       </c>
       <c r="F55">
-        <v>11.11595058441162</v>
+        <v>11.1159496307373</v>
       </c>
       <c r="G55">
         <v>2400</v>
@@ -2086,13 +2245,16 @@
         <v>-0.01171875</v>
       </c>
       <c r="I55">
-        <v>0.03265306122448974</v>
+        <v>0.06114962367048772</v>
       </c>
       <c r="J55">
         <v>0.03265306122448974</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>0.03265306122448974</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>36770</v>
       </c>
@@ -2118,13 +2280,16 @@
         <v>-0.0513833992094862</v>
       </c>
       <c r="I56">
-        <v>-0.04382470119521908</v>
+        <v>0.06107948411285535</v>
       </c>
       <c r="J56">
         <v>-0.04382470119521908</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>-0.04382470119521908</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>36800</v>
       </c>
@@ -2141,7 +2306,7 @@
         <v>15.3125</v>
       </c>
       <c r="F57">
-        <v>10.76445865631104</v>
+        <v>10.76445960998535</v>
       </c>
       <c r="G57">
         <v>49100</v>
@@ -2150,13 +2315,16 @@
         <v>0.02083333333333326</v>
       </c>
       <c r="I57">
-        <v>-0.03162055335968383</v>
+        <v>0.06054707563588368</v>
       </c>
       <c r="J57">
         <v>-0.03162055335968383</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>-0.03162055335968383</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>36831</v>
       </c>
@@ -2182,13 +2350,16 @@
         <v>-0.008163265306122436</v>
       </c>
       <c r="I58">
-        <v>-0.0357142857142857</v>
+        <v>0.06002262840328564</v>
       </c>
       <c r="J58">
         <v>-0.0357142857142857</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>-0.0357142857142857</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>36861</v>
       </c>
@@ -2205,7 +2376,7 @@
         <v>16.8125</v>
       </c>
       <c r="F59">
-        <v>11.94072341918945</v>
+        <v>11.9407205581665</v>
       </c>
       <c r="G59">
         <v>49700</v>
@@ -2214,13 +2385,16 @@
         <v>0.1069958847736625</v>
       </c>
       <c r="I59">
-        <v>0.05078125</v>
+        <v>0.06098650783972284</v>
       </c>
       <c r="J59">
         <v>0.05078125</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>0.05078125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>36892</v>
       </c>
@@ -2237,7 +2411,7 @@
         <v>16.39999961853027</v>
       </c>
       <c r="F60">
-        <v>11.64775085449219</v>
+        <v>11.64775276184082</v>
       </c>
       <c r="G60">
         <v>14100</v>
@@ -2246,13 +2420,16 @@
         <v>-0.02453533867477931</v>
       </c>
       <c r="I60">
-        <v>0.1508771662126507</v>
+        <v>0.06059274454102073</v>
       </c>
       <c r="J60">
         <v>0.1508771662126507</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>0.1508771662126507</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>36923</v>
       </c>
@@ -2278,13 +2455,16 @@
         <v>-0.04573170838080864</v>
       </c>
       <c r="I61">
-        <v>0.08398265756053847</v>
+        <v>0.06045421861234527</v>
       </c>
       <c r="J61">
         <v>0.08398265756053847</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>0.08398265756053847</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>36951</v>
       </c>
@@ -2310,13 +2490,16 @@
         <v>-0.1022363876546644</v>
       </c>
       <c r="I62">
-        <v>-0.09354837479129918</v>
+        <v>0.06154037497929522</v>
       </c>
       <c r="J62">
         <v>-0.09354837479129918</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>-0.09354837479129918</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>36982</v>
       </c>
@@ -2333,7 +2516,7 @@
         <v>14.19999980926514</v>
       </c>
       <c r="F63">
-        <v>10.08524608612061</v>
+        <v>10.08524799346924</v>
       </c>
       <c r="G63">
         <v>5800</v>
@@ -2342,13 +2525,16 @@
         <v>0.01067612928782657</v>
       </c>
       <c r="I63">
-        <v>-0.04537816408301598</v>
+        <v>0.06103141108422189</v>
       </c>
       <c r="J63">
         <v>-0.04537816408301598</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>-0.04537816408301598</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>37012</v>
       </c>
@@ -2365,7 +2551,7 @@
         <v>14</v>
       </c>
       <c r="F64">
-        <v>9.943204879760742</v>
+        <v>9.94320011138916</v>
       </c>
       <c r="G64">
         <v>10100</v>
@@ -2374,13 +2560,16 @@
         <v>-0.01408449379940424</v>
       </c>
       <c r="I64">
-        <v>-0.1111111111111112</v>
+        <v>0.06057306437612394</v>
       </c>
       <c r="J64">
         <v>-0.1111111111111112</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>-0.1111111111111112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>37043</v>
       </c>
@@ -2397,7 +2586,7 @@
         <v>13.44999980926514</v>
       </c>
       <c r="F65">
-        <v>9.552577018737793</v>
+        <v>9.55257511138916</v>
       </c>
       <c r="G65">
         <v>111400</v>
@@ -2406,13 +2595,16 @@
         <v>-0.03928572790963314</v>
       </c>
       <c r="I65">
-        <v>-0.1560784433402267</v>
+        <v>0.0603272335601593</v>
       </c>
       <c r="J65">
         <v>-0.1560784433402267</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>-0.1560784433402267</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>37073</v>
       </c>
@@ -2429,7 +2621,7 @@
         <v>13.10000038146973</v>
       </c>
       <c r="F66">
-        <v>9.303997993469238</v>
+        <v>9.303998947143555</v>
       </c>
       <c r="G66">
         <v>52200</v>
@@ -2438,13 +2630,16 @@
         <v>-0.02602226265864405</v>
       </c>
       <c r="I66">
-        <v>-0.1812499761581421</v>
+        <v>0.05995721861094797</v>
       </c>
       <c r="J66">
         <v>-0.1812499761581421</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>-0.1812499761581421</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>37104</v>
       </c>
@@ -2470,13 +2665,16 @@
         <v>-0.003816808341898237</v>
       </c>
       <c r="I67">
-        <v>-0.1747035452499691</v>
+        <v>0.05949237427616229</v>
       </c>
       <c r="J67">
         <v>-0.1747035452499691</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>-0.1747035452499691</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>37135</v>
       </c>
@@ -2493,7 +2691,7 @@
         <v>12.05000019073486</v>
       </c>
       <c r="F68">
-        <v>8.620303153991699</v>
+        <v>8.620302200317383</v>
       </c>
       <c r="G68">
         <v>13600</v>
@@ -2502,13 +2700,16 @@
         <v>-0.07662835137044455</v>
       </c>
       <c r="I68">
-        <v>-0.1966666539510091</v>
+        <v>0.05983219819553365</v>
       </c>
       <c r="J68">
         <v>-0.1966666539510091</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>-0.1966666539510091</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>37165</v>
       </c>
@@ -2525,7 +2726,7 @@
         <v>12.23999977111816</v>
       </c>
       <c r="F69">
-        <v>8.756221771240234</v>
+        <v>8.756223678588867</v>
       </c>
       <c r="G69">
         <v>6500</v>
@@ -2534,13 +2735,16 @@
         <v>0.01576759978222997</v>
       </c>
       <c r="I69">
-        <v>-0.200653076171875</v>
+        <v>0.0594032933587209</v>
       </c>
       <c r="J69">
         <v>-0.200653076171875</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>-0.200653076171875</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>37196</v>
       </c>
@@ -2557,7 +2761,7 @@
         <v>12.44999980926514</v>
       </c>
       <c r="F70">
-        <v>8.906454086303711</v>
+        <v>8.906451225280762</v>
       </c>
       <c r="G70">
         <v>132300</v>
@@ -2566,13 +2770,16 @@
         <v>0.01715686618250545</v>
       </c>
       <c r="I70">
-        <v>-0.180246926138921</v>
+        <v>0.05898860765434495</v>
       </c>
       <c r="J70">
         <v>-0.180246926138921</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>-0.180246926138921</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>37226</v>
       </c>
@@ -2589,7 +2796,7 @@
         <v>12.53999996185303</v>
       </c>
       <c r="F71">
-        <v>8.97446346282959</v>
+        <v>8.974461555480957</v>
       </c>
       <c r="G71">
         <v>27500</v>
@@ -2598,13 +2805,16 @@
         <v>0.007228928029453741</v>
       </c>
       <c r="I71">
-        <v>-0.2541263963210095</v>
+        <v>0.05855690902043289</v>
       </c>
       <c r="J71">
         <v>-0.2541263963210095</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>-0.2541263963210095</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>37257</v>
       </c>
@@ -2621,7 +2831,7 @@
         <v>11.92000007629395</v>
       </c>
       <c r="F72">
-        <v>8.53075122833252</v>
+        <v>8.530752182006836</v>
       </c>
       <c r="G72">
         <v>3100</v>
@@ -2630,13 +2840,16 @@
         <v>-0.04944177730822452</v>
       </c>
       <c r="I72">
-        <v>-0.2731707101489441</v>
+        <v>0.05845376451904205</v>
       </c>
       <c r="J72">
         <v>-0.2731707101489441</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>-0.2731707101489441</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>37288</v>
       </c>
@@ -2653,7 +2866,7 @@
         <v>12.23999977111816</v>
       </c>
       <c r="F73">
-        <v>8.759762763977051</v>
+        <v>8.759763717651367</v>
       </c>
       <c r="G73">
         <v>1600</v>
@@ -2662,13 +2875,16 @@
         <v>0.02684561181007217</v>
       </c>
       <c r="I73">
-        <v>-0.2178913693630077</v>
+        <v>0.05811482926935047</v>
       </c>
       <c r="J73">
         <v>-0.2178913693630077</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>-0.2178913693630077</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>37316</v>
       </c>
@@ -2685,7 +2901,7 @@
         <v>13.11999988555908</v>
       </c>
       <c r="F74">
-        <v>9.389549255371094</v>
+        <v>9.389552116394043</v>
       </c>
       <c r="G74">
         <v>3100</v>
@@ -2694,13 +2910,16 @@
         <v>0.07189543553075795</v>
       </c>
       <c r="I74">
-        <v>-0.06619219164061374</v>
+        <v>0.05829732001081615</v>
       </c>
       <c r="J74">
         <v>-0.06619219164061374</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>-0.06619219164061374</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>37347</v>
       </c>
@@ -2717,7 +2936,7 @@
         <v>13.43000030517578</v>
       </c>
       <c r="F75">
-        <v>9.611407279968262</v>
+        <v>9.611408233642578</v>
       </c>
       <c r="G75">
         <v>2400</v>
@@ -2726,13 +2945,16 @@
         <v>0.02362808096956703</v>
       </c>
       <c r="I75">
-        <v>-0.05422531791774743</v>
+        <v>0.05794392773257544</v>
       </c>
       <c r="J75">
         <v>-0.05422531791774743</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>-0.05422531791774743</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>37377</v>
       </c>
@@ -2758,13 +2980,16 @@
         <v>0.04542067332955746</v>
       </c>
       <c r="I76">
-        <v>0.002857140132359159</v>
+        <v>0.05775883022253665</v>
       </c>
       <c r="J76">
         <v>0.002857140132359159</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>0.002857140132359159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>37408</v>
       </c>
@@ -2781,7 +3006,7 @@
         <v>13.55000019073486</v>
       </c>
       <c r="F77">
-        <v>9.697285652160645</v>
+        <v>9.697287559509277</v>
       </c>
       <c r="G77">
         <v>11000</v>
@@ -2790,13 +3015,16 @@
         <v>-0.03490026869298457</v>
       </c>
       <c r="I77">
-        <v>0.007434972705415266</v>
+        <v>0.05753702268094128</v>
       </c>
       <c r="J77">
         <v>0.007434972705415266</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>0.007434972705415266</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>37438</v>
       </c>
@@ -2813,7 +3041,7 @@
         <v>11.67000007629395</v>
       </c>
       <c r="F78">
-        <v>8.351835250854492</v>
+        <v>8.351836204528809</v>
       </c>
       <c r="G78">
         <v>20300</v>
@@ -2822,13 +3050,16 @@
         <v>-0.1387453939466667</v>
       </c>
       <c r="I78">
-        <v>-0.1091603254606429</v>
+        <v>0.05941498916976414</v>
       </c>
       <c r="J78">
         <v>-0.1091603254606429</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>-0.1091603254606429</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>37469</v>
       </c>
@@ -2845,7 +3076,7 @@
         <v>11.51000022888184</v>
       </c>
       <c r="F79">
-        <v>8.237324714660645</v>
+        <v>8.237326622009277</v>
       </c>
       <c r="G79">
         <v>72300</v>
@@ -2854,13 +3085,16 @@
         <v>-0.01371035530129328</v>
       </c>
       <c r="I79">
-        <v>-0.118007658187345</v>
+        <v>0.05904653761201437</v>
       </c>
       <c r="J79">
         <v>-0.118007658187345</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>-0.118007658187345</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>37500</v>
       </c>
@@ -2877,7 +3111,7 @@
         <v>10.60999965667725</v>
       </c>
       <c r="F80">
-        <v>7.593226909637451</v>
+        <v>7.59322452545166</v>
       </c>
       <c r="G80">
         <v>63500</v>
@@ -2886,13 +3120,16 @@
         <v>-0.07819292391899646</v>
       </c>
       <c r="I80">
-        <v>-0.1195021171173773</v>
+        <v>0.05933959012198725</v>
       </c>
       <c r="J80">
         <v>-0.1195021171173773</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>-0.1195021171173773</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>37530</v>
       </c>
@@ -2909,7 +3146,7 @@
         <v>10.89999961853027</v>
       </c>
       <c r="F81">
-        <v>7.800768375396729</v>
+        <v>7.800770282745361</v>
       </c>
       <c r="G81">
         <v>7400</v>
@@ -2918,13 +3155,16 @@
         <v>0.02733270228435125</v>
       </c>
       <c r="I81">
-        <v>-0.1094771386965049</v>
+        <v>0.05903945132812937</v>
       </c>
       <c r="J81">
         <v>-0.1094771386965049</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>-0.1094771386965049</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>37561</v>
       </c>
@@ -2941,7 +3181,7 @@
         <v>11.52999973297119</v>
       </c>
       <c r="F82">
-        <v>8.251638412475586</v>
+        <v>8.251639366149902</v>
       </c>
       <c r="G82">
         <v>27100</v>
@@ -2950,13 +3190,16 @@
         <v>0.05779817765955708</v>
       </c>
       <c r="I82">
-        <v>-0.07389558958943054</v>
+        <v>0.05901791485961286</v>
       </c>
       <c r="J82">
         <v>-0.07389558958943054</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>-0.07389558958943054</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>37591</v>
       </c>
@@ -2973,7 +3216,7 @@
         <v>11.10999965667725</v>
       </c>
       <c r="F83">
-        <v>7.972078800201416</v>
+        <v>7.9720778465271</v>
       </c>
       <c r="G83">
         <v>7400</v>
@@ -2982,13 +3225,16 @@
         <v>-0.03642672038342831</v>
       </c>
       <c r="I83">
-        <v>-0.1140351124023824</v>
+        <v>0.05879392102825216</v>
       </c>
       <c r="J83">
         <v>-0.1140351124023824</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>-0.1140351124023824</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>37622</v>
       </c>
@@ -3005,7 +3251,7 @@
         <v>10.69999980926514</v>
       </c>
       <c r="F84">
-        <v>7.677876949310303</v>
+        <v>7.677878856658936</v>
       </c>
       <c r="G84">
         <v>3400</v>
@@ -3014,13 +3260,16 @@
         <v>-0.03690367777515591</v>
       </c>
       <c r="I84">
-        <v>-0.1023490150352515</v>
+        <v>0.05857478540164058</v>
       </c>
       <c r="J84">
         <v>-0.1023490150352515</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>-0.1023490150352515</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>37653</v>
       </c>
@@ -3037,7 +3286,7 @@
         <v>10.10000038146973</v>
       </c>
       <c r="F85">
-        <v>7.24734354019165</v>
+        <v>7.247344970703125</v>
       </c>
       <c r="G85">
         <v>6300</v>
@@ -3046,13 +3295,16 @@
         <v>-0.05607471387764607</v>
       </c>
       <c r="I85">
-        <v>-0.1748365547112213</v>
+        <v>0.05854018086533637</v>
       </c>
       <c r="J85">
         <v>-0.1748365547112213</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>-0.1748365547112213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>37681</v>
       </c>
@@ -3069,7 +3321,7 @@
         <v>10.14000034332275</v>
       </c>
       <c r="F86">
-        <v>7.276046276092529</v>
+        <v>7.276046752929688</v>
       </c>
       <c r="G86">
         <v>4600</v>
@@ -3078,13 +3330,16 @@
         <v>0.003960392113094846</v>
       </c>
       <c r="I86">
-        <v>-0.2271341134321467</v>
+        <v>0.05818872567603867</v>
       </c>
       <c r="J86">
         <v>-0.2271341134321467</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>-0.2271341134321467</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>37712</v>
       </c>
@@ -3110,13 +3365,16 @@
         <v>0.1104536338893329</v>
       </c>
       <c r="I87">
-        <v>-0.1615785574820613</v>
+        <v>0.05908422323685939</v>
       </c>
       <c r="J87">
         <v>-0.1615785574820613</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>-0.1615785574820613</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>37742</v>
       </c>
@@ -3133,7 +3391,7 @@
         <v>11.88000011444092</v>
       </c>
       <c r="F88">
-        <v>8.524599075317383</v>
+        <v>8.52459716796875</v>
       </c>
       <c r="G88">
         <v>6500</v>
@@ -3142,13 +3400,16 @@
         <v>0.05506215567996042</v>
       </c>
       <c r="I88">
-        <v>-0.1538461433960736</v>
+        <v>0.05902831619619318</v>
       </c>
       <c r="J88">
         <v>-0.1538461433960736</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>-0.1538461433960736</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>37773</v>
       </c>
@@ -3165,7 +3426,7 @@
         <v>11.77999973297119</v>
       </c>
       <c r="F89">
-        <v>8.452842712402344</v>
+        <v>8.452841758728027</v>
       </c>
       <c r="G89">
         <v>26400</v>
@@ -3174,13 +3435,16 @@
         <v>-0.008417540446667982</v>
       </c>
       <c r="I89">
-        <v>-0.1306273382176003</v>
+        <v>0.05869327974258522</v>
       </c>
       <c r="J89">
         <v>-0.1306273382176003</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>-0.1306273382176003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>37803</v>
       </c>
@@ -3206,13 +3470,16 @@
         <v>0.02631582569132274</v>
       </c>
       <c r="I90">
-        <v>0.03598972352597674</v>
+        <v>0.05841666625223253</v>
       </c>
       <c r="J90">
         <v>0.03598972352597674</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>0.03598972352597674</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>37834</v>
       </c>
@@ -3229,7 +3496,7 @@
         <v>12.22999954223633</v>
       </c>
       <c r="F91">
-        <v>8.775742530822754</v>
+        <v>8.775741577148438</v>
       </c>
       <c r="G91">
         <v>4700</v>
@@ -3238,13 +3505,16 @@
         <v>0.01157976740128253</v>
       </c>
       <c r="I91">
-        <v>0.06255423970781604</v>
+        <v>0.05809377543352762</v>
       </c>
       <c r="J91">
         <v>0.06255423970781604</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>0.06255423970781604</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>37865</v>
       </c>
@@ -3261,7 +3531,7 @@
         <v>12.77999973297119</v>
       </c>
       <c r="F92">
-        <v>9.170401573181152</v>
+        <v>9.170400619506836</v>
       </c>
       <c r="G92">
         <v>16200</v>
@@ -3270,13 +3540,16 @@
         <v>0.04497139912683035</v>
       </c>
       <c r="I92">
-        <v>0.2045240477390862</v>
+        <v>0.0579476055350195</v>
       </c>
       <c r="J92">
         <v>0.2045240477390862</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>0.2045240477390862</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>37895</v>
       </c>
@@ -3293,7 +3566,7 @@
         <v>13.10000038146973</v>
       </c>
       <c r="F93">
-        <v>9.400018692016602</v>
+        <v>9.400022506713867</v>
       </c>
       <c r="G93">
         <v>14900</v>
@@ -3302,13 +3575,16 @@
         <v>0.02503917489708263</v>
       </c>
       <c r="I93">
-        <v>0.2018349394434287</v>
+        <v>0.05767526398115537</v>
       </c>
       <c r="J93">
         <v>0.2018349394434287</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>0.2018349394434287</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>37926</v>
       </c>
@@ -3325,7 +3601,7 @@
         <v>13.84000015258789</v>
       </c>
       <c r="F94">
-        <v>9.931015014648438</v>
+        <v>9.931012153625488</v>
       </c>
       <c r="G94">
         <v>7400</v>
@@ -3334,13 +3610,16 @@
         <v>0.05648853050148861</v>
       </c>
       <c r="I94">
-        <v>0.2003469621088561</v>
+        <v>0.05763529782898384</v>
       </c>
       <c r="J94">
         <v>0.2003469621088561</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>0.2003469621088561</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>37956</v>
       </c>
@@ -3357,7 +3636,7 @@
         <v>14.73999977111816</v>
       </c>
       <c r="F95">
-        <v>10.63801956176758</v>
+        <v>10.63802146911621</v>
       </c>
       <c r="G95">
         <v>4100</v>
@@ -3366,13 +3645,16 @@
         <v>0.0650288734543103</v>
       </c>
       <c r="I95">
-        <v>0.3267326936647783</v>
+        <v>0.05768251551815253</v>
       </c>
       <c r="J95">
         <v>0.3267326936647783</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>0.3267326936647783</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>37987</v>
       </c>
@@ -3389,7 +3671,7 @@
         <v>15.13000011444092</v>
       </c>
       <c r="F96">
-        <v>10.91948699951172</v>
+        <v>10.91948795318604</v>
       </c>
       <c r="G96">
         <v>32700</v>
@@ -3398,13 +3680,16 @@
         <v>0.02645863971361306</v>
       </c>
       <c r="I96">
-        <v>0.4140187274900549</v>
+        <v>0.05742026209308129</v>
       </c>
       <c r="J96">
         <v>0.4140187274900549</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>0.4140187274900549</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>38018</v>
       </c>
@@ -3421,7 +3706,7 @@
         <v>15.14000034332275</v>
       </c>
       <c r="F97">
-        <v>10.9267053604126</v>
+        <v>10.92670631408691</v>
       </c>
       <c r="G97">
         <v>30900</v>
@@ -3430,13 +3715,16 @@
         <v>0.0006609536553996431</v>
       </c>
       <c r="I97">
-        <v>0.4990098783659274</v>
+        <v>0.05711491356369446</v>
       </c>
       <c r="J97">
         <v>0.4990098783659274</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>0.4990098783659274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>38047</v>
       </c>
@@ -3453,7 +3741,7 @@
         <v>14.81999969482422</v>
       </c>
       <c r="F98">
-        <v>10.69575595855713</v>
+        <v>10.69575786590576</v>
       </c>
       <c r="G98">
         <v>5000</v>
@@ -3462,13 +3750,16 @@
         <v>-0.02113610576235336</v>
       </c>
       <c r="I98">
-        <v>0.4615383819570844</v>
+        <v>0.05687023649466982</v>
       </c>
       <c r="J98">
         <v>0.4615383819570844</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>0.4615383819570844</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>38078</v>
       </c>
@@ -3485,7 +3776,7 @@
         <v>14.90999984741211</v>
       </c>
       <c r="F99">
-        <v>10.76071166992188</v>
+        <v>10.76071071624756</v>
       </c>
       <c r="G99">
         <v>17500</v>
@@ -3494,13 +3785,16 @@
         <v>0.006072884915059973</v>
       </c>
       <c r="I99">
-        <v>0.3241562650387915</v>
+        <v>0.05657387190771194</v>
       </c>
       <c r="J99">
         <v>0.3241562650387915</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>0.3241562650387915</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>38108</v>
       </c>
@@ -3517,7 +3811,7 @@
         <v>15.15999984741211</v>
       </c>
       <c r="F100">
-        <v>10.94113540649414</v>
+        <v>10.94114017486572</v>
       </c>
       <c r="G100">
         <v>10500</v>
@@ -3526,13 +3820,16 @@
         <v>0.01676727045999216</v>
       </c>
       <c r="I100">
-        <v>0.2760942509574673</v>
+        <v>0.05629742358334737</v>
       </c>
       <c r="J100">
         <v>0.2760942509574673</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <v>0.2760942509574673</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>38139</v>
       </c>
@@ -3549,7 +3846,7 @@
         <v>15.22000026702881</v>
       </c>
       <c r="F101">
-        <v>10.98444271087646</v>
+        <v>10.98444080352783</v>
       </c>
       <c r="G101">
         <v>12000</v>
@@ -3558,13 +3855,16 @@
         <v>0.003957811360198793</v>
       </c>
       <c r="I101">
-        <v>0.2920204254699053</v>
+        <v>0.05600946401953038</v>
       </c>
       <c r="J101">
         <v>0.2920204254699053</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>0.2920204254699053</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>38169</v>
       </c>
@@ -3590,13 +3890,16 @@
         <v>-0.04139291086647956</v>
       </c>
       <c r="I102">
-        <v>0.2067824622371794</v>
+        <v>0.0559076180068195</v>
       </c>
       <c r="J102">
         <v>0.2067824622371794</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>0.2067824622371794</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>38200</v>
       </c>
@@ -3613,7 +3916,7 @@
         <v>14.60000038146973</v>
       </c>
       <c r="F103">
-        <v>10.53698062896729</v>
+        <v>10.5369815826416</v>
       </c>
       <c r="G103">
         <v>8400</v>
@@ -3622,13 +3925,16 @@
         <v>0.0006854166399758999</v>
       </c>
       <c r="I103">
-        <v>0.1937858485643107</v>
+        <v>0.05562794034013267</v>
       </c>
       <c r="J103">
         <v>0.1937858485643107</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <v>0.1937858485643107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>38231</v>
       </c>
@@ -3654,13 +3960,16 @@
         <v>0.01986301056684181</v>
       </c>
       <c r="I104">
-        <v>0.1651017726477693</v>
+        <v>0.05537652625603739</v>
       </c>
       <c r="J104">
         <v>0.1651017726477693</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>0.1651017726477693</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>38261</v>
       </c>
@@ -3677,7 +3986,7 @@
         <v>15.44999980926514</v>
       </c>
       <c r="F105">
-        <v>11.15043544769287</v>
+        <v>11.15043449401855</v>
       </c>
       <c r="G105">
         <v>19800</v>
@@ -3686,13 +3995,16 @@
         <v>0.03760909691271475</v>
       </c>
       <c r="I105">
-        <v>0.1793892640735752</v>
+        <v>0.05520776910316412</v>
       </c>
       <c r="J105">
         <v>0.1793892640735752</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>0.1793892640735752</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>38292</v>
       </c>
@@ -3709,7 +4021,7 @@
         <v>16.61000061035156</v>
       </c>
       <c r="F106">
-        <v>11.98762035369873</v>
+        <v>11.98761940002441</v>
       </c>
       <c r="G106">
         <v>14300</v>
@@ -3718,13 +4030,16 @@
         <v>0.07508095892601818</v>
       </c>
       <c r="I106">
-        <v>0.2001445395393091</v>
+        <v>0.05538355581166485</v>
       </c>
       <c r="J106">
         <v>0.2001445395393091</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>0.2001445395393091</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>38322</v>
       </c>
@@ -3741,7 +4056,7 @@
         <v>17.20000076293945</v>
       </c>
       <c r="F107">
-        <v>12.47662258148193</v>
+        <v>12.47662162780762</v>
       </c>
       <c r="G107">
         <v>8400</v>
@@ -3750,13 +4065,16 @@
         <v>0.03552077850136826</v>
       </c>
       <c r="I107">
-        <v>0.1668928785630961</v>
+        <v>0.05520048227849858</v>
       </c>
       <c r="J107">
         <v>0.1668928785630961</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>0.1668928785630961</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>38353</v>
       </c>
@@ -3773,7 +4091,7 @@
         <v>16.55999946594238</v>
       </c>
       <c r="F108">
-        <v>12.01237392425537</v>
+        <v>12.01237297058105</v>
       </c>
       <c r="G108">
         <v>32300</v>
@@ -3782,13 +4100,16 @@
         <v>-0.03720937608189356</v>
       </c>
       <c r="I108">
-        <v>0.09451416660179612</v>
+        <v>0.05508727177234565</v>
       </c>
       <c r="J108">
         <v>0.09451416660179612</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>0.09451416660179612</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>38384</v>
       </c>
@@ -3805,7 +4126,7 @@
         <v>17.60000038146973</v>
       </c>
       <c r="F109">
-        <v>12.76677513122559</v>
+        <v>12.76677417755127</v>
       </c>
       <c r="G109">
         <v>57300</v>
@@ -3814,13 +4135,16 @@
         <v>0.06280198967797257</v>
       </c>
       <c r="I109">
-        <v>0.1624834862855149</v>
+        <v>0.05511813369094705</v>
       </c>
       <c r="J109">
         <v>0.1624834862855149</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>0.1624834862855149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>38412</v>
       </c>
@@ -3837,7 +4161,7 @@
         <v>16.8700008392334</v>
       </c>
       <c r="F110">
-        <v>12.23724555969238</v>
+        <v>12.23724460601807</v>
       </c>
       <c r="G110">
         <v>17100</v>
@@ -3846,13 +4170,16 @@
         <v>-0.04147724581897805</v>
       </c>
       <c r="I110">
-        <v>0.1383266657640436</v>
+        <v>0.05504045492100557</v>
       </c>
       <c r="J110">
         <v>0.1383266657640436</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <v>0.1383266657640436</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>38443</v>
       </c>
@@ -3869,7 +4196,7 @@
         <v>16.75</v>
       </c>
       <c r="F111">
-        <v>12.15019989013672</v>
+        <v>12.15019607543945</v>
       </c>
       <c r="G111">
         <v>17300</v>
@@ -3878,13 +4205,16 @@
         <v>-0.007113268124701033</v>
       </c>
       <c r="I111">
-        <v>0.1234071208194716</v>
+        <v>0.05479610194931692</v>
       </c>
       <c r="J111">
         <v>0.1234071208194716</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <v>0.1234071208194716</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>38473</v>
       </c>
@@ -3901,7 +4231,7 @@
         <v>16.80999946594238</v>
       </c>
       <c r="F112">
-        <v>12.19371891021729</v>
+        <v>12.19372081756592</v>
       </c>
       <c r="G112">
         <v>25300</v>
@@ -3910,13 +4240,16 @@
         <v>0.003582057668201966</v>
       </c>
       <c r="I112">
-        <v>0.108839026064498</v>
+        <v>0.05454420431892434</v>
       </c>
       <c r="J112">
         <v>0.108839026064498</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <v>0.108839026064498</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>38504</v>
       </c>
@@ -3933,7 +4266,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="F113">
-        <v>12.05589771270752</v>
+        <v>12.05589866638184</v>
       </c>
       <c r="G113">
         <v>29000</v>
@@ -3942,13 +4275,16 @@
         <v>-0.01130271461899379</v>
       </c>
       <c r="I113">
-        <v>0.09198426725638242</v>
+        <v>0.05431581750099654</v>
       </c>
       <c r="J113">
         <v>0.09198426725638242</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <v>0.09198426725638242</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>38534</v>
       </c>
@@ -3965,7 +4301,7 @@
         <v>17.44000053405762</v>
       </c>
       <c r="F114">
-        <v>12.65071296691895</v>
+        <v>12.65071582794189</v>
       </c>
       <c r="G114">
         <v>51600</v>
@@ -3974,13 +4310,16 @@
         <v>0.04933812595776277</v>
       </c>
       <c r="I114">
-        <v>0.1953392975780202</v>
+        <v>0.05423910295205186</v>
       </c>
       <c r="J114">
         <v>0.1953392975780202</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <v>0.1953392975780202</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>38565</v>
       </c>
@@ -4006,13 +4345,16 @@
         <v>0.01949542099634249</v>
       </c>
       <c r="I115">
-        <v>0.2178082343896255</v>
+        <v>0.05401477021219067</v>
       </c>
       <c r="J115">
         <v>0.2178082343896255</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <v>0.2178082343896255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>38596</v>
       </c>
@@ -4029,7 +4371,7 @@
         <v>18.15999984741211</v>
       </c>
       <c r="F116">
-        <v>13.17299270629883</v>
+        <v>13.1729907989502</v>
       </c>
       <c r="G116">
         <v>17500</v>
@@ -4038,13 +4380,16 @@
         <v>0.02137228043258843</v>
       </c>
       <c r="I116">
-        <v>0.2196104384615243</v>
+        <v>0.05379800342694788</v>
       </c>
       <c r="J116">
         <v>0.2196104384615243</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>0.2196104384615243</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>38626</v>
       </c>
@@ -4070,13 +4415,16 @@
         <v>0.01266517313705284</v>
       </c>
       <c r="I117">
-        <v>0.1902912373254675</v>
+        <v>0.05356653694929727</v>
       </c>
       <c r="J117">
         <v>0.1902912373254675</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <v>0.1902912373254675</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>38657</v>
       </c>
@@ -4093,7 +4441,7 @@
         <v>18.89999961853027</v>
       </c>
       <c r="F118">
-        <v>13.70977210998535</v>
+        <v>13.7097749710083</v>
       </c>
       <c r="G118">
         <v>35200</v>
@@ -4102,13 +4450,16 @@
         <v>0.02773247666168555</v>
       </c>
       <c r="I118">
-        <v>0.1378686889843672</v>
+        <v>0.05337532923655289</v>
       </c>
       <c r="J118">
         <v>0.1378686889843672</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <v>0.1378686889843672</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>38687</v>
       </c>
@@ -4125,7 +4476,7 @@
         <v>19.30999946594238</v>
       </c>
       <c r="F119">
-        <v>14.09394836425781</v>
+        <v>14.0939474105835</v>
       </c>
       <c r="G119">
         <v>17700</v>
@@ -4134,13 +4485,16 @@
         <v>0.02169311405753316</v>
       </c>
       <c r="I119">
-        <v>0.1226743377563859</v>
+        <v>0.05316696833792522</v>
       </c>
       <c r="J119">
         <v>0.1226743377563859</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <v>0.1226743377563859</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>38718</v>
       </c>
@@ -4166,13 +4520,16 @@
         <v>0.05851895905581195</v>
       </c>
       <c r="I120">
-        <v>0.2342995889640529</v>
+        <v>0.05316619092374135</v>
       </c>
       <c r="J120">
         <v>0.2342995889640529</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>0.2342995889640529</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>38749</v>
       </c>
@@ -4189,7 +4546,7 @@
         <v>20.27000045776367</v>
       </c>
       <c r="F121">
-        <v>14.79463195800781</v>
+        <v>14.7946310043335</v>
       </c>
       <c r="G121">
         <v>513700</v>
@@ -4198,13 +4555,16 @@
         <v>-0.008317028955585726</v>
       </c>
       <c r="I121">
-        <v>0.1517045465013211</v>
+        <v>0.05295595227140777</v>
       </c>
       <c r="J121">
         <v>0.1517045465013211</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121">
+        <v>0.1517045465013211</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>38777</v>
       </c>
@@ -4221,7 +4581,7 @@
         <v>20.93000030517578</v>
       </c>
       <c r="F122">
-        <v>15.27635192871094</v>
+        <v>15.27635288238525</v>
       </c>
       <c r="G122">
         <v>326300</v>
@@ -4230,13 +4590,16 @@
         <v>0.03256042587603014</v>
       </c>
       <c r="I122">
-        <v>0.2406638567853727</v>
+        <v>0.05279058965420008</v>
       </c>
       <c r="J122">
         <v>0.2406638567853727</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122">
+        <v>0.2406638567853727</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>38808</v>
       </c>
@@ -4262,13 +4625,16 @@
         <v>0.06306735191483948</v>
       </c>
       <c r="I123">
-        <v>0.3283582089552239</v>
+        <v>0.05299356139652675</v>
       </c>
       <c r="J123">
         <v>0.3283582089552239</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <v>0.3283582089552239</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="2">
         <v>38838</v>
       </c>
@@ -4285,7 +4651,7 @@
         <v>21.31999969482422</v>
       </c>
       <c r="F124">
-        <v>15.56100273132324</v>
+        <v>15.56100082397461</v>
       </c>
       <c r="G124">
         <v>51000</v>
@@ -4294,13 +4660,16 @@
         <v>-0.0417977665247542</v>
       </c>
       <c r="I124">
-        <v>0.2682927050663653</v>
+        <v>0.05306819540255937</v>
       </c>
       <c r="J124">
         <v>0.2682927050663653</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <v>0.2682927050663653</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="2">
         <v>38869</v>
       </c>
@@ -4317,7 +4686,7 @@
         <v>21.27000045776367</v>
       </c>
       <c r="F125">
-        <v>15.52451133728027</v>
+        <v>15.52450942993164</v>
       </c>
       <c r="G125">
         <v>135100</v>
@@ -4326,13 +4695,16 @@
         <v>-0.002345180008266334</v>
       </c>
       <c r="I125">
-        <v>0.2797833564215846</v>
+        <v>0.05293774275982643</v>
       </c>
       <c r="J125">
         <v>0.2797833564215846</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <v>0.2797833564215846</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="2">
         <v>38899</v>
       </c>
@@ -4349,7 +4721,7 @@
         <v>22.01000022888184</v>
       </c>
       <c r="F126">
-        <v>16.06461906433105</v>
+        <v>16.06461715698242</v>
       </c>
       <c r="G126">
         <v>45600</v>
@@ -4358,13 +4730,16 @@
         <v>0.03479077363386041</v>
       </c>
       <c r="I126">
-        <v>0.2620412588806817</v>
+        <v>0.0529239986934382</v>
       </c>
       <c r="J126">
         <v>0.2620412588806817</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126">
+        <v>0.2620412588806817</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="2">
         <v>38930</v>
       </c>
@@ -4381,7 +4756,7 @@
         <v>22.64999961853027</v>
       </c>
       <c r="F127">
-        <v>16.53173828125</v>
+        <v>16.53174018859863</v>
       </c>
       <c r="G127">
         <v>41900</v>
@@ -4390,13 +4765,16 @@
         <v>0.02907766392517441</v>
       </c>
       <c r="I127">
-        <v>0.2739031914404033</v>
+        <v>0.05296315306127695</v>
       </c>
       <c r="J127">
         <v>0.2739031914404033</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127">
+        <v>0.2739031914404033</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="2">
         <v>38961</v>
       </c>
@@ -4413,7 +4791,7 @@
         <v>23.04000091552734</v>
       </c>
       <c r="F128">
-        <v>16.8163948059082</v>
+        <v>16.81639289855957</v>
       </c>
       <c r="G128">
         <v>68400</v>
@@ -4422,13 +4800,16 @@
         <v>0.01721860059891589</v>
       </c>
       <c r="I128">
-        <v>0.2687225280351893</v>
+        <v>0.0529127132878244</v>
       </c>
       <c r="J128">
         <v>0.2687225280351893</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <v>0.2687225280351893</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="2">
         <v>38991</v>
       </c>
@@ -4445,7 +4826,7 @@
         <v>23.57999992370605</v>
       </c>
       <c r="F129">
-        <v>17.21052932739258</v>
+        <v>17.21052742004395</v>
       </c>
       <c r="G129">
         <v>69300</v>
@@ -4454,13 +4835,16 @@
         <v>0.0234374560208801</v>
       </c>
       <c r="I129">
-        <v>0.2822186354709191</v>
+        <v>0.0529095377588782</v>
       </c>
       <c r="J129">
         <v>0.2822186354709191</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129">
+        <v>0.2822186354709191</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>39022</v>
       </c>
@@ -4477,7 +4861,7 @@
         <v>24.47999954223633</v>
       </c>
       <c r="F130">
-        <v>17.86741638183594</v>
+        <v>17.86741256713867</v>
       </c>
       <c r="G130">
         <v>131700</v>
@@ -4486,13 +4870,16 @@
         <v>0.03816792287711013</v>
       </c>
       <c r="I130">
-        <v>0.2952380971603412</v>
+        <v>0.05293779950213889</v>
       </c>
       <c r="J130">
         <v>0.2952380971603412</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <v>0.2952380971603412</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="2">
         <v>39052</v>
       </c>
@@ -4509,7 +4896,7 @@
         <v>24.89999961853027</v>
       </c>
       <c r="F131">
-        <v>18.31558418273926</v>
+        <v>18.31558609008789</v>
       </c>
       <c r="G131">
         <v>112400</v>
@@ -4518,13 +4905,16 @@
         <v>0.01715686618250545</v>
       </c>
       <c r="I131">
-        <v>0.2894873281818127</v>
+        <v>0.05290412403685306</v>
       </c>
       <c r="J131">
         <v>0.2894873281818127</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <v>0.2894873281818127</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="2">
         <v>39083</v>
       </c>
@@ -4541,7 +4931,7 @@
         <v>25.48999977111816</v>
       </c>
       <c r="F132">
-        <v>18.74956893920898</v>
+        <v>18.74957275390625</v>
       </c>
       <c r="G132">
         <v>403900</v>
@@ -4550,13 +4940,16 @@
         <v>0.02369478560749938</v>
       </c>
       <c r="I132">
-        <v>0.2470645354752372</v>
+        <v>0.05288015887482155</v>
       </c>
       <c r="J132">
         <v>0.2470645354752372</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <v>0.2470645354752372</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="2">
         <v>39114</v>
       </c>
@@ -4582,13 +4975,16 @@
         <v>-0.02510786172597768</v>
       </c>
       <c r="I133">
-        <v>0.2259496704624817</v>
+        <v>0.0529517353942193</v>
       </c>
       <c r="J133">
         <v>0.2259496704624817</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133">
+        <v>0.2259496704624817</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="2">
         <v>39142</v>
       </c>
@@ -4614,13 +5010,16 @@
         <v>0.0253520785149115</v>
       </c>
       <c r="I134">
-        <v>0.2173912647261347</v>
+        <v>0.05297251988347078</v>
       </c>
       <c r="J134">
         <v>0.2173912647261347</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134">
+        <v>0.2173912647261347</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="2">
         <v>39173</v>
       </c>
@@ -4637,7 +5036,7 @@
         <v>27.18000030517578</v>
       </c>
       <c r="F135">
-        <v>19.99267959594727</v>
+        <v>19.99267578125</v>
       </c>
       <c r="G135">
         <v>126200</v>
@@ -4646,13 +5045,16 @@
         <v>0.06671902643175032</v>
       </c>
       <c r="I135">
-        <v>0.2215730474236306</v>
+        <v>0.05298845933757618</v>
       </c>
       <c r="J135">
         <v>0.2215730474236306</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <v>0.2215730474236306</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2">
         <v>39203</v>
       </c>
@@ -4669,7 +5071,7 @@
         <v>27.15999984741211</v>
       </c>
       <c r="F136">
-        <v>19.97796440124512</v>
+        <v>19.97796058654785</v>
       </c>
       <c r="G136">
         <v>143500</v>
@@ -4678,13 +5080,16 @@
         <v>-0.0007358520065896546</v>
       </c>
       <c r="I136">
-        <v>0.2739212118284244</v>
+        <v>0.05251545093556728</v>
       </c>
       <c r="J136">
         <v>0.2739212118284244</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136">
+        <v>0.2739212118284244</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="2">
         <v>39234</v>
       </c>
@@ -4710,13 +5115,16 @@
         <v>-0.02724594165226679</v>
       </c>
       <c r="I137">
-        <v>0.2421250356226718</v>
+        <v>0.05224209457274857</v>
       </c>
       <c r="J137">
         <v>0.2421250356226718</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137">
+        <v>0.2421250356226718</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="2">
         <v>39264</v>
       </c>
@@ -4733,7 +5141,7 @@
         <v>25.78000068664551</v>
       </c>
       <c r="F138">
-        <v>18.96288299560547</v>
+        <v>18.96288681030273</v>
       </c>
       <c r="G138">
         <v>223100</v>
@@ -4742,13 +5150,16 @@
         <v>-0.02422404950038948</v>
       </c>
       <c r="I138">
-        <v>0.1712857982080629</v>
+        <v>0.05228623624596536</v>
       </c>
       <c r="J138">
         <v>0.1712857982080629</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138">
+        <v>0.1712857982080629</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="2">
         <v>39295</v>
       </c>
@@ -4765,7 +5176,7 @@
         <v>25.70999908447266</v>
       </c>
       <c r="F139">
-        <v>18.9113941192627</v>
+        <v>18.91139221191406</v>
       </c>
       <c r="G139">
         <v>84900</v>
@@ -4774,13 +5185,16 @@
         <v>-0.002715345240821287</v>
       </c>
       <c r="I139">
-        <v>0.135099316444975</v>
+        <v>0.05095886522462802</v>
       </c>
       <c r="J139">
         <v>0.135099316444975</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139">
+        <v>0.135099316444975</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="2">
         <v>39326</v>
       </c>
@@ -4797,7 +5211,7 @@
         <v>26.89999961853027</v>
       </c>
       <c r="F140">
-        <v>19.78672027587891</v>
+        <v>19.78671646118164</v>
       </c>
       <c r="G140">
         <v>162300</v>
@@ -4806,13 +5220,16 @@
         <v>0.0462855144470351</v>
       </c>
       <c r="I140">
-        <v>0.1675346592717173</v>
+        <v>0.05068683438182078</v>
       </c>
       <c r="J140">
         <v>0.1675346592717173</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140">
+        <v>0.1675346592717173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="2">
         <v>39356</v>
       </c>
@@ -4838,13 +5255,16 @@
         <v>0.02416355493486755</v>
       </c>
       <c r="I141">
-        <v>0.1683629909329758</v>
+        <v>0.05063120611676347</v>
       </c>
       <c r="J141">
         <v>0.1683629909329758</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="K141">
+        <v>0.1683629909329758</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="2">
         <v>39387</v>
       </c>
@@ -4861,7 +5281,7 @@
         <v>27.36000061035156</v>
       </c>
       <c r="F142">
-        <v>20.12507629394531</v>
+        <v>20.12508010864258</v>
       </c>
       <c r="G142">
         <v>104800</v>
@@ -4870,13 +5290,16 @@
         <v>-0.006896502067898269</v>
       </c>
       <c r="I142">
-        <v>0.1176471046556293</v>
+        <v>0.05063681622550277</v>
       </c>
       <c r="J142">
         <v>0.1176471046556293</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142">
+        <v>0.1176471046556293</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="2">
         <v>39417</v>
       </c>
@@ -4893,7 +5316,7 @@
         <v>25.98999977111816</v>
       </c>
       <c r="F143">
-        <v>19.32513427734375</v>
+        <v>19.32513618469238</v>
       </c>
       <c r="G143">
         <v>74100</v>
@@ -4902,13 +5325,16 @@
         <v>-0.05007312897190008</v>
       </c>
       <c r="I143">
-        <v>0.04377510720027189</v>
+        <v>0.05081401931721191</v>
       </c>
       <c r="J143">
         <v>0.04377510720027189</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143">
+        <v>0.04377510720027189</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="2">
         <v>39448</v>
       </c>
@@ -4925,7 +5351,7 @@
         <v>24.96999931335449</v>
       </c>
       <c r="F144">
-        <v>18.56669998168945</v>
+        <v>18.56669807434082</v>
       </c>
       <c r="G144">
         <v>458500</v>
@@ -4934,13 +5360,16 @@
         <v>-0.03924588175245636</v>
       </c>
       <c r="I144">
-        <v>-0.02040017506602199</v>
+        <v>0.05089861269777694</v>
       </c>
       <c r="J144">
         <v>-0.02040017506602199</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144">
+        <v>-0.02040017506602199</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="2">
         <v>39479</v>
       </c>
@@ -4966,13 +5395,16 @@
         <v>0.01842214675493681</v>
       </c>
       <c r="I145">
-        <v>0.02334003681297947</v>
+        <v>0.05031289972524564</v>
       </c>
       <c r="J145">
         <v>0.02334003681297947</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="K145">
+        <v>0.02334003681297947</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="2">
         <v>39508</v>
       </c>
@@ -4989,7 +5421,7 @@
         <v>25.8799991607666</v>
       </c>
       <c r="F146">
-        <v>19.24334335327148</v>
+        <v>19.24334526062012</v>
       </c>
       <c r="G146">
         <v>109200</v>
@@ -4998,13 +5430,16 @@
         <v>0.01769558986199593</v>
       </c>
       <c r="I146">
-        <v>0.01569857243785355</v>
+        <v>0.0501519221609125</v>
       </c>
       <c r="J146">
         <v>0.01569857243785355</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146">
+        <v>0.01569857243785355</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="2">
         <v>39539</v>
       </c>
@@ -5021,7 +5456,7 @@
         <v>25.82999992370605</v>
       </c>
       <c r="F147">
-        <v>19.20616340637207</v>
+        <v>19.20616149902344</v>
       </c>
       <c r="G147">
         <v>74400</v>
@@ -5030,13 +5465,16 @@
         <v>-0.001931964400383124</v>
       </c>
       <c r="I147">
-        <v>-0.04966888764944755</v>
+        <v>0.0501502204145654</v>
       </c>
       <c r="J147">
         <v>-0.04966888764944755</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="K147">
+        <v>-0.04966888764944755</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="2">
         <v>39569</v>
       </c>
@@ -5062,13 +5500,16 @@
         <v>0.003097170884334144</v>
       </c>
       <c r="I148">
-        <v>-0.04602356432336663</v>
+        <v>0.04987060024697802</v>
       </c>
       <c r="J148">
         <v>-0.04602356432336663</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148">
+        <v>-0.04602356432336663</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="2">
         <v>39600</v>
       </c>
@@ -5094,13 +5535,16 @@
         <v>-0.08182164972480732</v>
       </c>
       <c r="I149">
-        <v>-0.0995457665848547</v>
+        <v>0.05040838938563779</v>
       </c>
       <c r="J149">
         <v>-0.0995457665848547</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149">
+        <v>-0.0995457665848547</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="2">
         <v>39630</v>
       </c>
@@ -5117,7 +5561,7 @@
         <v>23.65999984741211</v>
       </c>
       <c r="F150">
-        <v>17.88516426086426</v>
+        <v>17.88516998291016</v>
       </c>
       <c r="G150">
         <v>125100</v>
@@ -5126,13 +5570,16 @@
         <v>-0.005464525561677647</v>
       </c>
       <c r="I150">
-        <v>-0.08223432051076696</v>
+        <v>0.05023257625271818</v>
       </c>
       <c r="J150">
         <v>-0.08223432051076696</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150">
+        <v>-0.08223432051076696</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="2">
         <v>39661</v>
       </c>
@@ -5158,13 +5605,16 @@
         <v>-0.03212173431036447</v>
       </c>
       <c r="I151">
-        <v>-0.1092959768963765</v>
+        <v>0.04498024548061778</v>
       </c>
       <c r="J151">
         <v>-0.1092959768963765</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151">
+        <v>-0.1092959768963765</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="2">
         <v>39692</v>
       </c>
@@ -5181,7 +5631,7 @@
         <v>21.03000068664551</v>
       </c>
       <c r="F152">
-        <v>15.89708995819092</v>
+        <v>15.89708805084229</v>
       </c>
       <c r="G152">
         <v>233600</v>
@@ -5190,13 +5640,16 @@
         <v>-0.08165934336398839</v>
       </c>
       <c r="I152">
-        <v>-0.2182155767705354</v>
+        <v>0.04495301728283305</v>
       </c>
       <c r="J152">
         <v>-0.2182155767705354</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152">
+        <v>-0.2182155767705354</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="2">
         <v>39722</v>
       </c>
@@ -5213,7 +5666,7 @@
         <v>18.3700008392334</v>
       </c>
       <c r="F153">
-        <v>13.88633251190186</v>
+        <v>13.88633346557617</v>
       </c>
       <c r="G153">
         <v>126700</v>
@@ -5222,13 +5675,16 @@
         <v>-0.1264859610347643</v>
       </c>
       <c r="I153">
-        <v>-0.3332122922703431</v>
+        <v>0.04367940365250061</v>
       </c>
       <c r="J153">
         <v>-0.3332122922703431</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153">
+        <v>-0.3332122922703431</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="2">
         <v>39753</v>
       </c>
@@ -5245,7 +5701,7 @@
         <v>16.65999984741211</v>
       </c>
       <c r="F154">
-        <v>12.59370136260986</v>
+        <v>12.59369945526123</v>
       </c>
       <c r="G154">
         <v>92900</v>
@@ -5254,13 +5710,16 @@
         <v>-0.09308660390309753</v>
       </c>
       <c r="I154">
-        <v>-0.3910818905059215</v>
+        <v>0.04433994125694414</v>
       </c>
       <c r="J154">
         <v>-0.3910818905059215</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="K154">
+        <v>-0.3910818905059215</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="2">
         <v>39783</v>
       </c>
@@ -5277,7 +5736,7 @@
         <v>18.54000091552734</v>
       </c>
       <c r="F155">
-        <v>14.06781387329102</v>
+        <v>14.0678186416626</v>
       </c>
       <c r="G155">
         <v>156800</v>
@@ -5286,13 +5745,16 @@
         <v>0.1128452032013232</v>
       </c>
       <c r="I155">
-        <v>-0.2866486695344168</v>
+        <v>0.04550299918960488</v>
       </c>
       <c r="J155">
         <v>-0.2866486695344168</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155">
+        <v>-0.2866486695344168</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="2">
         <v>39814</v>
       </c>
@@ -5318,13 +5780,16 @@
         <v>-0.1461704885651678</v>
       </c>
       <c r="I156">
-        <v>-0.3660392327187678</v>
+        <v>0.04745284969299218</v>
       </c>
       <c r="J156">
         <v>-0.3660392327187678</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156">
+        <v>-0.3660392327187678</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="2">
         <v>39845</v>
       </c>
@@ -5341,7 +5806,7 @@
         <v>14.03999996185303</v>
       </c>
       <c r="F157">
-        <v>10.65329742431641</v>
+        <v>10.65329647064209</v>
       </c>
       <c r="G157">
         <v>204100</v>
@@ -5350,13 +5815,16 @@
         <v>-0.1130764352798531</v>
       </c>
       <c r="I157">
-        <v>-0.447896193733216</v>
+        <v>0.04847910522772903</v>
       </c>
       <c r="J157">
         <v>-0.447896193733216</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157">
+        <v>-0.447896193733216</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="2">
         <v>39873</v>
       </c>
@@ -5382,13 +5850,16 @@
         <v>0.08475780510089415</v>
       </c>
       <c r="I158">
-        <v>-0.4115146817576174</v>
+        <v>0.0490272981976437</v>
       </c>
       <c r="J158">
         <v>-0.4115146817576174</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158">
+        <v>-0.4115146817576174</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="2">
         <v>39904</v>
       </c>
@@ -5405,7 +5876,7 @@
         <v>16.21999931335449</v>
       </c>
       <c r="F159">
-        <v>12.30743885040283</v>
+        <v>12.30744171142578</v>
       </c>
       <c r="G159">
         <v>380500</v>
@@ -5414,13 +5885,16 @@
         <v>0.06500326991952066</v>
       </c>
       <c r="I159">
-        <v>-0.3720480309228252</v>
+        <v>0.04931617715271695</v>
       </c>
       <c r="J159">
         <v>-0.3720480309228252</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159">
+        <v>-0.3720480309228252</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="2">
         <v>39934</v>
       </c>
@@ -5437,7 +5911,7 @@
         <v>18.1299991607666</v>
       </c>
       <c r="F160">
-        <v>13.7567138671875</v>
+        <v>13.75671291351318</v>
       </c>
       <c r="G160">
         <v>479100</v>
@@ -5446,13 +5920,16 @@
         <v>0.1177558525443057</v>
       </c>
       <c r="I160">
-        <v>-0.300270194228603</v>
+        <v>0.05022153014768276</v>
       </c>
       <c r="J160">
         <v>-0.300270194228603</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160">
+        <v>-0.300270194228603</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="2">
         <v>39965</v>
       </c>
@@ -5478,13 +5955,16 @@
         <v>-0.02316602844653337</v>
       </c>
       <c r="I161">
-        <v>-0.2555696341771206</v>
+        <v>0.05023624744024171</v>
       </c>
       <c r="J161">
         <v>-0.2555696341771206</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161">
+        <v>-0.2555696341771206</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="2">
         <v>39995</v>
       </c>
@@ -5501,7 +5981,7 @@
         <v>19.56999969482422</v>
       </c>
       <c r="F162">
-        <v>15.07483673095703</v>
+        <v>15.0748348236084</v>
       </c>
       <c r="G162">
         <v>111300</v>
@@ -5510,13 +5990,16 @@
         <v>0.105025449266247</v>
       </c>
       <c r="I162">
-        <v>-0.1728656035065549</v>
+        <v>0.05110133095680286</v>
       </c>
       <c r="J162">
         <v>-0.1728656035065549</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162">
+        <v>-0.1728656035065549</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="2">
         <v>40026</v>
       </c>
@@ -5533,7 +6016,7 @@
         <v>20.78000068664551</v>
       </c>
       <c r="F163">
-        <v>16.00690460205078</v>
+        <v>16.00690269470215</v>
       </c>
       <c r="G163">
         <v>64900</v>
@@ -5542,13 +6025,16 @@
         <v>0.06182938225294432</v>
       </c>
       <c r="I163">
-        <v>-0.09257637411353059</v>
+        <v>0.05130025058138987</v>
       </c>
       <c r="J163">
         <v>-0.09257637411353059</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163">
+        <v>-0.09257637411353059</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="2">
         <v>40057</v>
       </c>
@@ -5565,7 +6051,7 @@
         <v>21.71999931335449</v>
       </c>
       <c r="F164">
-        <v>16.73098564147949</v>
+        <v>16.73098754882812</v>
       </c>
       <c r="G164">
         <v>117400</v>
@@ -5574,13 +6060,16 @@
         <v>0.0452357360754605</v>
       </c>
       <c r="I164">
-        <v>0.03281020466856899</v>
+        <v>0.05140516156568257</v>
       </c>
       <c r="J164">
         <v>0.03281020466856899</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164">
+        <v>0.03281020466856899</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="2">
         <v>40087</v>
       </c>
@@ -5606,13 +6095,16 @@
         <v>-0.01565378284237984</v>
       </c>
       <c r="I165">
-        <v>0.1638540111062299</v>
+        <v>0.05143523726451564</v>
       </c>
       <c r="J165">
         <v>0.1638540111062299</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165">
+        <v>0.1638540111062299</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="2">
         <v>40118</v>
       </c>
@@ -5629,7 +6121,7 @@
         <v>22.09000015258789</v>
       </c>
       <c r="F166">
-        <v>17.01599884033203</v>
+        <v>17.0160026550293</v>
       </c>
       <c r="G166">
         <v>104300</v>
@@ -5638,13 +6130,16 @@
         <v>0.03320865386768479</v>
       </c>
       <c r="I166">
-        <v>0.3259303934519096</v>
+        <v>0.05149969643501476</v>
       </c>
       <c r="J166">
         <v>0.3259303934519096</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166">
+        <v>0.3259303934519096</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="2">
         <v>40148</v>
       </c>
@@ -5661,7 +6156,7 @@
         <v>22.26000022888184</v>
       </c>
       <c r="F167">
-        <v>17.17912864685059</v>
+        <v>17.17912673950195</v>
       </c>
       <c r="G167">
         <v>58400</v>
@@ -5670,13 +6165,16 @@
         <v>0.007695793350822155</v>
       </c>
       <c r="I167">
-        <v>0.2006472022468442</v>
+        <v>0.05148947564962292</v>
       </c>
       <c r="J167">
         <v>0.2006472022468442</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167">
+        <v>0.2006472022468442</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="2">
         <v>40179</v>
       </c>
@@ -5693,7 +6191,7 @@
         <v>21.29000091552734</v>
       </c>
       <c r="F168">
-        <v>16.43053436279297</v>
+        <v>16.4305305480957</v>
       </c>
       <c r="G168">
         <v>242000</v>
@@ -5702,13 +6200,16 @@
         <v>-0.04357588963974679</v>
       </c>
       <c r="I168">
-        <v>0.3449147832050663</v>
+        <v>0.05061390157530421</v>
       </c>
       <c r="J168">
         <v>0.3449147832050663</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168">
+        <v>0.3449147832050663</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="2">
         <v>40210</v>
       </c>
@@ -5725,7 +6226,7 @@
         <v>21.88999938964844</v>
       </c>
       <c r="F169">
-        <v>16.89357948303223</v>
+        <v>16.89358139038086</v>
       </c>
       <c r="G169">
         <v>142900</v>
@@ -5734,13 +6235,16 @@
         <v>0.028182172302468</v>
       </c>
       <c r="I169">
-        <v>0.5591167698806283</v>
+        <v>0.0506537175685351</v>
       </c>
       <c r="J169">
         <v>0.5591167698806283</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="K169">
+        <v>0.5591167698806283</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="2">
         <v>40238</v>
       </c>
@@ -5757,7 +6261,7 @@
         <v>23.10000038146973</v>
       </c>
       <c r="F170">
-        <v>17.82740020751953</v>
+        <v>17.8273983001709</v>
       </c>
       <c r="G170">
         <v>161500</v>
@@ -5766,13 +6270,16 @@
         <v>0.05527642876013439</v>
       </c>
       <c r="I170">
-        <v>0.516743340497684</v>
+        <v>0.05047183951373353</v>
       </c>
       <c r="J170">
         <v>0.516743340497684</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170">
+        <v>0.516743340497684</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="2">
         <v>40269</v>
       </c>
@@ -5789,7 +6296,7 @@
         <v>21.92000007629395</v>
       </c>
       <c r="F171">
-        <v>16.91673278808594</v>
+        <v>16.91673469543457</v>
       </c>
       <c r="G171">
         <v>278600</v>
@@ -5798,13 +6305,16 @@
         <v>-0.05108226344975952</v>
       </c>
       <c r="I171">
-        <v>0.3514180643797218</v>
+        <v>0.05056181442664163</v>
       </c>
       <c r="J171">
         <v>0.3514180643797218</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171">
+        <v>0.3514180643797218</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="2">
         <v>40299</v>
       </c>
@@ -5821,7 +6331,7 @@
         <v>19.57999992370605</v>
       </c>
       <c r="F172">
-        <v>15.11084365844727</v>
+        <v>15.11084175109863</v>
       </c>
       <c r="G172">
         <v>152000</v>
@@ -5830,13 +6340,16 @@
         <v>-0.1067518314070881</v>
       </c>
       <c r="I172">
-        <v>0.0799779829045586</v>
+        <v>0.05132103599529703</v>
       </c>
       <c r="J172">
         <v>0.0799779829045586</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172">
+        <v>0.0799779829045586</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="2">
         <v>40330</v>
       </c>
@@ -5853,7 +6366,7 @@
         <v>19.98999977111816</v>
       </c>
       <c r="F173">
-        <v>15.67125034332275</v>
+        <v>15.67125225067139</v>
       </c>
       <c r="G173">
         <v>184600</v>
@@ -5862,13 +6375,16 @@
         <v>0.02093972671142419</v>
       </c>
       <c r="I173">
-        <v>0.1287408698199488</v>
+        <v>0.05134062254870164</v>
       </c>
       <c r="J173">
         <v>0.1287408698199488</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173">
+        <v>0.1287408698199488</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="2">
         <v>40360</v>
       </c>
@@ -5885,7 +6401,7 @@
         <v>21.21999931335449</v>
       </c>
       <c r="F174">
-        <v>16.63551330566406</v>
+        <v>16.6355152130127</v>
       </c>
       <c r="G174">
         <v>130300</v>
@@ -5894,13 +6410,16 @@
         <v>0.06153074318757357</v>
       </c>
       <c r="I174">
-        <v>0.08431270537866475</v>
+        <v>0.05161586716875607</v>
       </c>
       <c r="J174">
         <v>0.08431270537866475</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="K174">
+        <v>0.08431270537866475</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" s="2">
         <v>40391</v>
       </c>
@@ -5926,13 +6445,16 @@
         <v>0.01649389221466468</v>
       </c>
       <c r="I175">
-        <v>0.0380172753645005</v>
+        <v>0.05160930837830655</v>
       </c>
       <c r="J175">
         <v>0.0380172753645005</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="K175">
+        <v>0.0380172753645005</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="2">
         <v>40422</v>
       </c>
@@ -5958,13 +6480,16 @@
         <v>0.05795085849259141</v>
       </c>
       <c r="I176">
-        <v>0.05064458638326896</v>
+        <v>0.05158963635162574</v>
       </c>
       <c r="J176">
         <v>0.05064458638326896</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="K176">
+        <v>0.05064458638326896</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="2">
         <v>40452</v>
       </c>
@@ -5990,13 +6515,16 @@
         <v>0.03067488046891698</v>
       </c>
       <c r="I177">
-        <v>0.1000936099625338</v>
+        <v>0.05162308010445033</v>
       </c>
       <c r="J177">
         <v>0.1000936099625338</v>
       </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="K177">
+        <v>0.1000936099625338</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="2">
         <v>40483</v>
       </c>
@@ -6022,13 +6550,16 @@
         <v>-0.03443883322815344</v>
       </c>
       <c r="I178">
-        <v>0.02806695009516025</v>
+        <v>0.05173467043939568</v>
       </c>
       <c r="J178">
         <v>0.02806695009516025</v>
       </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="K178">
+        <v>0.02806695009516025</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="2">
         <v>40513</v>
       </c>
@@ -6045,7 +6576,7 @@
         <v>25.07999992370605</v>
       </c>
       <c r="F179">
-        <v>19.66158103942871</v>
+        <v>19.66157913208008</v>
       </c>
       <c r="G179">
         <v>185600</v>
@@ -6054,13 +6585,16 @@
         <v>0.1043593542394206</v>
       </c>
       <c r="I179">
-        <v>0.1266846211063977</v>
+        <v>0.05169140636216629</v>
       </c>
       <c r="J179">
         <v>0.1266846211063977</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179">
+        <v>0.1266846211063977</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="2">
         <v>40544</v>
       </c>
@@ -6077,7 +6611,7 @@
         <v>24.76000022888184</v>
       </c>
       <c r="F180">
-        <v>19.41071510314941</v>
+        <v>19.41071128845215</v>
       </c>
       <c r="G180">
         <v>169800</v>
@@ -6086,13 +6620,16 @@
         <v>-0.01275915852462783</v>
       </c>
       <c r="I180">
-        <v>0.1629872787287545</v>
+        <v>0.051646624780694</v>
       </c>
       <c r="J180">
         <v>0.1629872787287545</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="K180">
+        <v>0.1629872787287545</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="2">
         <v>40575</v>
       </c>
@@ -6109,7 +6646,7 @@
         <v>25.70000076293945</v>
       </c>
       <c r="F181">
-        <v>20.14763259887695</v>
+        <v>20.14762878417969</v>
       </c>
       <c r="G181">
         <v>189900</v>
@@ -6118,13 +6655,16 @@
         <v>0.03796448002294972</v>
       </c>
       <c r="I181">
-        <v>0.1740521461637283</v>
+        <v>0.05152370234239178</v>
       </c>
       <c r="J181">
         <v>0.1740521461637283</v>
       </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="K181">
+        <v>0.1740521461637283</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="2">
         <v>40603</v>
       </c>
@@ -6150,13 +6690,16 @@
         <v>-0.01595330098212866</v>
       </c>
       <c r="I182">
-        <v>0.09480521635897388</v>
+        <v>0.05060165152326247</v>
       </c>
       <c r="J182">
         <v>0.09480521635897388</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="K182">
+        <v>0.09480521635897388</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="2">
         <v>40634</v>
       </c>
@@ -6173,7 +6716,7 @@
         <v>27.85000038146973</v>
       </c>
       <c r="F183">
-        <v>21.83313179016113</v>
+        <v>21.83313369750977</v>
       </c>
       <c r="G183">
         <v>96000</v>
@@ -6182,13 +6725,16 @@
         <v>0.10122575615925</v>
       </c>
       <c r="I183">
-        <v>0.2705292100609507</v>
+        <v>0.05133874134020645</v>
       </c>
       <c r="J183">
         <v>0.2705292100609507</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="K183">
+        <v>0.2705292100609507</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" s="2">
         <v>40664</v>
       </c>
@@ -6205,7 +6751,7 @@
         <v>28.36000061035156</v>
       </c>
       <c r="F184">
-        <v>22.23295021057129</v>
+        <v>22.23295402526855</v>
       </c>
       <c r="G184">
         <v>696400</v>
@@ -6214,13 +6760,16 @@
         <v>0.01831239575928945</v>
       </c>
       <c r="I184">
-        <v>0.4484167886035237</v>
+        <v>0.05131235056106991</v>
       </c>
       <c r="J184">
         <v>0.4484167886035237</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="K184">
+        <v>0.4484167886035237</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" s="2">
         <v>40695</v>
       </c>
@@ -6237,7 +6786,7 @@
         <v>26.61000061035156</v>
       </c>
       <c r="F185">
-        <v>21.28096389770508</v>
+        <v>21.28096580505371</v>
       </c>
       <c r="G185">
         <v>439500</v>
@@ -6246,13 +6795,16 @@
         <v>-0.06170662772698388</v>
       </c>
       <c r="I185">
-        <v>0.3311656285658426</v>
+        <v>0.05152351380437948</v>
       </c>
       <c r="J185">
         <v>0.3311656285658426</v>
       </c>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="K185">
+        <v>0.3311656285658426</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" s="2">
         <v>40725</v>
       </c>
@@ -6269,7 +6821,7 @@
         <v>26.31999969482422</v>
       </c>
       <c r="F186">
-        <v>21.04904174804688</v>
+        <v>21.04904556274414</v>
       </c>
       <c r="G186">
         <v>312300</v>
@@ -6278,13 +6830,16 @@
         <v>-0.01089819274241322</v>
       </c>
       <c r="I186">
-        <v>0.2403393282986639</v>
+        <v>0.05146042446963073</v>
       </c>
       <c r="J186">
         <v>0.2403393282986639</v>
       </c>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="K186">
+        <v>0.2403393282986639</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="2">
         <v>40756</v>
       </c>
@@ -6301,7 +6856,7 @@
         <v>24.67000007629395</v>
       </c>
       <c r="F187">
-        <v>19.7294807434082</v>
+        <v>19.72947883605957</v>
       </c>
       <c r="G187">
         <v>374200</v>
@@ -6310,13 +6865,16 @@
         <v>-0.06268995583821158</v>
       </c>
       <c r="I187">
-        <v>0.1437181467468254</v>
+        <v>0.05184518965016847</v>
       </c>
       <c r="J187">
         <v>0.1437181467468254</v>
       </c>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="K187">
+        <v>0.1437181467468254</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="2">
         <v>40787</v>
       </c>
@@ -6333,7 +6891,7 @@
         <v>21.65999984741211</v>
       </c>
       <c r="F188">
-        <v>17.32227325439453</v>
+        <v>17.32227516174316</v>
       </c>
       <c r="G188">
         <v>178500</v>
@@ -6342,13 +6900,16 @@
         <v>-0.1220105480167478</v>
       </c>
       <c r="I188">
-        <v>-0.05083259697304943</v>
+        <v>0.05261770247122242</v>
       </c>
       <c r="J188">
         <v>-0.05083259697304943</v>
       </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="K188">
+        <v>-0.05083259697304943</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="2">
         <v>40817</v>
       </c>
@@ -6365,7 +6926,7 @@
         <v>23.5</v>
       </c>
       <c r="F189">
-        <v>18.79378700256348</v>
+        <v>18.79378890991211</v>
       </c>
       <c r="G189">
         <v>122300</v>
@@ -6374,13 +6935,16 @@
         <v>0.08494922278624717</v>
       </c>
       <c r="I189">
-        <v>-0.0008503595822452192</v>
+        <v>0.05309916184425212</v>
       </c>
       <c r="J189">
         <v>-0.0008503595822452192</v>
       </c>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="K189">
+        <v>-0.0008503595822452192</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="2">
         <v>40848</v>
       </c>
@@ -6397,7 +6961,7 @@
         <v>22.36000061035156</v>
       </c>
       <c r="F190">
-        <v>17.88209533691406</v>
+        <v>17.88208770751953</v>
       </c>
       <c r="G190">
         <v>273800</v>
@@ -6406,13 +6970,16 @@
         <v>-0.04851061232546539</v>
       </c>
       <c r="I190">
-        <v>-0.015411646333372</v>
+        <v>0.05333014515084768</v>
       </c>
       <c r="J190">
         <v>-0.015411646333372</v>
       </c>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="K190">
+        <v>-0.015411646333372</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="2">
         <v>40878</v>
       </c>
@@ -6429,7 +6996,7 @@
         <v>22.6200008392334</v>
       </c>
       <c r="F191">
-        <v>18.10497093200684</v>
+        <v>18.1049690246582</v>
       </c>
       <c r="G191">
         <v>208600</v>
@@ -6438,13 +7005,16 @@
         <v>0.01162791689555998</v>
       </c>
       <c r="I191">
-        <v>-0.09808608819601394</v>
+        <v>0.05333228423663123</v>
       </c>
       <c r="J191">
         <v>-0.09808608819601394</v>
       </c>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="K191">
+        <v>-0.09808608819601394</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="2">
         <v>40909</v>
       </c>
@@ -6461,7 +7031,7 @@
         <v>23.31999969482422</v>
       </c>
       <c r="F192">
-        <v>18.66525077819824</v>
+        <v>18.66524505615234</v>
       </c>
       <c r="G192">
         <v>100900</v>
@@ -6470,13 +7040,16 @@
         <v>0.03094601368788208</v>
       </c>
       <c r="I192">
-        <v>-0.05815834090251326</v>
+        <v>0.05312995346746711</v>
       </c>
       <c r="J192">
         <v>-0.05815834090251326</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="K192">
+        <v>-0.05815834090251326</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="2">
         <v>40940</v>
       </c>
@@ -6502,13 +7075,16 @@
         <v>0.04416812607738207</v>
       </c>
       <c r="I193">
-        <v>-0.05252919616315688</v>
+        <v>0.05320771911813926</v>
       </c>
       <c r="J193">
         <v>-0.05252919616315688</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="K193">
+        <v>-0.05252919616315688</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" s="2">
         <v>40969</v>
       </c>
@@ -6525,7 +7101,7 @@
         <v>25.03000068664551</v>
       </c>
       <c r="F194">
-        <v>20.0339298248291</v>
+        <v>20.03392601013184</v>
       </c>
       <c r="G194">
         <v>218400</v>
@@ -6534,13 +7110,16 @@
         <v>0.02792609012414049</v>
       </c>
       <c r="I194">
-        <v>-0.01028075205494372</v>
+        <v>0.05290883717046763</v>
       </c>
       <c r="J194">
         <v>-0.01028075205494372</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194">
+        <v>-0.01028075205494372</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" s="2">
         <v>41000</v>
       </c>
@@ -6557,7 +7136,7 @@
         <v>24.81999969482422</v>
       </c>
       <c r="F195">
-        <v>19.86584663391113</v>
+        <v>19.86584091186523</v>
       </c>
       <c r="G195">
         <v>170000</v>
@@ -6566,13 +7145,16 @@
         <v>-0.008389971476642111</v>
       </c>
       <c r="I195">
-        <v>-0.1087971506334897</v>
+        <v>0.05290403676996867</v>
       </c>
       <c r="J195">
         <v>-0.1087971506334897</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="K195">
+        <v>-0.1087971506334897</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" s="2">
         <v>41030</v>
       </c>
@@ -6589,7 +7171,7 @@
         <v>22.25</v>
       </c>
       <c r="F196">
-        <v>17.80882263183594</v>
+        <v>17.8088264465332</v>
       </c>
       <c r="G196">
         <v>510800</v>
@@ -6598,13 +7180,16 @@
         <v>-0.1035455167777519</v>
       </c>
       <c r="I196">
-        <v>-0.2154443046140618</v>
+        <v>0.05372543941417259</v>
       </c>
       <c r="J196">
         <v>-0.2154443046140618</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="K196">
+        <v>-0.2154443046140618</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" s="2">
         <v>41061</v>
       </c>
@@ -6621,7 +7206,7 @@
         <v>22.90999984741211</v>
       </c>
       <c r="F197">
-        <v>18.84871482849121</v>
+        <v>18.84871673583984</v>
       </c>
       <c r="G197">
         <v>152300</v>
@@ -6630,13 +7215,16 @@
         <v>0.0296629144904319</v>
       </c>
       <c r="I197">
-        <v>-0.1390454971090874</v>
+        <v>0.05364268869610325</v>
       </c>
       <c r="J197">
         <v>-0.1390454971090874</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="K197">
+        <v>-0.1390454971090874</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" s="2">
         <v>41091</v>
       </c>
@@ -6653,7 +7241,7 @@
         <v>23.28000068664551</v>
       </c>
       <c r="F198">
-        <v>19.15312576293945</v>
+        <v>19.15312767028809</v>
       </c>
       <c r="G198">
         <v>170200</v>
@@ -6662,13 +7250,16 @@
         <v>0.01615018951103098</v>
       </c>
       <c r="I198">
-        <v>-0.1155014834128787</v>
+        <v>0.05197195112593896</v>
       </c>
       <c r="J198">
         <v>-0.1155014834128787</v>
       </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="K198">
+        <v>-0.1155014834128787</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" s="2">
         <v>41122</v>
       </c>
@@ -6694,13 +7285,16 @@
         <v>0.02104809951312636</v>
       </c>
       <c r="I199">
-        <v>-0.03648154097069123</v>
+        <v>0.05195168605951971</v>
       </c>
       <c r="J199">
         <v>-0.03648154097069123</v>
       </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="K199">
+        <v>-0.03648154097069123</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" s="2">
         <v>41153</v>
       </c>
@@ -6717,7 +7311,7 @@
         <v>24.59000015258789</v>
       </c>
       <c r="F200">
-        <v>20.23090171813965</v>
+        <v>20.23089790344238</v>
       </c>
       <c r="G200">
         <v>216600</v>
@@ -6726,13 +7320,16 @@
         <v>0.0344972519576201</v>
       </c>
       <c r="I200">
-        <v>0.1352724065474014</v>
+        <v>0.05140679674306293</v>
       </c>
       <c r="J200">
         <v>0.1352724065474014</v>
       </c>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="K200">
+        <v>0.1352724065474014</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" s="2">
         <v>41183</v>
       </c>
@@ -6749,7 +7346,7 @@
         <v>25.19000053405762</v>
       </c>
       <c r="F201">
-        <v>20.72453498840332</v>
+        <v>20.72453689575195</v>
       </c>
       <c r="G201">
         <v>411600</v>
@@ -6758,13 +7355,16 @@
         <v>0.02440017802954686</v>
       </c>
       <c r="I201">
-        <v>0.07191491634287739</v>
+        <v>0.05139839706602418</v>
       </c>
       <c r="J201">
         <v>0.07191491634287739</v>
       </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="K201">
+        <v>0.07191491634287739</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" s="2">
         <v>41214</v>
       </c>
@@ -6790,13 +7390,16 @@
         <v>0.03890430811668066</v>
       </c>
       <c r="I202">
-        <v>0.170393531392774</v>
+        <v>0.05127438750760686</v>
       </c>
       <c r="J202">
         <v>0.170393531392774</v>
       </c>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="K202">
+        <v>0.170393531392774</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203" s="2">
         <v>41244</v>
       </c>
@@ -6822,13 +7425,16 @@
         <v>0.02407333431142344</v>
       </c>
       <c r="I203">
-        <v>0.1847921415890101</v>
+        <v>0.05112937077201179</v>
       </c>
       <c r="J203">
         <v>0.1847921415890101</v>
       </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="K203">
+        <v>0.1847921415890101</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204" s="2">
         <v>41275</v>
       </c>
@@ -6854,13 +7460,16 @@
         <v>0.07089558134208751</v>
       </c>
       <c r="I204">
-        <v>0.2307033078267708</v>
+        <v>0.05126855669599977</v>
       </c>
       <c r="J204">
         <v>0.2307033078267708</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="K204">
+        <v>0.2307033078267708</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205" s="2">
         <v>41306</v>
       </c>
@@ -6877,7 +7486,7 @@
         <v>28.76000022888184</v>
       </c>
       <c r="F205">
-        <v>23.66168212890625</v>
+        <v>23.66167831420898</v>
       </c>
       <c r="G205">
         <v>426200</v>
@@ -6886,13 +7495,16 @@
         <v>0.002090573670641138</v>
       </c>
       <c r="I205">
-        <v>0.181108820465075</v>
+        <v>0.05091638016097709</v>
       </c>
       <c r="J205">
         <v>0.181108820465075</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="K205">
+        <v>0.181108820465075</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" s="2">
         <v>41334</v>
       </c>
@@ -6918,13 +7530,16 @@
         <v>0.020862321860039</v>
       </c>
       <c r="I206">
-        <v>0.1729924013152857</v>
+        <v>0.05092273353623993</v>
       </c>
       <c r="J206">
         <v>0.1729924013152857</v>
       </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="K206">
+        <v>0.1729924013152857</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207" s="2">
         <v>41365</v>
       </c>
@@ -6941,7 +7556,7 @@
         <v>30.5</v>
       </c>
       <c r="F207">
-        <v>25.09322929382324</v>
+        <v>25.09322547912598</v>
       </c>
       <c r="G207">
         <v>403700</v>
@@ -6950,13 +7565,16 @@
         <v>0.03882831627893446</v>
       </c>
       <c r="I207">
-        <v>0.2288477185743176</v>
+        <v>0.05015174202824291</v>
       </c>
       <c r="J207">
         <v>0.2288477185743176</v>
       </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="K207">
+        <v>0.2288477185743176</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208" s="2">
         <v>41395</v>
       </c>
@@ -6973,7 +7591,7 @@
         <v>29.72999954223633</v>
       </c>
       <c r="F208">
-        <v>24.45972442626953</v>
+        <v>24.45972633361816</v>
       </c>
       <c r="G208">
         <v>491900</v>
@@ -6982,13 +7600,16 @@
         <v>-0.02524591664798925</v>
       </c>
       <c r="I208">
-        <v>0.3361797547072507</v>
+        <v>0.05007585086474706</v>
       </c>
       <c r="J208">
         <v>0.3361797547072507</v>
       </c>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="K208">
+        <v>0.3361797547072507</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" s="2">
         <v>41426</v>
       </c>
@@ -7014,13 +7635,16 @@
         <v>-0.03632694047545271</v>
       </c>
       <c r="I209">
-        <v>0.2505456049475507</v>
+        <v>0.05022173658467596</v>
       </c>
       <c r="J209">
         <v>0.2505456049475507</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="K209">
+        <v>0.2505456049475507</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" s="2">
         <v>41456</v>
       </c>
@@ -7037,7 +7661,7 @@
         <v>29.85000038146973</v>
       </c>
       <c r="F210">
-        <v>25.08193397521973</v>
+        <v>25.08193016052246</v>
       </c>
       <c r="G210">
         <v>446200</v>
@@ -7046,13 +7670,16 @@
         <v>0.04188484394126535</v>
       </c>
       <c r="I210">
-        <v>0.2822164734124375</v>
+        <v>0.05028768042399626</v>
       </c>
       <c r="J210">
         <v>0.2822164734124375</v>
       </c>
-    </row>
-    <row r="211" spans="1:10">
+      <c r="K210">
+        <v>0.2822164734124375</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" s="2">
         <v>41487</v>
       </c>
@@ -7069,7 +7696,7 @@
         <v>29.35000038146973</v>
       </c>
       <c r="F211">
-        <v>24.66179847717285</v>
+        <v>24.66180038452148</v>
       </c>
       <c r="G211">
         <v>254700</v>
@@ -7078,13 +7705,16 @@
         <v>-0.01675041854640613</v>
       </c>
       <c r="I211">
-        <v>0.2347496767457375</v>
+        <v>0.05034115910064012</v>
       </c>
       <c r="J211">
         <v>0.2347496767457375</v>
       </c>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="K211">
+        <v>0.2347496767457375</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" s="2">
         <v>41518</v>
       </c>
@@ -7101,7 +7731,7 @@
         <v>31.28000068664551</v>
       </c>
       <c r="F212">
-        <v>26.28351211547852</v>
+        <v>26.28351402282715</v>
       </c>
       <c r="G212">
         <v>366400</v>
@@ -7110,13 +7740,16 @@
         <v>0.06575810153632222</v>
       </c>
       <c r="I212">
-        <v>0.2720618337756924</v>
+        <v>0.05050287063020416</v>
       </c>
       <c r="J212">
         <v>0.2720618337756924</v>
       </c>
-    </row>
-    <row r="213" spans="1:10">
+      <c r="K212">
+        <v>0.2720618337756924</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
       <c r="A213" s="2">
         <v>41548</v>
       </c>
@@ -7133,7 +7766,7 @@
         <v>32.20999908447266</v>
       </c>
       <c r="F213">
-        <v>27.06495666503906</v>
+        <v>27.06496047973633</v>
       </c>
       <c r="G213">
         <v>482500</v>
@@ -7142,13 +7775,16 @@
         <v>0.02973140592750045</v>
       </c>
       <c r="I213">
-        <v>0.2786819532188496</v>
+        <v>0.05051738555407476</v>
       </c>
       <c r="J213">
         <v>0.2786819532188496</v>
       </c>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="K213">
+        <v>0.2786819532188496</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
       <c r="A214" s="2">
         <v>41579</v>
       </c>
@@ -7174,13 +7810,16 @@
         <v>0.002173228712010866</v>
       </c>
       <c r="I214">
-        <v>0.233473392632416</v>
+        <v>0.0503295951918702</v>
       </c>
       <c r="J214">
         <v>0.233473392632416</v>
       </c>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="K214">
+        <v>0.233473392632416</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
       <c r="A215" s="2">
         <v>41609</v>
       </c>
@@ -7206,13 +7845,16 @@
         <v>0.02199513401547248</v>
       </c>
       <c r="I215">
-        <v>0.2309702469262152</v>
+        <v>0.05007508008458821</v>
       </c>
       <c r="J215">
         <v>0.2309702469262152</v>
       </c>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="K215">
+        <v>0.2309702469262152</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
       <c r="A216" s="2">
         <v>41640</v>
       </c>
@@ -7238,13 +7880,16 @@
         <v>-0.03000914301598812</v>
       </c>
       <c r="I216">
-        <v>0.1149825487573457</v>
+        <v>0.0501654019266285</v>
       </c>
       <c r="J216">
         <v>0.1149825487573457</v>
       </c>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="K216">
+        <v>0.1149825487573457</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
       <c r="A217" s="2">
         <v>41671</v>
       </c>
@@ -7270,13 +7915,16 @@
         <v>0.06937503814697266</v>
       </c>
       <c r="I217">
-        <v>0.1898470427110135</v>
+        <v>0.05047754126882361</v>
       </c>
       <c r="J217">
         <v>0.1898470427110135</v>
       </c>
-    </row>
-    <row r="218" spans="1:10">
+      <c r="K217">
+        <v>0.1898470427110135</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
       <c r="A218" s="2">
         <v>41699</v>
       </c>
@@ -7293,7 +7941,7 @@
         <v>34.34000015258789</v>
       </c>
       <c r="F218">
-        <v>28.85472679138184</v>
+        <v>28.85472869873047</v>
       </c>
       <c r="G218">
         <v>470000</v>
@@ -7302,13 +7950,16 @@
         <v>0.003506689877385671</v>
       </c>
       <c r="I218">
-        <v>0.1696185094928271</v>
+        <v>0.05040767080243286</v>
       </c>
       <c r="J218">
         <v>0.1696185094928271</v>
       </c>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="K218">
+        <v>0.1696185094928271</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
       <c r="A219" s="2">
         <v>41730</v>
       </c>
@@ -7325,7 +7976,7 @@
         <v>35.02999877929688</v>
       </c>
       <c r="F219">
-        <v>29.43450927734375</v>
+        <v>29.43450736999512</v>
       </c>
       <c r="G219">
         <v>264700</v>
@@ -7334,13 +7985,16 @@
         <v>0.02009314570888221</v>
       </c>
       <c r="I219">
-        <v>0.1485245501408812</v>
+        <v>0.05041869476529511</v>
       </c>
       <c r="J219">
         <v>0.1485245501408812</v>
       </c>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="K219">
+        <v>0.1485245501408812</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
       <c r="A220" s="2">
         <v>41760</v>
       </c>
@@ -7357,7 +8011,7 @@
         <v>35.2599983215332</v>
       </c>
       <c r="F220">
-        <v>29.62776756286621</v>
+        <v>29.62776947021484</v>
       </c>
       <c r="G220">
         <v>400000</v>
@@ -7366,13 +8020,16 @@
         <v>0.006565787903260123</v>
       </c>
       <c r="I220">
-        <v>0.1860073617371103</v>
+        <v>0.05041310953071388</v>
       </c>
       <c r="J220">
         <v>0.1860073617371103</v>
       </c>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="K220">
+        <v>0.1860073617371103</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
       <c r="A221" s="2">
         <v>41791</v>
       </c>
@@ -7389,7 +8046,7 @@
         <v>34.31999969482422</v>
       </c>
       <c r="F221">
-        <v>29.49924278259277</v>
+        <v>29.49924087524414</v>
       </c>
       <c r="G221">
         <v>687800</v>
@@ -7398,13 +8055,16 @@
         <v>-0.02665906612181912</v>
       </c>
       <c r="I221">
-        <v>0.1979057644603492</v>
+        <v>0.05051284812909415</v>
       </c>
       <c r="J221">
         <v>0.1979057644603492</v>
       </c>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="K221">
+        <v>0.1979057644603492</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
       <c r="A222" s="2">
         <v>41821</v>
       </c>
@@ -7421,7 +8081,7 @@
         <v>32.79999923706055</v>
       </c>
       <c r="F222">
-        <v>28.19274711608887</v>
+        <v>28.1927433013916</v>
       </c>
       <c r="G222">
         <v>1498600</v>
@@ -7430,13 +8090,16 @@
         <v>-0.04428905802096794</v>
       </c>
       <c r="I222">
-        <v>0.09882743108513048</v>
+        <v>0.05053737240137125</v>
       </c>
       <c r="J222">
         <v>0.09882743108513048</v>
       </c>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="K222">
+        <v>0.09882743108513048</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
       <c r="A223" s="2">
         <v>41852</v>
       </c>
@@ -7453,7 +8116,7 @@
         <v>33.63000106811523</v>
       </c>
       <c r="F223">
-        <v>28.90616035461426</v>
+        <v>28.90615844726562</v>
       </c>
       <c r="G223">
         <v>267400</v>
@@ -7462,13 +8125,16 @@
         <v>0.02530493446222004</v>
       </c>
       <c r="I223">
-        <v>0.1458262565934312</v>
+        <v>0.05055715160891817</v>
       </c>
       <c r="J223">
         <v>0.1458262565934312</v>
       </c>
-    </row>
-    <row r="224" spans="1:10">
+      <c r="K223">
+        <v>0.1458262565934312</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
       <c r="A224" s="2">
         <v>41883</v>
       </c>
@@ -7485,7 +8151,7 @@
         <v>32.5099983215332</v>
       </c>
       <c r="F224">
-        <v>27.94348335266113</v>
+        <v>27.9434814453125</v>
       </c>
       <c r="G224">
         <v>253600</v>
@@ -7494,13 +8160,16 @@
         <v>-0.03330367859083749</v>
       </c>
       <c r="I224">
-        <v>0.03932217416519501</v>
+        <v>0.05068745507334976</v>
       </c>
       <c r="J224">
         <v>0.03932217416519501</v>
       </c>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="K224">
+        <v>0.03932217416519501</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
       <c r="A225" s="2">
         <v>41913</v>
       </c>
@@ -7517,7 +8186,7 @@
         <v>32.36999893188477</v>
       </c>
       <c r="F225">
-        <v>27.82314682006836</v>
+        <v>27.82314491271973</v>
       </c>
       <c r="G225">
         <v>885700</v>
@@ -7526,13 +8195,16 @@
         <v>-0.004306348719670949</v>
       </c>
       <c r="I225">
-        <v>0.004967396832036508</v>
+        <v>0.05062484807452849</v>
       </c>
       <c r="J225">
         <v>0.004967396832036508</v>
       </c>
-    </row>
-    <row r="226" spans="1:10">
+      <c r="K225">
+        <v>0.004967396832036508</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
       <c r="A226" s="2">
         <v>41944</v>
       </c>
@@ -7558,13 +8230,16 @@
         <v>0.02533208902940398</v>
       </c>
       <c r="I226">
-        <v>0.02819082657449634</v>
+        <v>0.05026899311218204</v>
       </c>
       <c r="J226">
         <v>0.02819082657449634</v>
       </c>
-    </row>
-    <row r="227" spans="1:10">
+      <c r="K226">
+        <v>0.02819082657449634</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
       <c r="A227" s="2">
         <v>41974</v>
       </c>
@@ -7581,7 +8256,7 @@
         <v>31.69000053405762</v>
       </c>
       <c r="F227">
-        <v>27.23866081237793</v>
+        <v>27.23866271972656</v>
       </c>
       <c r="G227">
         <v>912900</v>
@@ -7590,13 +8265,16 @@
         <v>-0.04519428004568438</v>
       </c>
       <c r="I227">
-        <v>-0.03940591325455178</v>
+        <v>0.0504247136945702</v>
       </c>
       <c r="J227">
         <v>-0.03940591325455178</v>
       </c>
-    </row>
-    <row r="228" spans="1:10">
+      <c r="K227">
+        <v>-0.03940591325455178</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
       <c r="A228" s="2">
         <v>42005</v>
       </c>
@@ -7622,13 +8300,16 @@
         <v>0.001893324863718515</v>
       </c>
       <c r="I228">
-        <v>-0.0078125</v>
+        <v>0.05026672292793467</v>
       </c>
       <c r="J228">
         <v>-0.0078125</v>
       </c>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="K228">
+        <v>-0.0078125</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
       <c r="A229" s="2">
         <v>42036</v>
       </c>
@@ -7645,7 +8326,7 @@
         <v>33.31999969482422</v>
       </c>
       <c r="F229">
-        <v>28.63970565795898</v>
+        <v>28.63970375061035</v>
       </c>
       <c r="G229">
         <v>456000</v>
@@ -7654,13 +8335,16 @@
         <v>0.04944880928580209</v>
       </c>
       <c r="I229">
-        <v>-0.02630045276954596</v>
+        <v>0.05015616941836198</v>
       </c>
       <c r="J229">
         <v>-0.02630045276954596</v>
       </c>
-    </row>
-    <row r="230" spans="1:10">
+      <c r="K229">
+        <v>-0.02630045276954596</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
       <c r="A230" s="2">
         <v>42064</v>
       </c>
@@ -7677,7 +8361,7 @@
         <v>33.20999908447266</v>
       </c>
       <c r="F230">
-        <v>28.5451545715332</v>
+        <v>28.54515266418457</v>
       </c>
       <c r="G230">
         <v>352000</v>
@@ -7686,13 +8370,16 @@
         <v>-0.003301338876322113</v>
       </c>
       <c r="I230">
-        <v>-0.03290626275754627</v>
+        <v>0.04996938291646378</v>
       </c>
       <c r="J230">
         <v>-0.03290626275754627</v>
       </c>
-    </row>
-    <row r="231" spans="1:10">
+      <c r="K230">
+        <v>-0.03290626275754627</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
       <c r="A231" s="2">
         <v>42095</v>
       </c>
@@ -7709,7 +8396,7 @@
         <v>34.54000091552734</v>
       </c>
       <c r="F231">
-        <v>29.6883373260498</v>
+        <v>29.68833923339844</v>
       </c>
       <c r="G231">
         <v>465100</v>
@@ -7718,13 +8405,16 @@
         <v>0.04004823449924544</v>
       </c>
       <c r="I231">
-        <v>-0.01398794978146345</v>
+        <v>0.05004350476087161</v>
       </c>
       <c r="J231">
         <v>-0.01398794978146345</v>
       </c>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="K231">
+        <v>-0.01398794978146345</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
       <c r="A232" s="2">
         <v>42125</v>
       </c>
@@ -7750,13 +8440,16 @@
         <v>0.02489868522165994</v>
       </c>
       <c r="I232">
-        <v>0.00397059588798121</v>
+        <v>0.05006798315336287</v>
       </c>
       <c r="J232">
         <v>0.00397059588798121</v>
       </c>
-    </row>
-    <row r="233" spans="1:10">
+      <c r="K232">
+        <v>0.00397059588798121</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
       <c r="A233" s="2">
         <v>42156</v>
       </c>
@@ -7773,7 +8466,7 @@
         <v>32.75</v>
       </c>
       <c r="F233">
-        <v>28.81669235229492</v>
+        <v>28.81669425964355</v>
       </c>
       <c r="G233">
         <v>1484800</v>
@@ -7782,13 +8475,16 @@
         <v>-0.07485879693936293</v>
       </c>
       <c r="I233">
-        <v>-0.0457459122606283</v>
+        <v>0.05060175081160895</v>
       </c>
       <c r="J233">
         <v>-0.0457459122606283</v>
       </c>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="K233">
+        <v>-0.0457459122606283</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
       <c r="A234" s="2">
         <v>42186</v>
       </c>
@@ -7814,13 +8510,16 @@
         <v>0.04122132745407914</v>
       </c>
       <c r="I234">
-        <v>0.0396341240030178</v>
+        <v>0.05055002509997035</v>
       </c>
       <c r="J234">
         <v>0.0396341240030178</v>
       </c>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="K234">
+        <v>0.0396341240030178</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" s="2">
         <v>42217</v>
       </c>
@@ -7846,13 +8545,16 @@
         <v>-0.0668621372821232</v>
       </c>
       <c r="I235">
-        <v>-0.05382103228676627</v>
+        <v>0.05098194933275685</v>
       </c>
       <c r="J235">
         <v>-0.05382103228676627</v>
       </c>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="K235">
+        <v>-0.05382103228676627</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
       <c r="A236" s="2">
         <v>42248</v>
       </c>
@@ -7878,13 +8580,16 @@
         <v>-0.03865491998846238</v>
       </c>
       <c r="I236">
-        <v>-0.0590586978798332</v>
+        <v>0.05112584012654328</v>
       </c>
       <c r="J236">
         <v>-0.0590586978798332</v>
       </c>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="K236">
+        <v>-0.0590586978798332</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
       <c r="A237" s="2">
         <v>42278</v>
       </c>
@@ -7901,7 +8606,7 @@
         <v>31.77000045776367</v>
       </c>
       <c r="F237">
-        <v>27.95439147949219</v>
+        <v>27.95438957214355</v>
       </c>
       <c r="G237">
         <v>494500</v>
@@ -7910,13 +8615,16 @@
         <v>0.03857470739750735</v>
       </c>
       <c r="I237">
-        <v>-0.01853563465923036</v>
+        <v>0.05121026244776151</v>
       </c>
       <c r="J237">
         <v>-0.01853563465923036</v>
       </c>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="K237">
+        <v>-0.01853563465923036</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
       <c r="A238" s="2">
         <v>42309</v>
       </c>
@@ -7933,7 +8641,7 @@
         <v>30.88999938964844</v>
       </c>
       <c r="F238">
-        <v>27.18008041381836</v>
+        <v>27.18007850646973</v>
       </c>
       <c r="G238">
         <v>589900</v>
@@ -7942,13 +8650,16 @@
         <v>-0.02769912041031108</v>
       </c>
       <c r="I238">
-        <v>-0.06929796119996423</v>
+        <v>0.05126154010285295</v>
       </c>
       <c r="J238">
         <v>-0.06929796119996423</v>
       </c>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="K238">
+        <v>-0.06929796119996423</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
       <c r="A239" s="2">
         <v>42339</v>
       </c>
@@ -7974,13 +8685,16 @@
         <v>0.004855989926926707</v>
       </c>
       <c r="I239">
-        <v>-0.02051118988880141</v>
+        <v>0.0512396784674523</v>
       </c>
       <c r="J239">
         <v>-0.02051118988880141</v>
       </c>
-    </row>
-    <row r="240" spans="1:10">
+      <c r="K239">
+        <v>-0.02051118988880141</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
       <c r="A240" s="2">
         <v>42370</v>
       </c>
@@ -7997,7 +8711,7 @@
         <v>29.15999984741211</v>
       </c>
       <c r="F240">
-        <v>25.65785598754883</v>
+        <v>25.65785217285156</v>
       </c>
       <c r="G240">
         <v>1953300</v>
@@ -8006,13 +8720,16 @@
         <v>-0.06056704293377735</v>
       </c>
       <c r="I240">
-        <v>-0.08157480795552408</v>
+        <v>0.05135309044290205</v>
       </c>
       <c r="J240">
         <v>-0.08157480795552408</v>
       </c>
-    </row>
-    <row r="241" spans="1:10">
+      <c r="K240">
+        <v>-0.08157480795552408</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
       <c r="A241" s="2">
         <v>42401</v>
       </c>
@@ -8029,7 +8746,7 @@
         <v>28.32999992370605</v>
       </c>
       <c r="F241">
-        <v>24.92754173278809</v>
+        <v>24.92753791809082</v>
       </c>
       <c r="G241">
         <v>982100</v>
@@ -8038,13 +8755,16 @@
         <v>-0.02846364636657284</v>
       </c>
       <c r="I241">
-        <v>-0.1497598984640234</v>
+        <v>0.05142754208955005</v>
       </c>
       <c r="J241">
         <v>-0.1497598984640234</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
+      <c r="K241">
+        <v>-0.1497598984640234</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
       <c r="A242" s="2">
         <v>42430</v>
       </c>
@@ -8070,13 +8790,16 @@
         <v>0.04941756520651364</v>
       </c>
       <c r="I242">
-        <v>-0.1047877036486702</v>
+        <v>0.05152878962042862</v>
       </c>
       <c r="J242">
         <v>-0.1047877036486702</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="K242">
+        <v>-0.1047877036486702</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
       <c r="A243" s="2">
         <v>42461</v>
       </c>
@@ -8093,7 +8816,7 @@
         <v>30.61000061035156</v>
       </c>
       <c r="F243">
-        <v>26.93370628356934</v>
+        <v>26.93370819091797</v>
       </c>
       <c r="G243">
         <v>1498200</v>
@@ -8102,13 +8825,16 @@
         <v>0.02959976729448144</v>
       </c>
       <c r="I243">
-        <v>-0.1137811291547784</v>
+        <v>0.0512979085250272</v>
       </c>
       <c r="J243">
         <v>-0.1137811291547784</v>
       </c>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="K243">
+        <v>-0.1137811291547784</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
       <c r="A244" s="2">
         <v>42491</v>
       </c>
@@ -8125,7 +8851,7 @@
         <v>30.54000091552734</v>
       </c>
       <c r="F244">
-        <v>26.87211608886719</v>
+        <v>26.87211418151855</v>
       </c>
       <c r="G244">
         <v>966600</v>
@@ -8134,13 +8860,16 @@
         <v>-0.002286824352448646</v>
       </c>
       <c r="I244">
-        <v>-0.1372881469171321</v>
+        <v>0.05112808853673289</v>
       </c>
       <c r="J244">
         <v>-0.1372881469171321</v>
       </c>
-    </row>
-    <row r="245" spans="1:10">
+      <c r="K244">
+        <v>-0.1372881469171321</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
       <c r="A245" s="2">
         <v>42522</v>
       </c>
@@ -8157,7 +8886,7 @@
         <v>29.64999961853027</v>
       </c>
       <c r="F245">
-        <v>26.78285789489746</v>
+        <v>26.78285598754883</v>
       </c>
       <c r="G245">
         <v>1648700</v>
@@ -8166,13 +8895,16 @@
         <v>-0.0291421503050634</v>
       </c>
       <c r="I245">
-        <v>-0.0946565001975489</v>
+        <v>0.05121587127518103</v>
       </c>
       <c r="J245">
         <v>-0.0946565001975489</v>
       </c>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="K245">
+        <v>-0.0946565001975489</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
       <c r="A246" s="2">
         <v>42552</v>
       </c>
@@ -8198,13 +8930,16 @@
         <v>0.01888699740799993</v>
       </c>
       <c r="I246">
-        <v>-0.114076233540028</v>
+        <v>0.05115630906390702</v>
       </c>
       <c r="J246">
         <v>-0.114076233540028</v>
       </c>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="K246">
+        <v>-0.114076233540028</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
       <c r="A247" s="2">
         <v>42583</v>
       </c>
@@ -8221,7 +8956,7 @@
         <v>30.18000030517578</v>
       </c>
       <c r="F247">
-        <v>27.26160430908203</v>
+        <v>27.26160621643066</v>
       </c>
       <c r="G247">
         <v>483200</v>
@@ -8230,13 +8965,16 @@
         <v>-0.0009930082822244835</v>
       </c>
       <c r="I247">
-        <v>-0.05153989331794984</v>
+        <v>0.05110586349346607</v>
       </c>
       <c r="J247">
         <v>-0.05153989331794984</v>
       </c>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="K247">
+        <v>-0.05153989331794984</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
       <c r="A248" s="2">
         <v>42614</v>
       </c>
@@ -8262,13 +9000,16 @@
         <v>0.0122597391697612</v>
       </c>
       <c r="I248">
-        <v>-0.001307646790709827</v>
+        <v>0.05109685256290789</v>
       </c>
       <c r="J248">
         <v>-0.001307646790709827</v>
       </c>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="K248">
+        <v>-0.001307646790709827</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
       <c r="A249" s="2">
         <v>42644</v>
       </c>
@@ -8285,7 +9026,7 @@
         <v>29.01000022888184</v>
       </c>
       <c r="F249">
-        <v>26.20474433898926</v>
+        <v>26.20474243164062</v>
       </c>
       <c r="G249">
         <v>597200</v>
@@ -8294,13 +9035,16 @@
         <v>-0.05040913409616454</v>
       </c>
       <c r="I249">
-        <v>-0.08687441577317856</v>
+        <v>0.05130104184216864</v>
       </c>
       <c r="J249">
         <v>-0.08687441577317856</v>
       </c>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="K249">
+        <v>-0.08687441577317856</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
       <c r="A250" s="2">
         <v>42675</v>
       </c>
@@ -8326,13 +9070,16 @@
         <v>-0.02275077015528681</v>
       </c>
       <c r="I250">
-        <v>-0.0822272275288517</v>
+        <v>0.05125202854238797</v>
       </c>
       <c r="J250">
         <v>-0.0822272275288517</v>
       </c>
-    </row>
-    <row r="251" spans="1:10">
+      <c r="K250">
+        <v>-0.0822272275288517</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
       <c r="A251" s="2">
         <v>42705</v>
       </c>
@@ -8358,13 +9105,16 @@
         <v>0.03915339287714614</v>
       </c>
       <c r="I251">
-        <v>-0.05090211934447186</v>
+        <v>0.05134397936517601</v>
       </c>
       <c r="J251">
         <v>-0.05090211934447186</v>
       </c>
-    </row>
-    <row r="252" spans="1:10">
+      <c r="K251">
+        <v>-0.05090211934447186</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
       <c r="A252" s="2">
         <v>42736</v>
       </c>
@@ -8390,13 +9140,16 @@
         <v>0.04310931762496373</v>
       </c>
       <c r="I252">
-        <v>0.05384086773112773</v>
+        <v>0.05144109631447458</v>
       </c>
       <c r="J252">
         <v>0.05384086773112773</v>
       </c>
-    </row>
-    <row r="253" spans="1:10">
+      <c r="K252">
+        <v>0.05384086773112773</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
       <c r="A253" s="2">
         <v>42767</v>
       </c>
@@ -8413,7 +9166,7 @@
         <v>31.04000091552734</v>
       </c>
       <c r="F253">
-        <v>28.05573272705078</v>
+        <v>28.05573463439941</v>
       </c>
       <c r="G253">
         <v>616000</v>
@@ -8422,13 +9175,16 @@
         <v>0.01008790686328975</v>
       </c>
       <c r="I253">
-        <v>0.09565834800986384</v>
+        <v>0.05138041975826876</v>
       </c>
       <c r="J253">
         <v>0.09565834800986384</v>
       </c>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="K253">
+        <v>0.09565834800986384</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
       <c r="A254" s="2">
         <v>42795</v>
       </c>
@@ -8445,7 +9201,7 @@
         <v>31.97999954223633</v>
       </c>
       <c r="F254">
-        <v>28.90535736083984</v>
+        <v>28.90536117553711</v>
       </c>
       <c r="G254">
         <v>702500</v>
@@ -8454,13 +9210,16 @@
         <v>0.03028346001880311</v>
       </c>
       <c r="I254">
-        <v>0.07568113133683396</v>
+        <v>0.05140026760102933</v>
       </c>
       <c r="J254">
         <v>0.07568113133683396</v>
       </c>
-    </row>
-    <row r="255" spans="1:10">
+      <c r="K254">
+        <v>0.07568113133683396</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
       <c r="A255" s="2">
         <v>42826</v>
       </c>
@@ -8477,7 +9236,7 @@
         <v>33.2400016784668</v>
       </c>
       <c r="F255">
-        <v>30.04422187805176</v>
+        <v>30.04421806335449</v>
       </c>
       <c r="G255">
         <v>737500</v>
@@ -8486,13 +9245,16 @@
         <v>0.03939969212839944</v>
       </c>
       <c r="I255">
-        <v>0.08591966728761946</v>
+        <v>0.05117669190944143</v>
       </c>
       <c r="J255">
         <v>0.08591966728761946</v>
       </c>
-    </row>
-    <row r="256" spans="1:10">
+      <c r="K255">
+        <v>0.08591966728761946</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
       <c r="A256" s="2">
         <v>42856</v>
       </c>
@@ -8509,7 +9271,7 @@
         <v>34.93000030517578</v>
       </c>
       <c r="F256">
-        <v>31.57174110412598</v>
+        <v>31.57173538208008</v>
       </c>
       <c r="G256">
         <v>687400</v>
@@ -8518,13 +9280,16 @@
         <v>0.05084231472237799</v>
       </c>
       <c r="I256">
-        <v>0.143745882712677</v>
+        <v>0.05136133777928311</v>
       </c>
       <c r="J256">
         <v>0.143745882712677</v>
       </c>
-    </row>
-    <row r="257" spans="1:10">
+      <c r="K256">
+        <v>0.143745882712677</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11">
       <c r="A257" s="2">
         <v>42887</v>
       </c>
@@ -8541,7 +9306,7 @@
         <v>34.31000137329102</v>
       </c>
       <c r="F257">
-        <v>31.67066383361816</v>
+        <v>31.67066192626953</v>
       </c>
       <c r="G257">
         <v>779300</v>
@@ -8550,13 +9315,16 @@
         <v>-0.01774975455104411</v>
       </c>
       <c r="I257">
-        <v>0.157167008928</v>
+        <v>0.05132098114757248</v>
       </c>
       <c r="J257">
         <v>0.157167008928</v>
       </c>
-    </row>
-    <row r="258" spans="1:10">
+      <c r="K257">
+        <v>0.157167008928</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11">
       <c r="A258" s="2">
         <v>42917</v>
       </c>
@@ -8573,7 +9341,7 @@
         <v>34.47000122070312</v>
       </c>
       <c r="F258">
-        <v>31.8183536529541</v>
+        <v>31.81835174560547</v>
       </c>
       <c r="G258">
         <v>747900</v>
@@ -8582,13 +9350,16 @@
         <v>0.004663358816903607</v>
       </c>
       <c r="I258">
-        <v>0.141012984618726</v>
+        <v>0.05125752681416319</v>
       </c>
       <c r="J258">
         <v>0.141012984618726</v>
       </c>
-    </row>
-    <row r="259" spans="1:10">
+      <c r="K258">
+        <v>0.141012984618726</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11">
       <c r="A259" s="2">
         <v>42948</v>
       </c>
@@ -8605,7 +9376,7 @@
         <v>34.31000137329102</v>
       </c>
       <c r="F259">
-        <v>31.67066383361816</v>
+        <v>31.67066192626953</v>
       </c>
       <c r="G259">
         <v>378900</v>
@@ -8614,13 +9385,16 @@
         <v>-0.004641712844385193</v>
       </c>
       <c r="I259">
-        <v>0.1368456271157477</v>
+        <v>0.05125986928067299</v>
       </c>
       <c r="J259">
         <v>0.1368456271157477</v>
       </c>
-    </row>
-    <row r="260" spans="1:10">
+      <c r="K259">
+        <v>0.1368456271157477</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11">
       <c r="A260" s="2">
         <v>42979</v>
       </c>
@@ -8637,7 +9411,7 @@
         <v>35.02999877929688</v>
       </c>
       <c r="F260">
-        <v>32.33527374267578</v>
+        <v>32.33526992797852</v>
       </c>
       <c r="G260">
         <v>1039700</v>
@@ -8646,13 +9420,16 @@
         <v>0.02098505908444381</v>
       </c>
       <c r="I260">
-        <v>0.1466448331953341</v>
+        <v>0.05113524667147053</v>
       </c>
       <c r="J260">
         <v>0.1466448331953341</v>
       </c>
-    </row>
-    <row r="261" spans="1:10">
+      <c r="K260">
+        <v>0.1466448331953341</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11">
       <c r="A261" s="2">
         <v>43009</v>
       </c>
@@ -8669,7 +9446,7 @@
         <v>34.52999877929688</v>
       </c>
       <c r="F261">
-        <v>31.87373352050781</v>
+        <v>31.87373733520508</v>
       </c>
       <c r="G261">
         <v>709100</v>
@@ -8678,13 +9455,16 @@
         <v>-0.01427348037178655</v>
       </c>
       <c r="I261">
-        <v>0.1902791625944018</v>
+        <v>0.05112523241693299</v>
       </c>
       <c r="J261">
         <v>0.1902791625944018</v>
       </c>
-    </row>
-    <row r="262" spans="1:10">
+      <c r="K261">
+        <v>0.1902791625944018</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11">
       <c r="A262" s="2">
         <v>43040</v>
       </c>
@@ -8710,13 +9490,16 @@
         <v>0.01303216851572153</v>
       </c>
       <c r="I262">
-        <v>0.2338624011130572</v>
+        <v>0.05112452863669365</v>
       </c>
       <c r="J262">
         <v>0.2338624011130572</v>
       </c>
-    </row>
-    <row r="263" spans="1:10">
+      <c r="K262">
+        <v>0.2338624011130572</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
       <c r="A263" s="2">
         <v>43070</v>
       </c>
@@ -8742,13 +9525,16 @@
         <v>0.0171527243187608</v>
       </c>
       <c r="I263">
-        <v>0.2077394072224419</v>
+        <v>0.05090187329013326</v>
       </c>
       <c r="J263">
         <v>0.2077394072224419</v>
       </c>
-    </row>
-    <row r="264" spans="1:10">
+      <c r="K263">
+        <v>0.2077394072224419</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11">
       <c r="A264" s="2">
         <v>43101</v>
       </c>
@@ -8765,7 +9551,7 @@
         <v>37.16999816894531</v>
       </c>
       <c r="F264">
-        <v>34.31064605712891</v>
+        <v>34.31064987182617</v>
       </c>
       <c r="G264">
         <v>839900</v>
@@ -8774,13 +9560,16 @@
         <v>0.04468792175560976</v>
       </c>
       <c r="I264">
-        <v>0.2095671566105179</v>
+        <v>0.05088032672622777</v>
       </c>
       <c r="J264">
         <v>0.2095671566105179</v>
       </c>
-    </row>
-    <row r="265" spans="1:10">
+      <c r="K264">
+        <v>0.2095671566105179</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11">
       <c r="A265" s="2">
         <v>43132</v>
       </c>
@@ -8797,7 +9586,7 @@
         <v>34.91999816894531</v>
       </c>
       <c r="F265">
-        <v>32.23373413085938</v>
+        <v>32.23373794555664</v>
       </c>
       <c r="G265">
         <v>1290200</v>
@@ -8806,13 +9595,16 @@
         <v>-0.0605326906332706</v>
       </c>
       <c r="I265">
-        <v>0.1249999078278716</v>
+        <v>0.0512098488180026</v>
       </c>
       <c r="J265">
         <v>0.1249999078278716</v>
       </c>
-    </row>
-    <row r="266" spans="1:10">
+      <c r="K265">
+        <v>0.1249999078278716</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
       <c r="A266" s="2">
         <v>43160</v>
       </c>
@@ -8829,7 +9621,7 @@
         <v>34.36999893188477</v>
       </c>
       <c r="F266">
-        <v>31.72604370117188</v>
+        <v>31.72603988647461</v>
       </c>
       <c r="G266">
         <v>939100</v>
@@ -8838,13 +9630,16 @@
         <v>-0.01575026534651047</v>
       </c>
       <c r="I266">
-        <v>0.07473419086488531</v>
+        <v>0.05122551789841662</v>
       </c>
       <c r="J266">
         <v>0.07473419086488531</v>
       </c>
-    </row>
-    <row r="267" spans="1:10">
+      <c r="K266">
+        <v>0.07473419086488531</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11">
       <c r="A267" s="2">
         <v>43191</v>
       </c>
@@ -8861,7 +9656,7 @@
         <v>34.04000091552734</v>
       </c>
       <c r="F267">
-        <v>31.42143630981445</v>
+        <v>31.42143058776855</v>
       </c>
       <c r="G267">
         <v>484300</v>
@@ -8870,13 +9665,16 @@
         <v>-0.009601339150793087</v>
       </c>
       <c r="I267">
-        <v>0.02406736452058578</v>
+        <v>0.05123737242976865</v>
       </c>
       <c r="J267">
         <v>0.02406736452058578</v>
       </c>
-    </row>
-    <row r="268" spans="1:10">
+      <c r="K267">
+        <v>0.02406736452058578</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
       <c r="A268" s="2">
         <v>43221</v>
       </c>
@@ -8902,13 +9700,16 @@
         <v>-0.0226204593729149</v>
       </c>
       <c r="I268">
-        <v>-0.04752361388230897</v>
+        <v>0.05129335266828104</v>
       </c>
       <c r="J268">
         <v>-0.04752361388230897</v>
       </c>
-    </row>
-    <row r="269" spans="1:10">
+      <c r="K268">
+        <v>-0.04752361388230897</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
       <c r="A269" s="2">
         <v>43252</v>
       </c>
@@ -8934,13 +9735,16 @@
         <v>-0.02073936330674053</v>
       </c>
       <c r="I269">
-        <v>-0.05042260195253345</v>
+        <v>0.05074052972195449</v>
       </c>
       <c r="J269">
         <v>-0.05042260195253345</v>
       </c>
-    </row>
-    <row r="270" spans="1:10">
+      <c r="K269">
+        <v>-0.05042260195253345</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11">
       <c r="A270" s="2">
         <v>43282</v>
       </c>
@@ -8957,7 +9761,7 @@
         <v>34.70000076293945</v>
       </c>
       <c r="F270">
-        <v>32.8274040222168</v>
+        <v>32.82740020751953</v>
       </c>
       <c r="G270">
         <v>2446400</v>
@@ -8966,13 +9770,16 @@
         <v>0.06507055901586911</v>
       </c>
       <c r="I270">
-        <v>0.006672455297106028</v>
+        <v>0.05103858259350105</v>
       </c>
       <c r="J270">
         <v>0.006672455297106028</v>
       </c>
-    </row>
-    <row r="271" spans="1:10">
+      <c r="K270">
+        <v>0.006672455297106028</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11">
       <c r="A271" s="2">
         <v>43313</v>
       </c>
@@ -8998,13 +9805,16 @@
         <v>0.00201728222723796</v>
       </c>
       <c r="I271">
-        <v>0.0134071427006921</v>
+        <v>0.05092772061660626</v>
       </c>
       <c r="J271">
         <v>0.0134071427006921</v>
       </c>
-    </row>
-    <row r="272" spans="1:10">
+      <c r="K271">
+        <v>0.0134071427006921</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11">
       <c r="A272" s="2">
         <v>43344</v>
       </c>
@@ -9021,7 +9831,7 @@
         <v>34.68999862670898</v>
       </c>
       <c r="F272">
-        <v>32.81793975830078</v>
+        <v>32.81794357299805</v>
       </c>
       <c r="G272">
         <v>440100</v>
@@ -9030,13 +9840,16 @@
         <v>-0.002300886683963888</v>
       </c>
       <c r="I272">
-        <v>-0.009705971008735381</v>
+        <v>0.0503071507633382</v>
       </c>
       <c r="J272">
         <v>-0.009705971008735381</v>
       </c>
-    </row>
-    <row r="273" spans="1:10">
+      <c r="K272">
+        <v>-0.009705971008735381</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
       <c r="A273" s="2">
         <v>43374</v>
       </c>
@@ -9053,7 +9866,7 @@
         <v>33.09999847412109</v>
       </c>
       <c r="F273">
-        <v>31.31374549865723</v>
+        <v>31.31374359130859</v>
       </c>
       <c r="G273">
         <v>669000</v>
@@ -9062,13 +9875,16 @@
         <v>-0.04583454066105663</v>
       </c>
       <c r="I273">
-        <v>-0.04141327413058482</v>
+        <v>0.04905276012556924</v>
       </c>
       <c r="J273">
         <v>-0.04141327413058482</v>
       </c>
-    </row>
-    <row r="274" spans="1:10">
+      <c r="K273">
+        <v>-0.04141327413058482</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
       <c r="A274" s="2">
         <v>43405</v>
       </c>
@@ -9094,13 +9910,16 @@
         <v>0.003323281432703551</v>
       </c>
       <c r="I274">
-        <v>-0.05060035680179176</v>
+        <v>0.04819620528001731</v>
       </c>
       <c r="J274">
         <v>-0.05060035680179176</v>
       </c>
-    </row>
-    <row r="275" spans="1:10">
+      <c r="K274">
+        <v>-0.05060035680179176</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11">
       <c r="A275" s="2">
         <v>43435</v>
       </c>
@@ -9117,7 +9936,7 @@
         <v>31.52000045776367</v>
       </c>
       <c r="F275">
-        <v>29.81901168823242</v>
+        <v>29.81901359558105</v>
       </c>
       <c r="G275">
         <v>1464100</v>
@@ -9126,13 +9945,16 @@
         <v>-0.0508882467117906</v>
       </c>
       <c r="I275">
-        <v>-0.1141090827529805</v>
+        <v>0.04748490187670486</v>
       </c>
       <c r="J275">
         <v>-0.1141090827529805</v>
       </c>
-    </row>
-    <row r="276" spans="1:10">
+      <c r="K275">
+        <v>-0.1141090827529805</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
       <c r="A276" s="2">
         <v>43466</v>
       </c>
@@ -9149,7 +9971,7 @@
         <v>33.31999969482422</v>
       </c>
       <c r="F276">
-        <v>31.52187538146973</v>
+        <v>31.52187347412109</v>
       </c>
       <c r="G276">
         <v>1098700</v>
@@ -9158,13 +9980,16 @@
         <v>0.05710657395048324</v>
       </c>
       <c r="I276">
-        <v>-0.1035781184766826</v>
+        <v>0.04561548800510042</v>
       </c>
       <c r="J276">
         <v>-0.1035781184766826</v>
       </c>
-    </row>
-    <row r="277" spans="1:10">
+      <c r="K276">
+        <v>-0.1035781184766826</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
       <c r="A277" s="2">
         <v>43497</v>
       </c>
@@ -9190,13 +10015,16 @@
         <v>0.03751500634599858</v>
       </c>
       <c r="I277">
-        <v>-0.01002286633658389</v>
+        <v>0.04433050429214578</v>
       </c>
       <c r="J277">
         <v>-0.01002286633658389</v>
       </c>
-    </row>
-    <row r="278" spans="1:10">
+      <c r="K277">
+        <v>-0.01002286633658389</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
       <c r="A278" s="2">
         <v>43525</v>
       </c>
@@ -9213,7 +10041,7 @@
         <v>35.36999893188477</v>
       </c>
       <c r="F278">
-        <v>33.46124267578125</v>
+        <v>33.46124649047852</v>
       </c>
       <c r="G278">
         <v>718500</v>
@@ -9222,13 +10050,16 @@
         <v>0.02314143026099935</v>
       </c>
       <c r="I278">
-        <v>0.02909514201562313</v>
+        <v>0.04379355043525042</v>
       </c>
       <c r="J278">
         <v>0.02909514201562313</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="K278">
+        <v>0.02909514201562313</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
       <c r="A279" s="2">
         <v>43556</v>
       </c>
@@ -9245,7 +10076,7 @@
         <v>36.20000076293945</v>
       </c>
       <c r="F279">
-        <v>34.2464599609375</v>
+        <v>34.24645614624023</v>
       </c>
       <c r="G279">
         <v>1270800</v>
@@ -9254,13 +10085,16 @@
         <v>0.02346626678313157</v>
       </c>
       <c r="I279">
-        <v>0.06345475291767189</v>
+        <v>0.04350239582830993</v>
       </c>
       <c r="J279">
         <v>0.06345475291767189</v>
       </c>
-    </row>
-    <row r="280" spans="1:10">
+      <c r="K279">
+        <v>0.06345475291767189</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
       <c r="A280" s="2">
         <v>43586</v>
       </c>
@@ -9277,7 +10111,7 @@
         <v>35.95999908447266</v>
       </c>
       <c r="F280">
-        <v>34.01940536499023</v>
+        <v>34.01940155029297</v>
       </c>
       <c r="G280">
         <v>1004500</v>
@@ -9286,13 +10120,16 @@
         <v>-0.006629880480900519</v>
       </c>
       <c r="I280">
-        <v>0.08085357949194938</v>
+        <v>0.04232279935832912</v>
       </c>
       <c r="J280">
         <v>0.08085357949194938</v>
       </c>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="K280">
+        <v>0.08085357949194938</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
       <c r="A281" s="2">
         <v>43617</v>
       </c>
@@ -9318,13 +10155,16 @@
         <v>0.04449394687301966</v>
       </c>
       <c r="I281">
-        <v>0.1528544893293862</v>
+        <v>0.04237335041086171</v>
       </c>
       <c r="J281">
         <v>0.1528544893293862</v>
       </c>
-    </row>
-    <row r="282" spans="1:10">
+      <c r="K281">
+        <v>0.1528544893293862</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
       <c r="A282" s="2">
         <v>43647</v>
       </c>
@@ -9350,13 +10190,16 @@
         <v>-0.01038347151454144</v>
       </c>
       <c r="I282">
-        <v>0.07118147987604329</v>
+        <v>0.04143320253116933</v>
       </c>
       <c r="J282">
         <v>0.07118147987604329</v>
       </c>
-    </row>
-    <row r="283" spans="1:10">
+      <c r="K282">
+        <v>0.07118147987604329</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
       <c r="A283" s="2">
         <v>43678</v>
       </c>
@@ -9382,13 +10225,16 @@
         <v>0.008071107520485565</v>
       </c>
       <c r="I283">
-        <v>0.07765317018673157</v>
+        <v>0.04111628892101805</v>
       </c>
       <c r="J283">
         <v>0.07765317018673157</v>
       </c>
-    </row>
-    <row r="284" spans="1:10">
+      <c r="K283">
+        <v>0.07765317018673157</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
       <c r="A284" s="2">
         <v>43709</v>
       </c>
@@ -9414,13 +10260,16 @@
         <v>0.006138231511699122</v>
       </c>
       <c r="I284">
-        <v>0.08676858620319949</v>
+        <v>0.04095552924450179</v>
       </c>
       <c r="J284">
         <v>0.08676858620319949</v>
       </c>
-    </row>
-    <row r="285" spans="1:10">
+      <c r="K284">
+        <v>0.08676858620319949</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
       <c r="A285" s="2">
         <v>43739</v>
       </c>
@@ -9437,7 +10286,7 @@
         <v>38.58000183105469</v>
       </c>
       <c r="F285">
-        <v>37.24715805053711</v>
+        <v>37.24715423583984</v>
       </c>
       <c r="G285">
         <v>438300</v>
@@ -9446,13 +10295,16 @@
         <v>0.02334220292590317</v>
       </c>
       <c r="I285">
-        <v>0.1655590214367557</v>
+        <v>0.04094141661917272</v>
       </c>
       <c r="J285">
         <v>0.1655590214367557</v>
       </c>
-    </row>
-    <row r="286" spans="1:10">
+      <c r="K285">
+        <v>0.1655590214367557</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
       <c r="A286" s="2">
         <v>43770</v>
       </c>
@@ -9469,7 +10321,7 @@
         <v>38.90000152587891</v>
       </c>
       <c r="F286">
-        <v>37.55610275268555</v>
+        <v>37.55609893798828</v>
       </c>
       <c r="G286">
         <v>399500</v>
@@ -9478,13 +10330,16 @@
         <v>0.00829444478062813</v>
       </c>
       <c r="I286">
-        <v>0.1713340137990733</v>
+        <v>0.0408642023772447</v>
       </c>
       <c r="J286">
         <v>0.1713340137990733</v>
       </c>
-    </row>
-    <row r="287" spans="1:10">
+      <c r="K286">
+        <v>0.1713340137990733</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
       <c r="A287" s="2">
         <v>43800</v>
       </c>
@@ -9501,7 +10356,7 @@
         <v>40.63999938964844</v>
       </c>
       <c r="F287">
-        <v>39.23598480224609</v>
+        <v>39.23598861694336</v>
       </c>
       <c r="G287">
         <v>558500</v>
@@ -9510,13 +10365,16 @@
         <v>0.04473002045030694</v>
       </c>
       <c r="I287">
-        <v>0.2893400634338641</v>
+        <v>0.04101999828556886</v>
       </c>
       <c r="J287">
         <v>0.2893400634338641</v>
       </c>
-    </row>
-    <row r="288" spans="1:10">
+      <c r="K287">
+        <v>0.2893400634338641</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
       <c r="A288" s="2">
         <v>43831</v>
       </c>
@@ -9542,13 +10400,16 @@
         <v>0.002460686277565127</v>
       </c>
       <c r="I288">
-        <v>0.2226891372029385</v>
+        <v>0.04076816480083254</v>
       </c>
       <c r="J288">
         <v>0.2226891372029385</v>
       </c>
-    </row>
-    <row r="289" spans="1:10">
+      <c r="K288">
+        <v>0.2226891372029385</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
       <c r="A289" s="2">
         <v>43862</v>
       </c>
@@ -9565,7 +10426,7 @@
         <v>37.88000106811523</v>
       </c>
       <c r="F289">
-        <v>36.57133865356445</v>
+        <v>36.57134246826172</v>
       </c>
       <c r="G289">
         <v>4700500</v>
@@ -9574,13 +10435,16 @@
         <v>-0.07020128847621576</v>
       </c>
       <c r="I289">
-        <v>0.09574779874199946</v>
+        <v>0.04130916586294158</v>
       </c>
       <c r="J289">
         <v>0.09574779874199946</v>
       </c>
-    </row>
-    <row r="290" spans="1:10">
+      <c r="K289">
+        <v>0.09574779874199946</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
       <c r="A290" s="2">
         <v>43891</v>
       </c>
@@ -9597,7 +10461,7 @@
         <v>35.36000061035156</v>
       </c>
       <c r="F290">
-        <v>34.13840103149414</v>
+        <v>34.13839721679688</v>
       </c>
       <c r="G290">
         <v>781300</v>
@@ -9606,13 +10470,16 @@
         <v>-0.06652588138084381</v>
       </c>
       <c r="I290">
-        <v>-0.0002826780275695384</v>
+        <v>0.04156980293079284</v>
       </c>
       <c r="J290">
         <v>-0.0002826780275695384</v>
       </c>
-    </row>
-    <row r="291" spans="1:10">
+      <c r="K290">
+        <v>-0.0002826780275695384</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
       <c r="A291" s="2">
         <v>43922</v>
       </c>
@@ -9638,13 +10505,16 @@
         <v>0.04298643754317966</v>
       </c>
       <c r="I291">
-        <v>0.01878453842111361</v>
+        <v>0.04140098167942514</v>
       </c>
       <c r="J291">
         <v>0.01878453842111361</v>
       </c>
-    </row>
-    <row r="292" spans="1:10">
+      <c r="K291">
+        <v>0.01878453842111361</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
       <c r="A292" s="2">
         <v>43952</v>
       </c>
@@ -9670,13 +10540,16 @@
         <v>0.03877441062256626</v>
       </c>
       <c r="I292">
-        <v>0.0653504546342738</v>
+        <v>0.04020821229758335</v>
       </c>
       <c r="J292">
         <v>0.0653504546342738</v>
       </c>
-    </row>
-    <row r="293" spans="1:10">
+      <c r="K292">
+        <v>0.0653504546342738</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
       <c r="A293" s="2">
         <v>43983</v>
       </c>
@@ -9702,13 +10575,16 @@
         <v>0.01696678903370663</v>
       </c>
       <c r="I293">
-        <v>0.0372736331201835</v>
+        <v>0.04019778762399073</v>
       </c>
       <c r="J293">
         <v>0.0372736331201835</v>
       </c>
-    </row>
-    <row r="294" spans="1:10">
+      <c r="K293">
+        <v>0.0372736331201835</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
       <c r="A294" s="2">
         <v>44013</v>
       </c>
@@ -9734,13 +10610,16 @@
         <v>0.04029773438700968</v>
       </c>
       <c r="I294">
-        <v>0.09039550109956074</v>
+        <v>0.03999924278775067</v>
       </c>
       <c r="J294">
         <v>0.09039550109956074</v>
       </c>
-    </row>
-    <row r="295" spans="1:10">
+      <c r="K294">
+        <v>0.09039550109956074</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
       <c r="A295" s="2">
         <v>44044</v>
       </c>
@@ -9766,13 +10645,16 @@
         <v>0.02960771771728821</v>
       </c>
       <c r="I295">
-        <v>0.1136909042634204</v>
+        <v>0.04004547252536496</v>
       </c>
       <c r="J295">
         <v>0.1136909042634204</v>
       </c>
-    </row>
-    <row r="296" spans="1:10">
+      <c r="K295">
+        <v>0.1136909042634204</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
       <c r="A296" s="2">
         <v>44075</v>
       </c>
@@ -9798,13 +10680,16 @@
         <v>-0.01581595625813759</v>
       </c>
       <c r="I296">
-        <v>0.08938989028344002</v>
+        <v>0.03981168201839264</v>
       </c>
       <c r="J296">
         <v>0.08938989028344002</v>
       </c>
-    </row>
-    <row r="297" spans="1:10">
+      <c r="K296">
+        <v>0.08938989028344002</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
       <c r="A297" s="2">
         <v>44105</v>
       </c>
@@ -9830,13 +10715,16 @@
         <v>-0.05210614574019901</v>
       </c>
       <c r="I297">
-        <v>0.009072018079568034</v>
+        <v>0.04009152454092575</v>
       </c>
       <c r="J297">
         <v>0.009072018079568034</v>
       </c>
-    </row>
-    <row r="298" spans="1:10">
+      <c r="K297">
+        <v>0.009072018079568034</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
       <c r="A298" s="2">
         <v>44136</v>
       </c>
@@ -9862,13 +10750,16 @@
         <v>0.09247363077062376</v>
       </c>
       <c r="I298">
-        <v>0.09331612110614063</v>
+        <v>0.04071126569824306</v>
       </c>
       <c r="J298">
         <v>0.09331612110614063</v>
       </c>
-    </row>
-    <row r="299" spans="1:10">
+      <c r="K298">
+        <v>0.09331612110614063</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
       <c r="A299" s="2">
         <v>44166</v>
       </c>
@@ -9894,13 +10785,16 @@
         <v>0.05055258846904787</v>
       </c>
       <c r="I299">
-        <v>0.09940947283961798</v>
+        <v>0.03990799324337216</v>
       </c>
       <c r="J299">
         <v>0.09940947283961798</v>
       </c>
-    </row>
-    <row r="300" spans="1:10">
+      <c r="K299">
+        <v>0.09940947283961798</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
       <c r="A300" s="2">
         <v>44197</v>
       </c>
@@ -9926,13 +10820,16 @@
         <v>-0.01454793020231049</v>
       </c>
       <c r="I300">
-        <v>0.08075593925586433</v>
+        <v>0.03991524949274516</v>
       </c>
       <c r="J300">
         <v>0.08075593925586433</v>
       </c>
-    </row>
-    <row r="301" spans="1:10">
+      <c r="K300">
+        <v>0.08075593925586433</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
       <c r="A301" s="2">
         <v>44228</v>
       </c>
@@ -9958,13 +10855,16 @@
         <v>-0.0181694131101523</v>
       </c>
       <c r="I301">
-        <v>0.1412354362002475</v>
+        <v>0.03986172724690724</v>
       </c>
       <c r="J301">
         <v>0.1412354362002475</v>
       </c>
-    </row>
-    <row r="302" spans="1:10">
+      <c r="K301">
+        <v>0.1412354362002475</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
       <c r="A302" s="2">
         <v>44256</v>
       </c>
@@ -9990,13 +10890,16 @@
         <v>0.02266943216779027</v>
       </c>
       <c r="I302">
-        <v>0.2502827579570313</v>
+        <v>0.0398459232832888</v>
       </c>
       <c r="J302">
         <v>0.2502827579570313</v>
       </c>
-    </row>
-    <row r="303" spans="1:10">
+      <c r="K302">
+        <v>0.2502827579570313</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
       <c r="A303" s="2">
         <v>44287</v>
       </c>
@@ -10022,13 +10925,16 @@
         <v>0.0470482215364989</v>
       </c>
       <c r="I303">
-        <v>0.2551518322906874</v>
+        <v>0.03905071176538187</v>
       </c>
       <c r="J303">
         <v>0.2551518322906874</v>
       </c>
-    </row>
-    <row r="304" spans="1:10">
+      <c r="K303">
+        <v>0.2551518322906874</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
       <c r="A304" s="2">
         <v>44317</v>
       </c>
@@ -10054,13 +10960,16 @@
         <v>0.05271113800929994</v>
       </c>
       <c r="I304">
-        <v>0.2719915895437668</v>
+        <v>0.03927480486649697</v>
       </c>
       <c r="J304">
         <v>0.2719915895437668</v>
       </c>
-    </row>
-    <row r="305" spans="1:10">
+      <c r="K304">
+        <v>0.2719915895437668</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
       <c r="A305" s="2">
         <v>44348</v>
       </c>
@@ -10086,13 +10995,16 @@
         <v>-0.002052092654637128</v>
       </c>
       <c r="I305">
-        <v>0.2482033421683656</v>
+        <v>0.03879420566455782</v>
       </c>
       <c r="J305">
         <v>0.2482033421683656</v>
       </c>
-    </row>
-    <row r="306" spans="1:10">
+      <c r="K305">
+        <v>0.2482033421683656</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
       <c r="A306" s="2">
         <v>44378</v>
       </c>
@@ -10118,13 +11030,16 @@
         <v>0.03310714733681497</v>
       </c>
       <c r="I306">
-        <v>0.2395757017424309</v>
+        <v>0.03884306739401395</v>
       </c>
       <c r="J306">
         <v>0.2395757017424309</v>
       </c>
-    </row>
-    <row r="307" spans="1:10">
+      <c r="K306">
+        <v>0.2395757017424309</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11">
       <c r="A307" s="2">
         <v>44409</v>
       </c>
@@ -10150,13 +11065,16 @@
         <v>0.01194264438845072</v>
       </c>
       <c r="I307">
-        <v>0.2183081886001705</v>
+        <v>0.03832547410452228</v>
       </c>
       <c r="J307">
         <v>0.2183081886001705</v>
       </c>
-    </row>
-    <row r="308" spans="1:10">
+      <c r="K307">
+        <v>0.2183081886001705</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11">
       <c r="A308" s="2">
         <v>44440</v>
       </c>
@@ -10182,13 +11100,16 @@
         <v>-0.08379225626962072</v>
       </c>
       <c r="I308">
-        <v>0.1341612412265214</v>
+        <v>0.03739369329984922</v>
       </c>
       <c r="J308">
         <v>0.1341612412265214</v>
       </c>
-    </row>
-    <row r="309" spans="1:10">
+      <c r="K308">
+        <v>0.1341612412265214</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11">
       <c r="A309" s="2">
         <v>44470</v>
       </c>
@@ -10214,13 +11135,16 @@
         <v>0.06977243177850712</v>
       </c>
       <c r="I309">
-        <v>0.279989762148287</v>
+        <v>0.03715306645440453</v>
       </c>
       <c r="J309">
         <v>0.279989762148287</v>
       </c>
-    </row>
-    <row r="310" spans="1:10">
+      <c r="K309">
+        <v>0.279989762148287</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11">
       <c r="A310" s="2">
         <v>44501</v>
       </c>
@@ -10246,42 +11170,83 @@
         <v>-0.009030719373945617</v>
       </c>
       <c r="I310">
-        <v>0.1610628376540857</v>
+        <v>0.0368310273031309</v>
       </c>
       <c r="J310">
         <v>0.1610628376540857</v>
       </c>
-    </row>
-    <row r="311" spans="1:10">
+      <c r="K310">
+        <v>0.1610628376540857</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11">
       <c r="A311" s="2">
         <v>44531</v>
       </c>
       <c r="B311">
-        <v>52.90999984741211</v>
+        <v>52.79000091552734</v>
       </c>
       <c r="C311">
-        <v>53.0099983215332</v>
+        <v>52.95999908447266</v>
       </c>
       <c r="D311">
+        <v>52.65000152587891</v>
+      </c>
+      <c r="E311">
         <v>52.72999954223633</v>
       </c>
-      <c r="E311">
+      <c r="F311">
+        <v>52.72999954223633</v>
+      </c>
+      <c r="G311">
+        <v>1214300</v>
+      </c>
+      <c r="H311">
+        <v>0.06784119889953177</v>
+      </c>
+      <c r="I311">
+        <v>0.03724170661372753</v>
+      </c>
+      <c r="J311">
+        <v>0.1801700801718218</v>
+      </c>
+      <c r="K311">
+        <v>0.1801700801718218</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11">
+      <c r="A312" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B312">
+        <v>52.91999816894531</v>
+      </c>
+      <c r="C312">
+        <v>52.91999816894531</v>
+      </c>
+      <c r="D312">
+        <v>52.58000183105469</v>
+      </c>
+      <c r="E312">
         <v>52.79999923706055</v>
       </c>
-      <c r="F311">
+      <c r="F312">
         <v>52.79999923706055</v>
       </c>
-      <c r="G311">
-        <v>1023836</v>
-      </c>
-      <c r="H311">
-        <v>0.06925877065550767</v>
-      </c>
-      <c r="I311">
-        <v>0.1817367698393713</v>
-      </c>
-      <c r="J311">
-        <v>0.1817367698393713</v>
+      <c r="G312">
+        <v>1322356</v>
+      </c>
+      <c r="H312">
+        <v>0.001327511766203493</v>
+      </c>
+      <c r="I312">
+        <v>0.03718492161875623</v>
+      </c>
+      <c r="J312">
+        <v>0.1991823915717974</v>
+      </c>
+      <c r="K312">
+        <v>0.1991823915717974</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/EWL.xlsx
+++ b/etf_dfs/EWL.xlsx
@@ -508,7 +508,7 @@
         <v>12.4375</v>
       </c>
       <c r="F2" t="n">
-        <v>7.230310440063477</v>
+        <v>7.230307579040527</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>12.1875</v>
       </c>
       <c r="F3" t="n">
-        <v>7.084976196289062</v>
+        <v>7.084977626800537</v>
       </c>
       <c r="G3" t="n">
         <v>1100</v>
@@ -595,7 +595,7 @@
         <v>12.375</v>
       </c>
       <c r="F5" t="n">
-        <v>7.193973064422607</v>
+        <v>7.193978786468506</v>
       </c>
       <c r="G5" t="n">
         <v>500</v>
@@ -626,7 +626,7 @@
         <v>12.0625</v>
       </c>
       <c r="F6" t="n">
-        <v>7.012310028076172</v>
+        <v>7.012308120727539</v>
       </c>
       <c r="G6" t="n">
         <v>13200</v>
@@ -657,7 +657,7 @@
         <v>12.1875</v>
       </c>
       <c r="F7" t="n">
-        <v>7.138962268829346</v>
+        <v>7.138963222503662</v>
       </c>
       <c r="G7" t="n">
         <v>20000</v>
@@ -688,7 +688,7 @@
         <v>11.9375</v>
       </c>
       <c r="F8" t="n">
-        <v>6.992521286010742</v>
+        <v>6.992520809173584</v>
       </c>
       <c r="G8" t="n">
         <v>6700</v>
@@ -719,7 +719,7 @@
         <v>11.8125</v>
       </c>
       <c r="F9" t="n">
-        <v>6.919300079345703</v>
+        <v>6.919298648834229</v>
       </c>
       <c r="G9" t="n">
         <v>500</v>
@@ -750,7 +750,7 @@
         <v>12.1875</v>
       </c>
       <c r="F10" t="n">
-        <v>7.138962268829346</v>
+        <v>7.138963222503662</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="n">
-        <v>7.029133319854736</v>
+        <v>7.029130458831787</v>
       </c>
       <c r="G11" t="n">
         <v>6600</v>
@@ -812,7 +812,7 @@
         <v>12.375</v>
       </c>
       <c r="F12" t="n">
-        <v>7.24878978729248</v>
+        <v>7.248794555664062</v>
       </c>
       <c r="G12" t="n">
         <v>20200</v>
@@ -843,7 +843,7 @@
         <v>12.3125</v>
       </c>
       <c r="F13" t="n">
-        <v>7.21218204498291</v>
+        <v>7.212181568145752</v>
       </c>
       <c r="G13" t="n">
         <v>8300</v>
@@ -874,7 +874,7 @@
         <v>12.5</v>
       </c>
       <c r="F14" t="n">
-        <v>7.322013854980469</v>
+        <v>7.322012424468994</v>
       </c>
       <c r="G14" t="n">
         <v>9700</v>
@@ -909,7 +909,7 @@
         <v>13.3125</v>
       </c>
       <c r="F15" t="n">
-        <v>7.797943115234375</v>
+        <v>7.79794454574585</v>
       </c>
       <c r="G15" t="n">
         <v>94600</v>
@@ -944,7 +944,7 @@
         <v>14.4375</v>
       </c>
       <c r="F16" t="n">
-        <v>8.456925392150879</v>
+        <v>8.45692253112793</v>
       </c>
       <c r="G16" t="n">
         <v>3800</v>
@@ -979,7 +979,7 @@
         <v>15.5</v>
       </c>
       <c r="F17" t="n">
-        <v>9.079296112060547</v>
+        <v>9.079294204711914</v>
       </c>
       <c r="G17" t="n">
         <v>3600</v>
@@ -1014,7 +1014,7 @@
         <v>15.875</v>
       </c>
       <c r="F18" t="n">
-        <v>9.298956871032715</v>
+        <v>9.298955917358398</v>
       </c>
       <c r="G18" t="n">
         <v>2500</v>
@@ -1049,7 +1049,7 @@
         <v>13.9375</v>
       </c>
       <c r="F19" t="n">
-        <v>8.489348411560059</v>
+        <v>8.489349365234375</v>
       </c>
       <c r="G19" t="n">
         <v>2600</v>
@@ -1084,7 +1084,7 @@
         <v>15</v>
       </c>
       <c r="F20" t="n">
-        <v>9.136519432067871</v>
+        <v>9.136518478393555</v>
       </c>
       <c r="G20" t="n">
         <v>1800</v>
@@ -1154,7 +1154,7 @@
         <v>14.875</v>
       </c>
       <c r="F22" t="n">
-        <v>9.060383796691895</v>
+        <v>9.060384750366211</v>
       </c>
       <c r="G22" t="n">
         <v>100</v>
@@ -1189,7 +1189,7 @@
         <v>15.4375</v>
       </c>
       <c r="F23" t="n">
-        <v>9.418699264526367</v>
+        <v>9.418700218200684</v>
       </c>
       <c r="G23" t="n">
         <v>500</v>
@@ -1224,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="F24" t="n">
-        <v>9.76188850402832</v>
+        <v>9.761889457702637</v>
       </c>
       <c r="G24" t="n">
         <v>6500</v>
@@ -1259,7 +1259,7 @@
         <v>17.4375</v>
       </c>
       <c r="F25" t="n">
-        <v>10.63893604278564</v>
+        <v>10.63893413543701</v>
       </c>
       <c r="G25" t="n">
         <v>4700</v>
@@ -1294,7 +1294,7 @@
         <v>18.3125</v>
       </c>
       <c r="F26" t="n">
-        <v>11.17278957366943</v>
+        <v>11.17279052734375</v>
       </c>
       <c r="G26" t="n">
         <v>3400</v>
@@ -1329,7 +1329,7 @@
         <v>18.25</v>
       </c>
       <c r="F27" t="n">
-        <v>11.13465690612793</v>
+        <v>11.13465595245361</v>
       </c>
       <c r="G27" t="n">
         <v>31500</v>
@@ -1364,7 +1364,7 @@
         <v>19.375</v>
       </c>
       <c r="F28" t="n">
-        <v>11.8210391998291</v>
+        <v>11.82103824615479</v>
       </c>
       <c r="G28" t="n">
         <v>1300</v>
@@ -1399,7 +1399,7 @@
         <v>18.875</v>
       </c>
       <c r="F29" t="n">
-        <v>11.51597881317139</v>
+        <v>11.51598167419434</v>
       </c>
       <c r="G29" t="n">
         <v>14000</v>
@@ -1434,7 +1434,7 @@
         <v>19.8125</v>
       </c>
       <c r="F30" t="n">
-        <v>12.08796882629395</v>
+        <v>12.08796787261963</v>
       </c>
       <c r="G30" t="n">
         <v>3300</v>
@@ -1469,7 +1469,7 @@
         <v>15</v>
       </c>
       <c r="F31" t="n">
-        <v>9.853934288024902</v>
+        <v>9.853936195373535</v>
       </c>
       <c r="G31" t="n">
         <v>31700</v>
@@ -1504,7 +1504,7 @@
         <v>13.75</v>
       </c>
       <c r="F32" t="n">
-        <v>9.032774925231934</v>
+        <v>9.032773017883301</v>
       </c>
       <c r="G32" t="n">
         <v>6300</v>
@@ -1609,7 +1609,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>11.54518604278564</v>
+        <v>11.5451831817627</v>
       </c>
       <c r="G35" t="n">
         <v>13300</v>
@@ -1679,7 +1679,7 @@
         <v>16.25</v>
       </c>
       <c r="F37" t="n">
-        <v>11.03583908081055</v>
+        <v>11.03583717346191</v>
       </c>
       <c r="G37" t="n">
         <v>2000</v>
@@ -1714,7 +1714,7 @@
         <v>15.8125</v>
       </c>
       <c r="F38" t="n">
-        <v>10.73871994018555</v>
+        <v>10.73871898651123</v>
       </c>
       <c r="G38" t="n">
         <v>31500</v>
@@ -1749,7 +1749,7 @@
         <v>16.25</v>
       </c>
       <c r="F39" t="n">
-        <v>11.03583908081055</v>
+        <v>11.03583717346191</v>
       </c>
       <c r="G39" t="n">
         <v>6400</v>
@@ -1784,7 +1784,7 @@
         <v>15.4375</v>
       </c>
       <c r="F40" t="n">
-        <v>10.48404598236084</v>
+        <v>10.48404884338379</v>
       </c>
       <c r="G40" t="n">
         <v>3300</v>
@@ -1819,7 +1819,7 @@
         <v>15.8125</v>
       </c>
       <c r="F41" t="n">
-        <v>10.73871994018555</v>
+        <v>10.73871898651123</v>
       </c>
       <c r="G41" t="n">
         <v>81100</v>
@@ -1854,7 +1854,7 @@
         <v>15.75</v>
       </c>
       <c r="F42" t="n">
-        <v>10.69627285003662</v>
+        <v>10.69627475738525</v>
       </c>
       <c r="G42" t="n">
         <v>3800</v>
@@ -1889,7 +1889,7 @@
         <v>15.3125</v>
       </c>
       <c r="F43" t="n">
-        <v>10.65965175628662</v>
+        <v>10.65964984893799</v>
       </c>
       <c r="G43" t="n">
         <v>14900</v>
@@ -1924,7 +1924,7 @@
         <v>15.6875</v>
       </c>
       <c r="F44" t="n">
-        <v>10.92070293426514</v>
+        <v>10.92070388793945</v>
       </c>
       <c r="G44" t="n">
         <v>4100</v>
@@ -1959,7 +1959,7 @@
         <v>15.8125</v>
       </c>
       <c r="F45" t="n">
-        <v>11.00772094726562</v>
+        <v>11.00772190093994</v>
       </c>
       <c r="G45" t="n">
         <v>74400</v>
@@ -1994,7 +1994,7 @@
         <v>15.75</v>
       </c>
       <c r="F46" t="n">
-        <v>10.96421241760254</v>
+        <v>10.9642162322998</v>
       </c>
       <c r="G46" t="n">
         <v>3000</v>
@@ -2029,7 +2029,7 @@
         <v>16</v>
       </c>
       <c r="F47" t="n">
-        <v>11.13824558258057</v>
+        <v>11.13824653625488</v>
       </c>
       <c r="G47" t="n">
         <v>1400</v>
@@ -2064,7 +2064,7 @@
         <v>14.25</v>
       </c>
       <c r="F48" t="n">
-        <v>9.920000076293945</v>
+        <v>9.919999122619629</v>
       </c>
       <c r="G48" t="n">
         <v>5500</v>
@@ -2099,7 +2099,7 @@
         <v>14.4375</v>
       </c>
       <c r="F49" t="n">
-        <v>10.0505256652832</v>
+        <v>10.05052757263184</v>
       </c>
       <c r="G49" t="n">
         <v>49200</v>
@@ -2134,7 +2134,7 @@
         <v>15.5</v>
       </c>
       <c r="F50" t="n">
-        <v>10.79017639160156</v>
+        <v>10.79017448425293</v>
       </c>
       <c r="G50" t="n">
         <v>18200</v>
@@ -2169,7 +2169,7 @@
         <v>14.875</v>
       </c>
       <c r="F51" t="n">
-        <v>10.35509204864502</v>
+        <v>10.35508918762207</v>
       </c>
       <c r="G51" t="n">
         <v>3900</v>
@@ -2204,7 +2204,7 @@
         <v>15.75</v>
       </c>
       <c r="F52" t="n">
-        <v>10.96421241760254</v>
+        <v>10.9642162322998</v>
       </c>
       <c r="G52" t="n">
         <v>22500</v>
@@ -2239,7 +2239,7 @@
         <v>15.9375</v>
       </c>
       <c r="F53" t="n">
-        <v>11.0947380065918</v>
+        <v>11.09473705291748</v>
       </c>
       <c r="G53" t="n">
         <v>7800</v>
@@ -2274,7 +2274,7 @@
         <v>16</v>
       </c>
       <c r="F54" t="n">
-        <v>11.13824558258057</v>
+        <v>11.13824653625488</v>
       </c>
       <c r="G54" t="n">
         <v>700</v>
@@ -2309,7 +2309,7 @@
         <v>15.8125</v>
       </c>
       <c r="F55" t="n">
-        <v>11.11595058441162</v>
+        <v>11.11595153808594</v>
       </c>
       <c r="G55" t="n">
         <v>2400</v>
@@ -2344,7 +2344,7 @@
         <v>15</v>
       </c>
       <c r="F56" t="n">
-        <v>10.54477405548096</v>
+        <v>10.54477596282959</v>
       </c>
       <c r="G56" t="n">
         <v>6700</v>
@@ -2379,7 +2379,7 @@
         <v>15.3125</v>
       </c>
       <c r="F57" t="n">
-        <v>10.76445770263672</v>
+        <v>10.7644567489624</v>
       </c>
       <c r="G57" t="n">
         <v>49100</v>
@@ -2414,7 +2414,7 @@
         <v>15.1875</v>
       </c>
       <c r="F58" t="n">
-        <v>10.67658519744873</v>
+        <v>10.67658233642578</v>
       </c>
       <c r="G58" t="n">
         <v>22800</v>
@@ -2449,7 +2449,7 @@
         <v>16.8125</v>
       </c>
       <c r="F59" t="n">
-        <v>11.9407205581665</v>
+        <v>11.94072246551514</v>
       </c>
       <c r="G59" t="n">
         <v>49700</v>
@@ -2484,7 +2484,7 @@
         <v>16.39999961853027</v>
       </c>
       <c r="F60" t="n">
-        <v>11.64775276184082</v>
+        <v>11.6477518081665</v>
       </c>
       <c r="G60" t="n">
         <v>14100</v>
@@ -2519,7 +2519,7 @@
         <v>15.64999961853027</v>
       </c>
       <c r="F61" t="n">
-        <v>11.11507987976074</v>
+        <v>11.11507892608643</v>
       </c>
       <c r="G61" t="n">
         <v>39400</v>
@@ -2554,7 +2554,7 @@
         <v>14.05000019073486</v>
       </c>
       <c r="F62" t="n">
-        <v>9.978713989257812</v>
+        <v>9.97871208190918</v>
       </c>
       <c r="G62" t="n">
         <v>9000</v>
@@ -2589,7 +2589,7 @@
         <v>14.19999980926514</v>
       </c>
       <c r="F63" t="n">
-        <v>10.08524608612061</v>
+        <v>10.08524799346924</v>
       </c>
       <c r="G63" t="n">
         <v>5800</v>
@@ -2624,7 +2624,7 @@
         <v>14</v>
       </c>
       <c r="F64" t="n">
-        <v>9.943205833435059</v>
+        <v>9.943203926086426</v>
       </c>
       <c r="G64" t="n">
         <v>10100</v>
@@ -2659,7 +2659,7 @@
         <v>13.44999980926514</v>
       </c>
       <c r="F65" t="n">
-        <v>9.552577018737793</v>
+        <v>9.552577972412109</v>
       </c>
       <c r="G65" t="n">
         <v>111400</v>
@@ -2694,7 +2694,7 @@
         <v>13.10000038146973</v>
       </c>
       <c r="F66" t="n">
-        <v>9.303997039794922</v>
+        <v>9.303997993469238</v>
       </c>
       <c r="G66" t="n">
         <v>52200</v>
@@ -2729,7 +2729,7 @@
         <v>13.05000019073486</v>
       </c>
       <c r="F67" t="n">
-        <v>9.33568000793457</v>
+        <v>9.335680961608887</v>
       </c>
       <c r="G67" t="n">
         <v>3500</v>
@@ -2764,7 +2764,7 @@
         <v>12.05000019073486</v>
       </c>
       <c r="F68" t="n">
-        <v>8.620302200317383</v>
+        <v>8.620303153991699</v>
       </c>
       <c r="G68" t="n">
         <v>13600</v>
@@ -2799,7 +2799,7 @@
         <v>12.23999977111816</v>
       </c>
       <c r="F69" t="n">
-        <v>8.756222724914551</v>
+        <v>8.756219863891602</v>
       </c>
       <c r="G69" t="n">
         <v>6500</v>
@@ -2834,7 +2834,7 @@
         <v>12.44999980926514</v>
       </c>
       <c r="F70" t="n">
-        <v>8.906452178955078</v>
+        <v>8.906454086303711</v>
       </c>
       <c r="G70" t="n">
         <v>132300</v>
@@ -2869,7 +2869,7 @@
         <v>12.53999996185303</v>
       </c>
       <c r="F71" t="n">
-        <v>8.97446346282959</v>
+        <v>8.974465370178223</v>
       </c>
       <c r="G71" t="n">
         <v>27500</v>
@@ -2904,7 +2904,7 @@
         <v>11.92000007629395</v>
       </c>
       <c r="F72" t="n">
-        <v>8.530749320983887</v>
+        <v>8.53075122833252</v>
       </c>
       <c r="G72" t="n">
         <v>3100</v>
@@ -2939,7 +2939,7 @@
         <v>12.23999977111816</v>
       </c>
       <c r="F73" t="n">
-        <v>8.759763717651367</v>
+        <v>8.759760856628418</v>
       </c>
       <c r="G73" t="n">
         <v>1600</v>
@@ -3009,7 +3009,7 @@
         <v>13.43000030517578</v>
       </c>
       <c r="F75" t="n">
-        <v>9.611409187316895</v>
+        <v>9.611405372619629</v>
       </c>
       <c r="G75" t="n">
         <v>2400</v>
@@ -3044,7 +3044,7 @@
         <v>14.03999996185303</v>
       </c>
       <c r="F76" t="n">
-        <v>10.04796409606934</v>
+        <v>10.04796314239502</v>
       </c>
       <c r="G76" t="n">
         <v>12000</v>
@@ -3079,7 +3079,7 @@
         <v>13.55000019073486</v>
       </c>
       <c r="F77" t="n">
-        <v>9.697288513183594</v>
+        <v>9.697287559509277</v>
       </c>
       <c r="G77" t="n">
         <v>11000</v>
@@ -3149,7 +3149,7 @@
         <v>11.51000022888184</v>
       </c>
       <c r="F79" t="n">
-        <v>8.237327575683594</v>
+        <v>8.23732852935791</v>
       </c>
       <c r="G79" t="n">
         <v>72300</v>
@@ -3219,7 +3219,7 @@
         <v>10.89999961853027</v>
       </c>
       <c r="F81" t="n">
-        <v>7.80076789855957</v>
+        <v>7.800768852233887</v>
       </c>
       <c r="G81" t="n">
         <v>7400</v>
@@ -3254,7 +3254,7 @@
         <v>11.52999973297119</v>
       </c>
       <c r="F82" t="n">
-        <v>8.251639366149902</v>
+        <v>8.251640319824219</v>
       </c>
       <c r="G82" t="n">
         <v>27100</v>
@@ -3289,7 +3289,7 @@
         <v>11.10999965667725</v>
       </c>
       <c r="F83" t="n">
-        <v>7.972075462341309</v>
+        <v>7.9720778465271</v>
       </c>
       <c r="G83" t="n">
         <v>7400</v>
@@ -3324,7 +3324,7 @@
         <v>10.69999980926514</v>
       </c>
       <c r="F84" t="n">
-        <v>7.677878856658936</v>
+        <v>7.677877902984619</v>
       </c>
       <c r="G84" t="n">
         <v>3400</v>
@@ -3359,7 +3359,7 @@
         <v>10.10000038146973</v>
       </c>
       <c r="F85" t="n">
-        <v>7.247342586517334</v>
+        <v>7.247344970703125</v>
       </c>
       <c r="G85" t="n">
         <v>6300</v>
@@ -3429,7 +3429,7 @@
         <v>11.26000022888184</v>
       </c>
       <c r="F87" t="n">
-        <v>8.079713821411133</v>
+        <v>8.079712867736816</v>
       </c>
       <c r="G87" t="n">
         <v>8000</v>
@@ -3464,7 +3464,7 @@
         <v>11.88000011444092</v>
       </c>
       <c r="F88" t="n">
-        <v>8.524599075317383</v>
+        <v>8.52459716796875</v>
       </c>
       <c r="G88" t="n">
         <v>6500</v>
@@ -3534,7 +3534,7 @@
         <v>12.09000015258789</v>
       </c>
       <c r="F90" t="n">
-        <v>8.675286293029785</v>
+        <v>8.675285339355469</v>
       </c>
       <c r="G90" t="n">
         <v>3500</v>
@@ -3569,7 +3569,7 @@
         <v>12.22999954223633</v>
       </c>
       <c r="F91" t="n">
-        <v>8.775742530822754</v>
+        <v>8.775741577148438</v>
       </c>
       <c r="G91" t="n">
         <v>4700</v>
@@ -3604,7 +3604,7 @@
         <v>12.77999973297119</v>
       </c>
       <c r="F92" t="n">
-        <v>9.170400619506836</v>
+        <v>9.170398712158203</v>
       </c>
       <c r="G92" t="n">
         <v>16200</v>
@@ -3674,7 +3674,7 @@
         <v>13.84000015258789</v>
       </c>
       <c r="F94" t="n">
-        <v>9.931014060974121</v>
+        <v>9.931011199951172</v>
       </c>
       <c r="G94" t="n">
         <v>7400</v>
@@ -3709,7 +3709,7 @@
         <v>14.73999977111816</v>
       </c>
       <c r="F95" t="n">
-        <v>10.63801860809326</v>
+        <v>10.63801956176758</v>
       </c>
       <c r="G95" t="n">
         <v>4100</v>
@@ -3744,7 +3744,7 @@
         <v>15.13000011444092</v>
       </c>
       <c r="F96" t="n">
-        <v>10.91948699951172</v>
+        <v>10.91948890686035</v>
       </c>
       <c r="G96" t="n">
         <v>32700</v>
@@ -3779,7 +3779,7 @@
         <v>15.14000034332275</v>
       </c>
       <c r="F97" t="n">
-        <v>10.92670154571533</v>
+        <v>10.92670440673828</v>
       </c>
       <c r="G97" t="n">
         <v>30900</v>
@@ -3814,7 +3814,7 @@
         <v>14.81999969482422</v>
       </c>
       <c r="F98" t="n">
-        <v>10.69575595855713</v>
+        <v>10.69575691223145</v>
       </c>
       <c r="G98" t="n">
         <v>5000</v>
@@ -3849,7 +3849,7 @@
         <v>14.90999984741211</v>
       </c>
       <c r="F99" t="n">
-        <v>10.76071166992188</v>
+        <v>10.76071071624756</v>
       </c>
       <c r="G99" t="n">
         <v>17500</v>
@@ -3884,7 +3884,7 @@
         <v>15.15999984741211</v>
       </c>
       <c r="F100" t="n">
-        <v>10.94113731384277</v>
+        <v>10.94113922119141</v>
       </c>
       <c r="G100" t="n">
         <v>10500</v>
@@ -3919,7 +3919,7 @@
         <v>15.22000026702881</v>
       </c>
       <c r="F101" t="n">
-        <v>10.98444080352783</v>
+        <v>10.98444271087646</v>
       </c>
       <c r="G101" t="n">
         <v>12000</v>
@@ -3954,7 +3954,7 @@
         <v>14.59000015258789</v>
       </c>
       <c r="F102" t="n">
-        <v>10.52976608276367</v>
+        <v>10.52976417541504</v>
       </c>
       <c r="G102" t="n">
         <v>4200</v>
@@ -3989,7 +3989,7 @@
         <v>14.60000038146973</v>
       </c>
       <c r="F103" t="n">
-        <v>10.53698062896729</v>
+        <v>10.5369815826416</v>
       </c>
       <c r="G103" t="n">
         <v>8400</v>
@@ -4024,7 +4024,7 @@
         <v>14.89000034332275</v>
       </c>
       <c r="F104" t="n">
-        <v>10.74627590179443</v>
+        <v>10.74627876281738</v>
       </c>
       <c r="G104" t="n">
         <v>7700</v>
@@ -4094,7 +4094,7 @@
         <v>16.61000061035156</v>
       </c>
       <c r="F106" t="n">
-        <v>11.98762035369873</v>
+        <v>11.98761940002441</v>
       </c>
       <c r="G106" t="n">
         <v>14300</v>
@@ -4129,7 +4129,7 @@
         <v>17.20000076293945</v>
       </c>
       <c r="F107" t="n">
-        <v>12.47662258148193</v>
+        <v>12.4766206741333</v>
       </c>
       <c r="G107" t="n">
         <v>8400</v>
@@ -4234,7 +4234,7 @@
         <v>16.8700008392334</v>
       </c>
       <c r="F110" t="n">
-        <v>12.23724269866943</v>
+        <v>12.23724365234375</v>
       </c>
       <c r="G110" t="n">
         <v>17100</v>
@@ -4269,7 +4269,7 @@
         <v>16.75</v>
       </c>
       <c r="F111" t="n">
-        <v>12.15019798278809</v>
+        <v>12.15019702911377</v>
       </c>
       <c r="G111" t="n">
         <v>17300</v>
@@ -4374,7 +4374,7 @@
         <v>17.44000053405762</v>
       </c>
       <c r="F114" t="n">
-        <v>12.65071201324463</v>
+        <v>12.65071487426758</v>
       </c>
       <c r="G114" t="n">
         <v>51600</v>
@@ -4409,7 +4409,7 @@
         <v>17.78000068664551</v>
       </c>
       <c r="F115" t="n">
-        <v>12.89734363555908</v>
+        <v>12.89734554290771</v>
       </c>
       <c r="G115" t="n">
         <v>9000</v>
@@ -4479,7 +4479,7 @@
         <v>18.38999938964844</v>
       </c>
       <c r="F117" t="n">
-        <v>13.33982753753662</v>
+        <v>13.33982944488525</v>
       </c>
       <c r="G117" t="n">
         <v>166300</v>
@@ -4514,7 +4514,7 @@
         <v>18.89999961853027</v>
       </c>
       <c r="F118" t="n">
-        <v>13.70977210998535</v>
+        <v>13.7097749710083</v>
       </c>
       <c r="G118" t="n">
         <v>35200</v>
@@ -4549,7 +4549,7 @@
         <v>19.30999946594238</v>
       </c>
       <c r="F119" t="n">
-        <v>14.0939474105835</v>
+        <v>14.09394931793213</v>
       </c>
       <c r="G119" t="n">
         <v>17700</v>
@@ -4619,7 +4619,7 @@
         <v>20.27000045776367</v>
       </c>
       <c r="F121" t="n">
-        <v>14.79462814331055</v>
+        <v>14.79463481903076</v>
       </c>
       <c r="G121" t="n">
         <v>513700</v>
@@ -4724,7 +4724,7 @@
         <v>21.31999969482422</v>
       </c>
       <c r="F124" t="n">
-        <v>15.56100368499756</v>
+        <v>15.56100082397461</v>
       </c>
       <c r="G124" t="n">
         <v>51000</v>
@@ -4759,7 +4759,7 @@
         <v>21.27000045776367</v>
       </c>
       <c r="F125" t="n">
-        <v>15.52450561523438</v>
+        <v>15.52451229095459</v>
       </c>
       <c r="G125" t="n">
         <v>135100</v>
@@ -4794,7 +4794,7 @@
         <v>22.01000022888184</v>
       </c>
       <c r="F126" t="n">
-        <v>16.06461524963379</v>
+        <v>16.06462287902832</v>
       </c>
       <c r="G126" t="n">
         <v>45600</v>
@@ -4829,7 +4829,7 @@
         <v>22.64999961853027</v>
       </c>
       <c r="F127" t="n">
-        <v>16.5317440032959</v>
+        <v>16.53173637390137</v>
       </c>
       <c r="G127" t="n">
         <v>41900</v>
@@ -4864,7 +4864,7 @@
         <v>23.04000091552734</v>
       </c>
       <c r="F128" t="n">
-        <v>16.81639862060547</v>
+        <v>16.81639671325684</v>
       </c>
       <c r="G128" t="n">
         <v>68400</v>
@@ -4899,7 +4899,7 @@
         <v>23.57999992370605</v>
       </c>
       <c r="F129" t="n">
-        <v>17.21052932739258</v>
+        <v>17.21052742004395</v>
       </c>
       <c r="G129" t="n">
         <v>69300</v>
@@ -4934,7 +4934,7 @@
         <v>24.47999954223633</v>
       </c>
       <c r="F130" t="n">
-        <v>17.8674144744873</v>
+        <v>17.8674201965332</v>
       </c>
       <c r="G130" t="n">
         <v>131700</v>
@@ -5074,7 +5074,7 @@
         <v>25.47999954223633</v>
       </c>
       <c r="F134" t="n">
-        <v>18.74221611022949</v>
+        <v>18.74221038818359</v>
       </c>
       <c r="G134" t="n">
         <v>961900</v>
@@ -5109,7 +5109,7 @@
         <v>27.18000030517578</v>
       </c>
       <c r="F135" t="n">
-        <v>19.99267959594727</v>
+        <v>19.99267768859863</v>
       </c>
       <c r="G135" t="n">
         <v>126200</v>
@@ -5144,7 +5144,7 @@
         <v>27.15999984741211</v>
       </c>
       <c r="F136" t="n">
-        <v>19.97796630859375</v>
+        <v>19.97796440124512</v>
       </c>
       <c r="G136" t="n">
         <v>143500</v>
@@ -5214,7 +5214,7 @@
         <v>25.78000068664551</v>
       </c>
       <c r="F138" t="n">
-        <v>18.9628849029541</v>
+        <v>18.96288681030273</v>
       </c>
       <c r="G138" t="n">
         <v>223100</v>
@@ -5249,7 +5249,7 @@
         <v>25.70999908447266</v>
       </c>
       <c r="F139" t="n">
-        <v>18.9113941192627</v>
+        <v>18.91139030456543</v>
       </c>
       <c r="G139" t="n">
         <v>84900</v>
@@ -5284,7 +5284,7 @@
         <v>26.89999961853027</v>
       </c>
       <c r="F140" t="n">
-        <v>19.78671646118164</v>
+        <v>19.78671836853027</v>
       </c>
       <c r="G140" t="n">
         <v>162300</v>
@@ -5389,7 +5389,7 @@
         <v>25.98999977111816</v>
       </c>
       <c r="F143" t="n">
-        <v>19.32513427734375</v>
+        <v>19.32513236999512</v>
       </c>
       <c r="G143" t="n">
         <v>74100</v>
@@ -5424,7 +5424,7 @@
         <v>24.96999931335449</v>
       </c>
       <c r="F144" t="n">
-        <v>18.56669807434082</v>
+        <v>18.56669998168945</v>
       </c>
       <c r="G144" t="n">
         <v>458500</v>
@@ -5459,7 +5459,7 @@
         <v>25.43000030517578</v>
       </c>
       <c r="F145" t="n">
-        <v>18.90874099731445</v>
+        <v>18.90874290466309</v>
       </c>
       <c r="G145" t="n">
         <v>214300</v>
@@ -5494,7 +5494,7 @@
         <v>25.8799991607666</v>
       </c>
       <c r="F146" t="n">
-        <v>19.24333953857422</v>
+        <v>19.24334144592285</v>
       </c>
       <c r="G146" t="n">
         <v>109200</v>
@@ -5529,7 +5529,7 @@
         <v>25.82999992370605</v>
       </c>
       <c r="F147" t="n">
-        <v>19.2061653137207</v>
+        <v>19.20616912841797</v>
       </c>
       <c r="G147" t="n">
         <v>74400</v>
@@ -5564,7 +5564,7 @@
         <v>25.90999984741211</v>
       </c>
       <c r="F148" t="n">
-        <v>19.26564788818359</v>
+        <v>19.26565170288086</v>
       </c>
       <c r="G148" t="n">
         <v>197000</v>
@@ -5599,7 +5599,7 @@
         <v>23.79000091552734</v>
       </c>
       <c r="F149" t="n">
-        <v>17.98344230651855</v>
+        <v>17.98344039916992</v>
       </c>
       <c r="G149" t="n">
         <v>870700</v>
@@ -5634,7 +5634,7 @@
         <v>23.65999984741211</v>
       </c>
       <c r="F150" t="n">
-        <v>17.88516998291016</v>
+        <v>17.88516807556152</v>
       </c>
       <c r="G150" t="n">
         <v>125100</v>
@@ -5669,7 +5669,7 @@
         <v>22.89999961853027</v>
       </c>
       <c r="F151" t="n">
-        <v>17.31066513061523</v>
+        <v>17.31066703796387</v>
       </c>
       <c r="G151" t="n">
         <v>72900</v>
@@ -5704,7 +5704,7 @@
         <v>21.03000068664551</v>
       </c>
       <c r="F152" t="n">
-        <v>15.89708709716797</v>
+        <v>15.89709091186523</v>
       </c>
       <c r="G152" t="n">
         <v>233600</v>
@@ -5739,7 +5739,7 @@
         <v>18.3700008392334</v>
       </c>
       <c r="F153" t="n">
-        <v>13.88633346557617</v>
+        <v>13.88633060455322</v>
       </c>
       <c r="G153" t="n">
         <v>126700</v>
@@ -5774,7 +5774,7 @@
         <v>16.65999984741211</v>
       </c>
       <c r="F154" t="n">
-        <v>12.59369850158691</v>
+        <v>12.59370040893555</v>
       </c>
       <c r="G154" t="n">
         <v>92900</v>
@@ -5844,7 +5844,7 @@
         <v>15.82999992370605</v>
       </c>
       <c r="F156" t="n">
-        <v>12.01151657104492</v>
+        <v>12.01151847839355</v>
       </c>
       <c r="G156" t="n">
         <v>306300</v>
@@ -5879,7 +5879,7 @@
         <v>14.03999996185303</v>
       </c>
       <c r="F157" t="n">
-        <v>10.65329837799072</v>
+        <v>10.65329647064209</v>
       </c>
       <c r="G157" t="n">
         <v>204100</v>
@@ -5914,7 +5914,7 @@
         <v>15.22999954223633</v>
       </c>
       <c r="F158" t="n">
-        <v>11.55624771118164</v>
+        <v>11.55624580383301</v>
       </c>
       <c r="G158" t="n">
         <v>167300</v>
@@ -6019,7 +6019,7 @@
         <v>17.70999908447266</v>
       </c>
       <c r="F161" t="n">
-        <v>13.64206886291504</v>
+        <v>13.64207077026367</v>
       </c>
       <c r="G161" t="n">
         <v>84700</v>
@@ -6089,7 +6089,7 @@
         <v>20.78000068664551</v>
       </c>
       <c r="F163" t="n">
-        <v>16.00690460205078</v>
+        <v>16.00690269470215</v>
       </c>
       <c r="G163" t="n">
         <v>64900</v>
@@ -6159,7 +6159,7 @@
         <v>21.3799991607666</v>
       </c>
       <c r="F165" t="n">
-        <v>16.46908378601074</v>
+        <v>16.46908569335938</v>
       </c>
       <c r="G165" t="n">
         <v>105200</v>
@@ -6194,7 +6194,7 @@
         <v>22.09000015258789</v>
       </c>
       <c r="F166" t="n">
-        <v>17.01600074768066</v>
+        <v>17.01599884033203</v>
       </c>
       <c r="G166" t="n">
         <v>104300</v>
@@ -6229,7 +6229,7 @@
         <v>22.26000022888184</v>
       </c>
       <c r="F167" t="n">
-        <v>17.17912673950195</v>
+        <v>17.17912483215332</v>
       </c>
       <c r="G167" t="n">
         <v>58400</v>
@@ -6264,7 +6264,7 @@
         <v>21.29000091552734</v>
       </c>
       <c r="F168" t="n">
-        <v>16.43053245544434</v>
+        <v>16.4305305480957</v>
       </c>
       <c r="G168" t="n">
         <v>242000</v>
@@ -6299,7 +6299,7 @@
         <v>21.88999938964844</v>
       </c>
       <c r="F169" t="n">
-        <v>16.89357948303223</v>
+        <v>16.89358139038086</v>
       </c>
       <c r="G169" t="n">
         <v>142900</v>
@@ -6334,7 +6334,7 @@
         <v>23.10000038146973</v>
       </c>
       <c r="F170" t="n">
-        <v>17.82740020751953</v>
+        <v>17.8273983001709</v>
       </c>
       <c r="G170" t="n">
         <v>161500</v>
@@ -6369,7 +6369,7 @@
         <v>21.92000007629395</v>
       </c>
       <c r="F171" t="n">
-        <v>16.91673469543457</v>
+        <v>16.91673278808594</v>
       </c>
       <c r="G171" t="n">
         <v>278600</v>
@@ -6404,7 +6404,7 @@
         <v>19.57999992370605</v>
       </c>
       <c r="F172" t="n">
-        <v>15.11084079742432</v>
+        <v>15.11083984375</v>
       </c>
       <c r="G172" t="n">
         <v>152000</v>
@@ -6579,7 +6579,7 @@
         <v>23.52000045776367</v>
       </c>
       <c r="F177" t="n">
-        <v>18.43861389160156</v>
+        <v>18.43860816955566</v>
       </c>
       <c r="G177" t="n">
         <v>245000</v>
@@ -6614,7 +6614,7 @@
         <v>22.70999908447266</v>
       </c>
       <c r="F178" t="n">
-        <v>17.8036060333252</v>
+        <v>17.80360794067383</v>
       </c>
       <c r="G178" t="n">
         <v>260900</v>
@@ -6649,7 +6649,7 @@
         <v>25.07999992370605</v>
       </c>
       <c r="F179" t="n">
-        <v>19.66157913208008</v>
+        <v>19.66157531738281</v>
       </c>
       <c r="G179" t="n">
         <v>185600</v>
@@ -6719,7 +6719,7 @@
         <v>25.70000076293945</v>
       </c>
       <c r="F181" t="n">
-        <v>20.14763069152832</v>
+        <v>20.14763450622559</v>
       </c>
       <c r="G181" t="n">
         <v>189900</v>
@@ -6754,7 +6754,7 @@
         <v>25.29000091552734</v>
       </c>
       <c r="F182" t="n">
-        <v>19.82620620727539</v>
+        <v>19.82621192932129</v>
       </c>
       <c r="G182" t="n">
         <v>80400</v>
@@ -6789,7 +6789,7 @@
         <v>27.85000038146973</v>
       </c>
       <c r="F183" t="n">
-        <v>21.83313369750977</v>
+        <v>21.8331356048584</v>
       </c>
       <c r="G183" t="n">
         <v>96000</v>
@@ -6824,7 +6824,7 @@
         <v>28.36000061035156</v>
       </c>
       <c r="F184" t="n">
-        <v>22.23295211791992</v>
+        <v>22.23294830322266</v>
       </c>
       <c r="G184" t="n">
         <v>696400</v>
@@ -6929,7 +6929,7 @@
         <v>24.67000007629395</v>
       </c>
       <c r="F187" t="n">
-        <v>19.72947692871094</v>
+        <v>19.72948265075684</v>
       </c>
       <c r="G187" t="n">
         <v>374200</v>
@@ -6964,7 +6964,7 @@
         <v>21.65999984741211</v>
       </c>
       <c r="F188" t="n">
-        <v>17.3222713470459</v>
+        <v>17.32227516174316</v>
       </c>
       <c r="G188" t="n">
         <v>178500</v>
@@ -7069,7 +7069,7 @@
         <v>22.6200008392334</v>
       </c>
       <c r="F191" t="n">
-        <v>18.10497283935547</v>
+        <v>18.10497093200684</v>
       </c>
       <c r="G191" t="n">
         <v>208600</v>
@@ -7104,7 +7104,7 @@
         <v>23.31999969482422</v>
       </c>
       <c r="F192" t="n">
-        <v>18.66524505615234</v>
+        <v>18.66524887084961</v>
       </c>
       <c r="G192" t="n">
         <v>100900</v>
@@ -7174,7 +7174,7 @@
         <v>25.03000068664551</v>
       </c>
       <c r="F194" t="n">
-        <v>20.03392601013184</v>
+        <v>20.0339241027832</v>
       </c>
       <c r="G194" t="n">
         <v>218400</v>
@@ -7209,7 +7209,7 @@
         <v>24.81999969482422</v>
       </c>
       <c r="F195" t="n">
-        <v>19.86584281921387</v>
+        <v>19.86584091186523</v>
       </c>
       <c r="G195" t="n">
         <v>170000</v>
@@ -7244,7 +7244,7 @@
         <v>22.25</v>
       </c>
       <c r="F196" t="n">
-        <v>17.8088207244873</v>
+        <v>17.80882263183594</v>
       </c>
       <c r="G196" t="n">
         <v>510800</v>
@@ -7279,7 +7279,7 @@
         <v>22.90999984741211</v>
       </c>
       <c r="F197" t="n">
-        <v>18.84871482849121</v>
+        <v>18.84871292114258</v>
       </c>
       <c r="G197" t="n">
         <v>152300</v>
@@ -7314,7 +7314,7 @@
         <v>23.28000068664551</v>
       </c>
       <c r="F198" t="n">
-        <v>19.15312767028809</v>
+        <v>19.15312576293945</v>
       </c>
       <c r="G198" t="n">
         <v>170200</v>
@@ -7384,7 +7384,7 @@
         <v>24.59000015258789</v>
       </c>
       <c r="F200" t="n">
-        <v>20.23089981079102</v>
+        <v>20.23089790344238</v>
       </c>
       <c r="G200" t="n">
         <v>216600</v>
@@ -7419,7 +7419,7 @@
         <v>25.19000053405762</v>
       </c>
       <c r="F201" t="n">
-        <v>20.72453689575195</v>
+        <v>20.72453880310059</v>
       </c>
       <c r="G201" t="n">
         <v>411600</v>
@@ -7454,7 +7454,7 @@
         <v>26.17000007629395</v>
       </c>
       <c r="F202" t="n">
-        <v>21.53081130981445</v>
+        <v>21.53080940246582</v>
       </c>
       <c r="G202" t="n">
         <v>347600</v>
@@ -7524,7 +7524,7 @@
         <v>28.70000076293945</v>
       </c>
       <c r="F204" t="n">
-        <v>23.61231803894043</v>
+        <v>23.6123161315918</v>
       </c>
       <c r="G204" t="n">
         <v>415800</v>
@@ -7559,7 +7559,7 @@
         <v>28.76000022888184</v>
       </c>
       <c r="F205" t="n">
-        <v>23.66168022155762</v>
+        <v>23.66167831420898</v>
       </c>
       <c r="G205" t="n">
         <v>426200</v>
@@ -7629,7 +7629,7 @@
         <v>30.5</v>
       </c>
       <c r="F207" t="n">
-        <v>25.09322929382324</v>
+        <v>25.09322738647461</v>
       </c>
       <c r="G207" t="n">
         <v>403700</v>
@@ -7664,7 +7664,7 @@
         <v>29.72999954223633</v>
       </c>
       <c r="F208" t="n">
-        <v>24.45972442626953</v>
+        <v>24.4597282409668</v>
       </c>
       <c r="G208" t="n">
         <v>491900</v>
@@ -7699,7 +7699,7 @@
         <v>28.64999961853027</v>
       </c>
       <c r="F209" t="n">
-        <v>24.07361030578613</v>
+        <v>24.07361221313477</v>
       </c>
       <c r="G209" t="n">
         <v>706900</v>
@@ -7804,7 +7804,7 @@
         <v>31.28000068664551</v>
       </c>
       <c r="F212" t="n">
-        <v>26.28351402282715</v>
+        <v>26.28351211547852</v>
       </c>
       <c r="G212" t="n">
         <v>366400</v>
@@ -7839,7 +7839,7 @@
         <v>32.20999908447266</v>
       </c>
       <c r="F213" t="n">
-        <v>27.06495666503906</v>
+        <v>27.06496047973633</v>
       </c>
       <c r="G213" t="n">
         <v>482500</v>
@@ -7874,7 +7874,7 @@
         <v>32.27999877929688</v>
       </c>
       <c r="F214" t="n">
-        <v>27.123779296875</v>
+        <v>27.12377738952637</v>
       </c>
       <c r="G214" t="n">
         <v>235500</v>
@@ -7909,7 +7909,7 @@
         <v>32.9900016784668</v>
       </c>
       <c r="F215" t="n">
-        <v>27.72036933898926</v>
+        <v>27.72036743164062</v>
       </c>
       <c r="G215" t="n">
         <v>458700</v>
@@ -7944,7 +7944,7 @@
         <v>32</v>
       </c>
       <c r="F216" t="n">
-        <v>26.88850402832031</v>
+        <v>26.88850593566895</v>
       </c>
       <c r="G216" t="n">
         <v>381200</v>
@@ -7979,7 +7979,7 @@
         <v>34.22000122070312</v>
       </c>
       <c r="F217" t="n">
-        <v>28.75389289855957</v>
+        <v>28.75389099121094</v>
       </c>
       <c r="G217" t="n">
         <v>222500</v>
@@ -8014,7 +8014,7 @@
         <v>34.34000015258789</v>
       </c>
       <c r="F218" t="n">
-        <v>28.85472106933594</v>
+        <v>28.8547248840332</v>
       </c>
       <c r="G218" t="n">
         <v>470000</v>
@@ -8049,7 +8049,7 @@
         <v>35.02999877929688</v>
       </c>
       <c r="F219" t="n">
-        <v>29.43450736999512</v>
+        <v>29.43451118469238</v>
       </c>
       <c r="G219" t="n">
         <v>264700</v>
@@ -8084,7 +8084,7 @@
         <v>35.2599983215332</v>
       </c>
       <c r="F220" t="n">
-        <v>29.62776947021484</v>
+        <v>29.62776756286621</v>
       </c>
       <c r="G220" t="n">
         <v>400000</v>
@@ -8119,7 +8119,7 @@
         <v>34.31999969482422</v>
       </c>
       <c r="F221" t="n">
-        <v>29.49924278259277</v>
+        <v>29.49923706054688</v>
       </c>
       <c r="G221" t="n">
         <v>687800</v>
@@ -8154,7 +8154,7 @@
         <v>32.79999923706055</v>
       </c>
       <c r="F222" t="n">
-        <v>28.1927433013916</v>
+        <v>28.19274520874023</v>
       </c>
       <c r="G222" t="n">
         <v>1498600</v>
@@ -8224,7 +8224,7 @@
         <v>32.5099983215332</v>
       </c>
       <c r="F224" t="n">
-        <v>27.9434814453125</v>
+        <v>27.94347953796387</v>
       </c>
       <c r="G224" t="n">
         <v>253600</v>
@@ -8259,7 +8259,7 @@
         <v>32.36999893188477</v>
       </c>
       <c r="F225" t="n">
-        <v>27.82314491271973</v>
+        <v>27.82314300537109</v>
       </c>
       <c r="G225" t="n">
         <v>885700</v>
@@ -8329,7 +8329,7 @@
         <v>31.69000053405762</v>
       </c>
       <c r="F227" t="n">
-        <v>27.23866271972656</v>
+        <v>27.2386646270752</v>
       </c>
       <c r="G227" t="n">
         <v>912900</v>
@@ -8364,7 +8364,7 @@
         <v>31.75</v>
       </c>
       <c r="F228" t="n">
-        <v>27.29023551940918</v>
+        <v>27.29023742675781</v>
       </c>
       <c r="G228" t="n">
         <v>878600</v>
@@ -8399,7 +8399,7 @@
         <v>33.31999969482422</v>
       </c>
       <c r="F229" t="n">
-        <v>28.63970375061035</v>
+        <v>28.63970565795898</v>
       </c>
       <c r="G229" t="n">
         <v>456000</v>
@@ -8469,7 +8469,7 @@
         <v>34.54000091552734</v>
       </c>
       <c r="F231" t="n">
-        <v>29.68834114074707</v>
+        <v>29.68833541870117</v>
       </c>
       <c r="G231" t="n">
         <v>465100</v>
@@ -8504,7 +8504,7 @@
         <v>35.40000152587891</v>
       </c>
       <c r="F232" t="n">
-        <v>30.42753601074219</v>
+        <v>30.42754364013672</v>
       </c>
       <c r="G232" t="n">
         <v>955000</v>
@@ -8539,7 +8539,7 @@
         <v>32.75</v>
       </c>
       <c r="F233" t="n">
-        <v>28.81669235229492</v>
+        <v>28.81669425964355</v>
       </c>
       <c r="G233" t="n">
         <v>1484800</v>
@@ -8574,7 +8574,7 @@
         <v>34.09999847412109</v>
       </c>
       <c r="F234" t="n">
-        <v>30.00455474853516</v>
+        <v>30.00455284118652</v>
       </c>
       <c r="G234" t="n">
         <v>539800</v>
@@ -8609,7 +8609,7 @@
         <v>31.81999969482422</v>
       </c>
       <c r="F235" t="n">
-        <v>27.99838447570801</v>
+        <v>27.99838638305664</v>
       </c>
       <c r="G235" t="n">
         <v>1030100</v>
@@ -8644,7 +8644,7 @@
         <v>30.59000015258789</v>
       </c>
       <c r="F236" t="n">
-        <v>26.91611099243164</v>
+        <v>26.91610717773438</v>
       </c>
       <c r="G236" t="n">
         <v>1057400</v>
@@ -8714,7 +8714,7 @@
         <v>30.88999938964844</v>
       </c>
       <c r="F238" t="n">
-        <v>27.18007850646973</v>
+        <v>27.18008041381836</v>
       </c>
       <c r="G238" t="n">
         <v>589900</v>
@@ -8749,7 +8749,7 @@
         <v>31.04000091552734</v>
       </c>
       <c r="F239" t="n">
-        <v>27.31206321716309</v>
+        <v>27.31206512451172</v>
       </c>
       <c r="G239" t="n">
         <v>1262200</v>
@@ -8784,7 +8784,7 @@
         <v>29.15999984741211</v>
       </c>
       <c r="F240" t="n">
-        <v>25.65785598754883</v>
+        <v>25.65785217285156</v>
       </c>
       <c r="G240" t="n">
         <v>1953300</v>
@@ -8819,7 +8819,7 @@
         <v>28.32999992370605</v>
       </c>
       <c r="F241" t="n">
-        <v>24.92753982543945</v>
+        <v>24.92753791809082</v>
       </c>
       <c r="G241" t="n">
         <v>982100</v>
@@ -8854,7 +8854,7 @@
         <v>29.72999954223633</v>
       </c>
       <c r="F242" t="n">
-        <v>26.15939521789551</v>
+        <v>26.15939331054688</v>
       </c>
       <c r="G242" t="n">
         <v>1554400</v>
@@ -8889,7 +8889,7 @@
         <v>30.61000061035156</v>
       </c>
       <c r="F243" t="n">
-        <v>26.93370819091797</v>
+        <v>26.9337100982666</v>
       </c>
       <c r="G243" t="n">
         <v>1498200</v>
@@ -8924,7 +8924,7 @@
         <v>30.54000091552734</v>
       </c>
       <c r="F244" t="n">
-        <v>26.87211799621582</v>
+        <v>26.87211608886719</v>
       </c>
       <c r="G244" t="n">
         <v>966600</v>
@@ -8959,7 +8959,7 @@
         <v>29.64999961853027</v>
       </c>
       <c r="F245" t="n">
-        <v>26.78285789489746</v>
+        <v>26.78285598754883</v>
       </c>
       <c r="G245" t="n">
         <v>1648700</v>
@@ -9029,7 +9029,7 @@
         <v>30.18000030517578</v>
       </c>
       <c r="F247" t="n">
-        <v>27.26160621643066</v>
+        <v>27.26160430908203</v>
       </c>
       <c r="G247" t="n">
         <v>483200</v>
@@ -9064,7 +9064,7 @@
         <v>30.54999923706055</v>
       </c>
       <c r="F248" t="n">
-        <v>27.59582710266113</v>
+        <v>27.5958251953125</v>
       </c>
       <c r="G248" t="n">
         <v>970600</v>
@@ -9134,7 +9134,7 @@
         <v>28.35000038146973</v>
       </c>
       <c r="F250" t="n">
-        <v>25.60856628417969</v>
+        <v>25.60856819152832</v>
       </c>
       <c r="G250" t="n">
         <v>1106400</v>
@@ -9169,7 +9169,7 @@
         <v>29.45999908447266</v>
       </c>
       <c r="F251" t="n">
-        <v>26.62763595581055</v>
+        <v>26.62763977050781</v>
       </c>
       <c r="G251" t="n">
         <v>749300</v>
@@ -9204,7 +9204,7 @@
         <v>30.72999954223633</v>
       </c>
       <c r="F252" t="n">
-        <v>27.77553939819336</v>
+        <v>27.77553749084473</v>
       </c>
       <c r="G252" t="n">
         <v>1161900</v>
@@ -9414,7 +9414,7 @@
         <v>34.47000122070312</v>
       </c>
       <c r="F258" t="n">
-        <v>31.81835556030273</v>
+        <v>31.81835174560547</v>
       </c>
       <c r="G258" t="n">
         <v>747900</v>
@@ -9484,7 +9484,7 @@
         <v>35.02999877929688</v>
       </c>
       <c r="F260" t="n">
-        <v>32.33526992797852</v>
+        <v>32.33527374267578</v>
       </c>
       <c r="G260" t="n">
         <v>1039700</v>
@@ -9519,7 +9519,7 @@
         <v>34.52999877929688</v>
       </c>
       <c r="F261" t="n">
-        <v>31.87373733520508</v>
+        <v>31.87373352050781</v>
       </c>
       <c r="G261" t="n">
         <v>709100</v>
@@ -9554,7 +9554,7 @@
         <v>34.97999954223633</v>
       </c>
       <c r="F262" t="n">
-        <v>32.28911972045898</v>
+        <v>32.28912353515625</v>
       </c>
       <c r="G262" t="n">
         <v>938700</v>
@@ -9589,7 +9589,7 @@
         <v>35.58000183105469</v>
       </c>
       <c r="F263" t="n">
-        <v>32.84296798706055</v>
+        <v>32.84297180175781</v>
       </c>
       <c r="G263" t="n">
         <v>371100</v>
@@ -9624,7 +9624,7 @@
         <v>37.16999816894531</v>
       </c>
       <c r="F264" t="n">
-        <v>34.31065368652344</v>
+        <v>34.31064987182617</v>
       </c>
       <c r="G264" t="n">
         <v>839900</v>
@@ -9659,7 +9659,7 @@
         <v>34.91999816894531</v>
       </c>
       <c r="F265" t="n">
-        <v>32.23373413085938</v>
+        <v>32.23373794555664</v>
       </c>
       <c r="G265" t="n">
         <v>1290200</v>
@@ -9764,7 +9764,7 @@
         <v>33.27000045776367</v>
       </c>
       <c r="F268" t="n">
-        <v>30.71066474914551</v>
+        <v>30.71066284179688</v>
       </c>
       <c r="G268" t="n">
         <v>1024400</v>
@@ -9834,7 +9834,7 @@
         <v>34.70000076293945</v>
       </c>
       <c r="F270" t="n">
-        <v>32.82740020751953</v>
+        <v>32.8274040222168</v>
       </c>
       <c r="G270" t="n">
         <v>2446400</v>
@@ -9869,7 +9869,7 @@
         <v>34.77000045776367</v>
       </c>
       <c r="F271" t="n">
-        <v>32.89362335205078</v>
+        <v>32.89362716674805</v>
       </c>
       <c r="G271" t="n">
         <v>715400</v>
@@ -9939,7 +9939,7 @@
         <v>33.09999847412109</v>
       </c>
       <c r="F273" t="n">
-        <v>31.31374549865723</v>
+        <v>31.31374359130859</v>
       </c>
       <c r="G273" t="n">
         <v>669000</v>
@@ -9974,7 +9974,7 @@
         <v>33.20999908447266</v>
       </c>
       <c r="F274" t="n">
-        <v>31.41780853271484</v>
+        <v>31.41780662536621</v>
       </c>
       <c r="G274" t="n">
         <v>871500</v>
@@ -10009,7 +10009,7 @@
         <v>31.52000045776367</v>
       </c>
       <c r="F275" t="n">
-        <v>29.81901359558105</v>
+        <v>29.81901168823242</v>
       </c>
       <c r="G275" t="n">
         <v>1464100</v>
@@ -10079,7 +10079,7 @@
         <v>34.56999969482422</v>
       </c>
       <c r="F277" t="n">
-        <v>32.70441818237305</v>
+        <v>32.70442199707031</v>
       </c>
       <c r="G277" t="n">
         <v>718600</v>
@@ -10149,7 +10149,7 @@
         <v>36.20000076293945</v>
       </c>
       <c r="F279" t="n">
-        <v>34.24645233154297</v>
+        <v>34.2464599609375</v>
       </c>
       <c r="G279" t="n">
         <v>1270800</v>
@@ -10254,7 +10254,7 @@
         <v>37.16999816894531</v>
       </c>
       <c r="F282" t="n">
-        <v>35.88586807250977</v>
+        <v>35.8858642578125</v>
       </c>
       <c r="G282" t="n">
         <v>2477400</v>
@@ -10289,7 +10289,7 @@
         <v>37.47000122070312</v>
       </c>
       <c r="F283" t="n">
-        <v>36.17550277709961</v>
+        <v>36.17550659179688</v>
       </c>
       <c r="G283" t="n">
         <v>1298600</v>
@@ -10324,7 +10324,7 @@
         <v>37.70000076293945</v>
       </c>
       <c r="F284" t="n">
-        <v>36.39755630493164</v>
+        <v>36.39756011962891</v>
       </c>
       <c r="G284" t="n">
         <v>689700</v>
@@ -10394,7 +10394,7 @@
         <v>38.90000152587891</v>
       </c>
       <c r="F286" t="n">
-        <v>37.55609893798828</v>
+        <v>37.55610275268555</v>
       </c>
       <c r="G286" t="n">
         <v>399500</v>
@@ -11295,31 +11295,31 @@
         <v>52.81000137329102</v>
       </c>
       <c r="C312" t="n">
-        <v>52.88000106811523</v>
+        <v>52.88999938964844</v>
       </c>
       <c r="D312" t="n">
         <v>52.7400016784668</v>
       </c>
       <c r="E312" t="n">
-        <v>52.83000183105469</v>
+        <v>52.86999893188477</v>
       </c>
       <c r="F312" t="n">
-        <v>52.83000183105469</v>
+        <v>52.86999893188477</v>
       </c>
       <c r="G312" t="n">
-        <v>266767</v>
+        <v>338539</v>
       </c>
       <c r="H312" t="n">
-        <v>0.001896497054551638</v>
+        <v>0.002655023532406764</v>
       </c>
       <c r="I312" t="n">
-        <v>0.0371841612213203</v>
+        <v>0.03718326033190593</v>
       </c>
       <c r="J312" t="n">
-        <v>0.1998638041274627</v>
+        <v>0.2007722098040234</v>
       </c>
       <c r="K312" t="n">
-        <v>0.1998638041274627</v>
+        <v>0.2007722098040234</v>
       </c>
     </row>
   </sheetData>
